--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_1_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_1_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2604980.14500638</v>
+        <v>2587110.964807898</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3254445.780230136</v>
+        <v>3254445.780230137</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>230.6992324161051</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -673,16 +673,16 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="H2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
-        <v>14.30770962901293</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -703,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -712,10 +712,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -737,28 +737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>49.652897624987</v>
+        <v>84.56713651463426</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -803,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -873,16 +873,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>168.1666138174382</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>25.17354161800005</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>241.0142888776591</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>15.30273751513505</v>
@@ -943,7 +943,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -955,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -983,13 +983,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>97.14300457665131</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>39.87279829194113</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1043,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1095,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>108.1960350243787</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>6.876045741711437</v>
-      </c>
       <c r="G8" t="n">
-        <v>215.463570623987</v>
+        <v>72.47049842454874</v>
       </c>
       <c r="H8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -1211,19 +1211,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>49.31110394229523</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1271,16 +1271,16 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>145.1806198985548</v>
       </c>
     </row>
     <row r="10">
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H11" t="n">
         <v>315.0408840752156</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>118.4960408938905</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,22 +1423,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>84.92579255968323</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>251.1547862223006</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>213.9992369298191</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>20.90078060183531</v>
+        <v>20.90078060183529</v>
       </c>
       <c r="S12" t="n">
         <v>147.9721212459916</v>
@@ -1533,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1542,10 +1542,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>149.9471232968851</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>225.5650375952926</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1615,16 +1615,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H14" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>154.6528871281403</v>
       </c>
       <c r="T14" t="n">
-        <v>80.6182239758908</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>251.1547862223006</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>160.1491440309564</v>
       </c>
     </row>
     <row r="15">
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>20.90078060183531</v>
+        <v>20.90078060183529</v>
       </c>
       <c r="S15" t="n">
         <v>147.9721212459916</v>
@@ -1764,22 +1764,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>3.569732218854638</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>129.1731816677914</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>165.0140383262328</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1861,7 +1861,7 @@
         <v>412.9169039459368</v>
       </c>
       <c r="H17" t="n">
-        <v>201.2075889726214</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1903,10 +1903,10 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>179.7188787253444</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>20.90078060183531</v>
+        <v>20.90078060183529</v>
       </c>
       <c r="S18" t="n">
         <v>147.9721212459916</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2.454476553028011</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.260654658097</v>
@@ -2064,10 +2064,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>165.014038326233</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2095,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H20" t="n">
-        <v>315.0408840752156</v>
+        <v>61.22283783145367</v>
       </c>
       <c r="I20" t="n">
-        <v>118.4960408938906</v>
+        <v>118.4960408938905</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>154.6528871281403</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>351.589943764636</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>20.90078060183531</v>
+        <v>20.90078060183529</v>
       </c>
       <c r="S21" t="n">
         <v>147.9721212459916</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>169.3894146473061</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2250,16 +2250,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>125.2621210228952</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I22" t="n">
-        <v>123.2665578794171</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>129.1731816677914</v>
       </c>
       <c r="S22" t="n">
-        <v>205.3658819001187</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2326,7 +2326,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>118.0341689166425</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2335,10 +2335,10 @@
         <v>412.4198296272988</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>309.9502217094637</v>
       </c>
       <c r="I23" t="n">
-        <v>99.33258322459722</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>143.3258060921758</v>
       </c>
       <c r="T23" t="n">
-        <v>90.04724342142404</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>251.1150202768096</v>
@@ -2417,7 +2417,7 @@
         <v>97.33822170543411</v>
       </c>
       <c r="I24" t="n">
-        <v>36.28891401906289</v>
+        <v>36.2889140190629</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>4.388042077384824</v>
+        <v>4.388042077384839</v>
       </c>
       <c r="S24" t="n">
         <v>143.0320641923714</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>116.5612290399729</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>119.1476204707264</v>
       </c>
       <c r="S25" t="n">
-        <v>201.4801154596064</v>
+        <v>201.4801154596065</v>
       </c>
       <c r="T25" t="n">
         <v>222.420212896533</v>
       </c>
       <c r="U25" t="n">
-        <v>286.248492634809</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>62.14674107134741</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>78.30102918269388</v>
       </c>
     </row>
     <row r="26">
@@ -2563,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2572,10 +2572,10 @@
         <v>412.4198296272988</v>
       </c>
       <c r="H26" t="n">
-        <v>309.9502217094637</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>99.33258322459722</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2614,10 +2614,10 @@
         <v>251.1150202768096</v>
       </c>
       <c r="V26" t="n">
-        <v>135.9779238770521</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>184.8190689861288</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2654,7 +2654,7 @@
         <v>97.33822170543411</v>
       </c>
       <c r="I27" t="n">
-        <v>36.28891401906289</v>
+        <v>36.2889140190629</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>4.388042077384824</v>
+        <v>4.388042077384839</v>
       </c>
       <c r="S27" t="n">
         <v>143.0320641923714</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2724,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>2.199210145291254</v>
+        <v>222.420212896533</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2775,13 +2775,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>24.50852138582119</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>309.9502217094637</v>
       </c>
       <c r="I29" t="n">
-        <v>99.33258322459722</v>
+        <v>99.33258322459723</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>31.21204198876898</v>
+        <v>251.1150202768096</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>166.334960368012</v>
       </c>
     </row>
     <row r="30">
@@ -2891,7 +2891,7 @@
         <v>97.33822170543411</v>
       </c>
       <c r="I30" t="n">
-        <v>36.28891401906289</v>
+        <v>36.2889140190629</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>4.388042077384824</v>
+        <v>4.388042077384839</v>
       </c>
       <c r="S30" t="n">
         <v>143.0320641923714</v>
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -3003,22 +3003,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>222.420212896533</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.248492634809</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>224.7144405390473</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>143.8016643219866</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>309.9502217094637</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>99.33258322459723</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3085,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>130.5446252133676</v>
+        <v>31.21204198876898</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3128,7 +3128,7 @@
         <v>97.33822170543411</v>
       </c>
       <c r="I33" t="n">
-        <v>36.28891401906289</v>
+        <v>36.2889140190629</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>4.388042077384824</v>
+        <v>4.388042077384839</v>
       </c>
       <c r="S33" t="n">
         <v>143.0320641923714</v>
@@ -3204,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>150.7296868732905</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>119.1476204707264</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>201.4801154596064</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>222.420212896533</v>
+        <v>140.5122218294824</v>
       </c>
       <c r="U34" t="n">
         <v>286.248492634809</v>
       </c>
       <c r="V34" t="n">
-        <v>211.1048831787824</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3271,10 +3271,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>262.2412902521977</v>
+        <v>90.92855866480242</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3283,10 +3283,10 @@
         <v>412.4198296272988</v>
       </c>
       <c r="H35" t="n">
-        <v>309.9502217094637</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>99.33258322459723</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>97.33822170543411</v>
       </c>
       <c r="I36" t="n">
-        <v>36.28891401906289</v>
+        <v>36.2889140190629</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>4.388042077384824</v>
+        <v>4.388042077384839</v>
       </c>
       <c r="S36" t="n">
         <v>143.0320641923714</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>61.32322039856135</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>119.1476204707264</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>201.4801154596064</v>
+        <v>201.4801154596065</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>222.420212896533</v>
       </c>
       <c r="U37" t="n">
-        <v>286.248492634809</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>106.4074842357409</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>309.9502217094637</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>99.33258322459723</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>143.3258060921758</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>210.475920285128</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.1150202768096</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>125.9838675534764</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>267.1044605754354</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3602,7 +3602,7 @@
         <v>97.33822170543411</v>
       </c>
       <c r="I39" t="n">
-        <v>36.28891401906289</v>
+        <v>36.2889140190629</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>4.388042077384824</v>
+        <v>4.388042077384839</v>
       </c>
       <c r="S39" t="n">
         <v>143.0320641923714</v>
@@ -3669,7 +3669,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>116.5612290399729</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>201.4801154596064</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>5.268740377987017</v>
+        <v>222.420212896533</v>
       </c>
       <c r="U40" t="n">
-        <v>286.248492634809</v>
+        <v>123.6633735340423</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3742,13 +3742,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3760,7 +3760,7 @@
         <v>309.9502217094637</v>
       </c>
       <c r="I41" t="n">
-        <v>99.33258322459722</v>
+        <v>99.33258322459723</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3802,10 +3802,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>140.8091558230761</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>177.9567660853852</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3839,7 +3839,7 @@
         <v>97.33822170543411</v>
       </c>
       <c r="I42" t="n">
-        <v>36.28891401906289</v>
+        <v>36.2889140190629</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>4.388042077384824</v>
+        <v>4.388042077384839</v>
       </c>
       <c r="S42" t="n">
         <v>143.0320641923714</v>
@@ -3900,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3909,16 +3909,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.697806127624</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>116.5612290399729</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>119.1476204707264</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>201.4801154596065</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>222.420212896533</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.3841903230809</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>173.1046946041455</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3979,10 +3979,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -3997,7 +3997,7 @@
         <v>309.9502217094637</v>
       </c>
       <c r="I44" t="n">
-        <v>99.33258322459722</v>
+        <v>99.33258322459723</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>143.3258060921758</v>
+        <v>134.7800633326414</v>
       </c>
       <c r="T44" t="n">
-        <v>210.475920285128</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>251.1150202768096</v>
@@ -4045,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>177.8061257617166</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4076,7 +4076,7 @@
         <v>97.33822170543411</v>
       </c>
       <c r="I45" t="n">
-        <v>36.28891401906289</v>
+        <v>36.2889140190629</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>4.388042077384824</v>
+        <v>4.388042077384839</v>
       </c>
       <c r="S45" t="n">
         <v>143.0320641923714</v>
@@ -4134,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4191,19 +4191,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.248492634809</v>
       </c>
       <c r="V46" t="n">
-        <v>177.8720711564327</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>140.5122218294825</v>
       </c>
     </row>
   </sheetData>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>284.1276524520142</v>
+        <v>509.8046290289238</v>
       </c>
       <c r="C2" t="n">
-        <v>284.1276524520142</v>
+        <v>509.8046290289238</v>
       </c>
       <c r="D2" t="n">
-        <v>284.1276524520142</v>
+        <v>509.8046290289238</v>
       </c>
       <c r="E2" t="n">
-        <v>284.1276524520142</v>
+        <v>509.8046290289238</v>
       </c>
       <c r="F2" t="n">
-        <v>277.1821517028107</v>
+        <v>502.8591282797204</v>
       </c>
       <c r="G2" t="n">
-        <v>33.73337505871064</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H2" t="n">
-        <v>33.73337505871064</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4351,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>752.9257720901863</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T2" t="n">
-        <v>527.5764290961142</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="U2" t="n">
-        <v>284.1276524520142</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="V2" t="n">
-        <v>284.1276524520142</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="W2" t="n">
-        <v>284.1276524520142</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="X2" t="n">
-        <v>284.1276524520142</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="Y2" t="n">
-        <v>284.1276524520142</v>
+        <v>742.8341567219593</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>273.858482543704</v>
+        <v>588.0815197256143</v>
       </c>
       <c r="C3" t="n">
-        <v>273.858482543704</v>
+        <v>413.6284904444873</v>
       </c>
       <c r="D3" t="n">
-        <v>273.858482543704</v>
+        <v>264.694080783236</v>
       </c>
       <c r="E3" t="n">
-        <v>273.858482543704</v>
+        <v>105.4566257777805</v>
       </c>
       <c r="F3" t="n">
-        <v>273.858482543704</v>
+        <v>105.4566257777805</v>
       </c>
       <c r="G3" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I3" t="n">
         <v>20.03527576299844</v>
@@ -4418,43 +4418,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>542.809531908403</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O3" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P3" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V3" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W3" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X3" t="n">
-        <v>481.618781308658</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y3" t="n">
-        <v>273.858482543704</v>
+        <v>756.2968567456824</v>
       </c>
     </row>
     <row r="4">
@@ -4521,13 +4521,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X4" t="n">
         <v>19.28114311021272</v>
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>559.1338160830064</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="C5" t="n">
-        <v>559.1338160830064</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="D5" t="n">
-        <v>315.6850394389064</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="E5" t="n">
-        <v>290.2572196227447</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="F5" t="n">
         <v>46.80844297864461</v>
@@ -4591,28 +4591,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T5" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U5" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V5" t="n">
-        <v>802.5825927271064</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W5" t="n">
-        <v>802.5825927271064</v>
+        <v>467.067986854209</v>
       </c>
       <c r="X5" t="n">
-        <v>802.5825927271064</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="Y5" t="n">
-        <v>559.1338160830064</v>
+        <v>223.6192102101089</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>689.4702815141908</v>
+        <v>588.0815197256143</v>
       </c>
       <c r="C6" t="n">
-        <v>515.0172522330638</v>
+        <v>413.6284904444873</v>
       </c>
       <c r="D6" t="n">
-        <v>366.0828425718125</v>
+        <v>264.694080783236</v>
       </c>
       <c r="E6" t="n">
-        <v>206.845387566357</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="F6" t="n">
-        <v>60.310829593242</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G6" t="n">
         <v>20.03527576299844</v>
@@ -4652,16 +4652,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P6" t="n">
         <v>964.0571555106362</v>
@@ -4670,28 +4670,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V6" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W6" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X6" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y6" t="n">
-        <v>689.4702815141908</v>
+        <v>756.2968567456824</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4743,34 +4743,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>742.8341567219593</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="C8" t="n">
-        <v>742.8341567219593</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="D8" t="n">
-        <v>499.3853800778592</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="E8" t="n">
-        <v>499.3853800778592</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="F8" t="n">
-        <v>492.4398793286558</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="G8" t="n">
-        <v>274.7999090013961</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H8" t="n">
         <v>31.35113235729608</v>
@@ -4828,28 +4828,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>742.8341567219593</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>742.8341567219593</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U8" t="n">
-        <v>742.8341567219593</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V8" t="n">
-        <v>742.8341567219593</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W8" t="n">
-        <v>742.8341567219593</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X8" t="n">
-        <v>742.8341567219593</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="Y8" t="n">
-        <v>742.8341567219593</v>
+        <v>591.4512093066566</v>
       </c>
     </row>
     <row r="9">
@@ -4859,16 +4859,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>69.84447166430675</v>
+        <v>649.1947276839472</v>
       </c>
       <c r="C9" t="n">
-        <v>20.03527576299844</v>
+        <v>474.7416984028202</v>
       </c>
       <c r="D9" t="n">
-        <v>20.03527576299844</v>
+        <v>325.807288741569</v>
       </c>
       <c r="E9" t="n">
-        <v>20.03527576299844</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="F9" t="n">
         <v>20.03527576299844</v>
@@ -4886,13 +4886,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>74.24228005117135</v>
       </c>
       <c r="L9" t="n">
-        <v>249.2442489785619</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M9" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N9" t="n">
         <v>542.809531908403</v>
@@ -4919,16 +4919,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>728.9050472788936</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W9" t="n">
-        <v>485.4562706347935</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X9" t="n">
-        <v>277.6047704292607</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y9" t="n">
-        <v>69.84447166430675</v>
+        <v>817.4100647040152</v>
       </c>
     </row>
     <row r="10">
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F10" t="n">
         <v>19.28114311021272</v>
@@ -4980,34 +4980,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="11">
@@ -5017,49 +5017,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1916.217283289125</v>
+        <v>2452.998035652587</v>
       </c>
       <c r="C11" t="n">
-        <v>1547.254766348713</v>
+        <v>2084.035518712175</v>
       </c>
       <c r="D11" t="n">
-        <v>1188.989067741963</v>
+        <v>1725.769820105425</v>
       </c>
       <c r="E11" t="n">
-        <v>803.2008151437186</v>
+        <v>1339.98156750718</v>
       </c>
       <c r="F11" t="n">
-        <v>392.2149103541111</v>
+        <v>928.9956627175729</v>
       </c>
       <c r="G11" t="n">
-        <v>392.2149103541111</v>
+        <v>511.9078809540005</v>
       </c>
       <c r="H11" t="n">
-        <v>73.99179512662052</v>
+        <v>193.6847657265099</v>
       </c>
       <c r="I11" t="n">
         <v>73.99179512662052</v>
       </c>
       <c r="J11" t="n">
-        <v>262.6316941403563</v>
+        <v>262.6316941403565</v>
       </c>
       <c r="K11" t="n">
-        <v>666.098807160401</v>
+        <v>666.0988071604012</v>
       </c>
       <c r="L11" t="n">
-        <v>1218.912065406599</v>
+        <v>1218.9120654066</v>
       </c>
       <c r="M11" t="n">
         <v>1850.62987638991</v>
       </c>
       <c r="N11" t="n">
-        <v>2477.937544449755</v>
+        <v>2477.937544449756</v>
       </c>
       <c r="O11" t="n">
         <v>3025.098749216832</v>
       </c>
       <c r="P11" t="n">
-        <v>3454.413795556126</v>
+        <v>3454.413795556125</v>
       </c>
       <c r="Q11" t="n">
         <v>3699.589756331025</v>
@@ -5071,22 +5071,22 @@
         <v>3699.589756331025</v>
       </c>
       <c r="T11" t="n">
-        <v>3613.806127482861</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="U11" t="n">
-        <v>3360.114424228012</v>
+        <v>3445.898053076176</v>
       </c>
       <c r="V11" t="n">
-        <v>3029.051536884441</v>
+        <v>3445.898053076176</v>
       </c>
       <c r="W11" t="n">
-        <v>2676.282881614326</v>
+        <v>3445.898053076176</v>
       </c>
       <c r="X11" t="n">
-        <v>2302.817123353247</v>
+        <v>3229.737207692521</v>
       </c>
       <c r="Y11" t="n">
-        <v>2302.817123353247</v>
+        <v>2839.597875716709</v>
       </c>
     </row>
     <row r="12">
@@ -5126,19 +5126,19 @@
         <v>141.599614789977</v>
       </c>
       <c r="L12" t="n">
-        <v>645.9611546560948</v>
+        <v>278.8292128056703</v>
       </c>
       <c r="M12" t="n">
-        <v>1286.506504123199</v>
+        <v>919.3745622727743</v>
       </c>
       <c r="N12" t="n">
-        <v>1959.712196375981</v>
+        <v>1592.580254525556</v>
       </c>
       <c r="O12" t="n">
-        <v>2509.148205128703</v>
+        <v>2142.016263278278</v>
       </c>
       <c r="P12" t="n">
-        <v>2617.837832656001</v>
+        <v>2565.984031759114</v>
       </c>
       <c r="Q12" t="n">
         <v>2656.336852567651</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>73.99179512662052</v>
+        <v>529.8248183431156</v>
       </c>
       <c r="C13" t="n">
-        <v>73.99179512662052</v>
+        <v>529.8248183431156</v>
       </c>
       <c r="D13" t="n">
-        <v>73.99179512662052</v>
+        <v>379.7081789307798</v>
       </c>
       <c r="E13" t="n">
-        <v>73.99179512662052</v>
+        <v>379.7081789307798</v>
       </c>
       <c r="F13" t="n">
-        <v>73.99179512662052</v>
+        <v>379.7081789307798</v>
       </c>
       <c r="G13" t="n">
-        <v>73.99179512662052</v>
+        <v>228.2464382268554</v>
       </c>
       <c r="H13" t="n">
         <v>73.99179512662052</v>
@@ -5205,16 +5205,16 @@
         <v>175.03972472223</v>
       </c>
       <c r="L13" t="n">
-        <v>359.8727196230479</v>
+        <v>359.872719623048</v>
       </c>
       <c r="M13" t="n">
-        <v>565.1423203422854</v>
+        <v>565.1423203422855</v>
       </c>
       <c r="N13" t="n">
-        <v>770.9656851783893</v>
+        <v>770.9656851783894</v>
       </c>
       <c r="O13" t="n">
-        <v>945.0605805669878</v>
+        <v>945.0605805669879</v>
       </c>
       <c r="P13" t="n">
         <v>1070.508157165603</v>
@@ -5232,19 +5232,19 @@
         <v>1073.926476585963</v>
       </c>
       <c r="U13" t="n">
-        <v>846.0830042674853</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="V13" t="n">
-        <v>591.3985160615985</v>
+        <v>819.2419883800761</v>
       </c>
       <c r="W13" t="n">
-        <v>301.9813460246378</v>
+        <v>529.8248183431156</v>
       </c>
       <c r="X13" t="n">
-        <v>73.99179512662052</v>
+        <v>529.8248183431156</v>
       </c>
       <c r="Y13" t="n">
-        <v>73.99179512662052</v>
+        <v>529.8248183431156</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1530.429030690881</v>
+        <v>2015.081949825207</v>
       </c>
       <c r="C14" t="n">
-        <v>1161.466513750469</v>
+        <v>1646.119432884795</v>
       </c>
       <c r="D14" t="n">
-        <v>803.2008151437186</v>
+        <v>1287.853734278045</v>
       </c>
       <c r="E14" t="n">
-        <v>803.2008151437186</v>
+        <v>902.0654816798005</v>
       </c>
       <c r="F14" t="n">
-        <v>392.2149103541111</v>
+        <v>491.079576890193</v>
       </c>
       <c r="G14" t="n">
-        <v>392.2149103541111</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="H14" t="n">
         <v>73.9917951266205</v>
@@ -5293,7 +5293,7 @@
         <v>2477.937544449755</v>
       </c>
       <c r="O14" t="n">
-        <v>3025.098749216831</v>
+        <v>3025.098749216832</v>
       </c>
       <c r="P14" t="n">
         <v>3454.413795556125</v>
@@ -5305,25 +5305,25 @@
         <v>3699.589756331025</v>
       </c>
       <c r="S14" t="n">
-        <v>3699.589756331025</v>
+        <v>3543.374718827853</v>
       </c>
       <c r="T14" t="n">
-        <v>3618.157206860428</v>
+        <v>3543.374718827853</v>
       </c>
       <c r="U14" t="n">
-        <v>3364.465503605579</v>
+        <v>3289.683015573004</v>
       </c>
       <c r="V14" t="n">
-        <v>3033.402616262008</v>
+        <v>3289.683015573004</v>
       </c>
       <c r="W14" t="n">
-        <v>2680.633960991894</v>
+        <v>2936.91436030289</v>
       </c>
       <c r="X14" t="n">
-        <v>2307.168202730814</v>
+        <v>2563.44860204181</v>
       </c>
       <c r="Y14" t="n">
-        <v>1917.028870755003</v>
+        <v>2401.681789889329</v>
       </c>
     </row>
     <row r="15">
@@ -5348,7 +5348,7 @@
         <v>358.2540276322776</v>
       </c>
       <c r="G15" t="n">
-        <v>220.8126299914996</v>
+        <v>220.8126299914995</v>
       </c>
       <c r="H15" t="n">
         <v>119.8966521363041</v>
@@ -5357,13 +5357,13 @@
         <v>73.9917951266205</v>
       </c>
       <c r="J15" t="n">
-        <v>89.75387383629358</v>
+        <v>89.75387383629338</v>
       </c>
       <c r="K15" t="n">
-        <v>157.3616934996501</v>
+        <v>157.3616934996499</v>
       </c>
       <c r="L15" t="n">
-        <v>661.7232333657679</v>
+        <v>661.7232333657678</v>
       </c>
       <c r="M15" t="n">
         <v>1302.268582832872</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>73.9917951266205</v>
+        <v>541.0074713315958</v>
       </c>
       <c r="C16" t="n">
-        <v>73.9917951266205</v>
+        <v>541.0074713315958</v>
       </c>
       <c r="D16" t="n">
-        <v>73.9917951266205</v>
+        <v>537.4016812115406</v>
       </c>
       <c r="E16" t="n">
-        <v>73.9917951266205</v>
+        <v>389.4885876291474</v>
       </c>
       <c r="F16" t="n">
-        <v>73.9917951266205</v>
+        <v>242.5986401312371</v>
       </c>
       <c r="G16" t="n">
         <v>73.9917951266205</v>
@@ -5442,16 +5442,16 @@
         <v>175.03972472223</v>
       </c>
       <c r="L16" t="n">
-        <v>359.8727196230479</v>
+        <v>359.872719623048</v>
       </c>
       <c r="M16" t="n">
-        <v>565.1423203422854</v>
+        <v>565.1423203422855</v>
       </c>
       <c r="N16" t="n">
-        <v>770.9656851783893</v>
+        <v>770.9656851783894</v>
       </c>
       <c r="O16" t="n">
-        <v>945.0605805669878</v>
+        <v>945.0605805669879</v>
       </c>
       <c r="P16" t="n">
         <v>1070.508157165603</v>
@@ -5460,28 +5460,28 @@
         <v>1073.926476585963</v>
       </c>
       <c r="R16" t="n">
-        <v>1073.926476585963</v>
+        <v>943.4485153053656</v>
       </c>
       <c r="S16" t="n">
-        <v>1073.926476585963</v>
+        <v>943.4485153053656</v>
       </c>
       <c r="T16" t="n">
-        <v>907.2456297917881</v>
+        <v>943.4485153053656</v>
       </c>
       <c r="U16" t="n">
-        <v>618.093453369468</v>
+        <v>943.4485153053656</v>
       </c>
       <c r="V16" t="n">
-        <v>363.4089651635811</v>
+        <v>943.4485153053656</v>
       </c>
       <c r="W16" t="n">
-        <v>73.9917951266205</v>
+        <v>943.4485153053656</v>
       </c>
       <c r="X16" t="n">
-        <v>73.9917951266205</v>
+        <v>943.4485153053656</v>
       </c>
       <c r="Y16" t="n">
-        <v>73.9917951266205</v>
+        <v>722.6559361618355</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2218.321938686441</v>
+        <v>2015.081949825207</v>
       </c>
       <c r="C17" t="n">
-        <v>1849.359421746029</v>
+        <v>1646.119432884795</v>
       </c>
       <c r="D17" t="n">
-        <v>1491.093723139279</v>
+        <v>1287.853734278045</v>
       </c>
       <c r="E17" t="n">
-        <v>1105.305470541034</v>
+        <v>902.0654816798005</v>
       </c>
       <c r="F17" t="n">
-        <v>694.3195657514268</v>
+        <v>491.079576890193</v>
       </c>
       <c r="G17" t="n">
-        <v>277.2317839878543</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="H17" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="I17" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="J17" t="n">
         <v>262.6316941403561</v>
       </c>
       <c r="K17" t="n">
-        <v>666.0988071604006</v>
+        <v>666.098807160401</v>
       </c>
       <c r="L17" t="n">
         <v>1218.912065406599</v>
       </c>
       <c r="M17" t="n">
-        <v>1850.629876389909</v>
+        <v>1850.62987638991</v>
       </c>
       <c r="N17" t="n">
-        <v>2477.937544449755</v>
+        <v>2477.937544449756</v>
       </c>
       <c r="O17" t="n">
-        <v>3025.098749216831</v>
+        <v>3025.098749216832</v>
       </c>
       <c r="P17" t="n">
-        <v>3454.413795556125</v>
+        <v>3454.413795556126</v>
       </c>
       <c r="Q17" t="n">
-        <v>3699.589756331025</v>
+        <v>3699.589756331026</v>
       </c>
       <c r="R17" t="n">
-        <v>3699.589756331025</v>
+        <v>3699.589756331026</v>
       </c>
       <c r="S17" t="n">
-        <v>3699.589756331025</v>
+        <v>3699.589756331026</v>
       </c>
       <c r="T17" t="n">
-        <v>3699.589756331025</v>
+        <v>3699.589756331026</v>
       </c>
       <c r="U17" t="n">
-        <v>3699.589756331025</v>
+        <v>3699.589756331026</v>
       </c>
       <c r="V17" t="n">
-        <v>3368.526868987454</v>
+        <v>3518.055535396335</v>
       </c>
       <c r="W17" t="n">
-        <v>3368.526868987454</v>
+        <v>3165.28688012622</v>
       </c>
       <c r="X17" t="n">
-        <v>2995.061110726374</v>
+        <v>2791.82112186514</v>
       </c>
       <c r="Y17" t="n">
-        <v>2604.921778750563</v>
+        <v>2401.681789889329</v>
       </c>
     </row>
     <row r="18">
@@ -5582,7 +5582,7 @@
         <v>504.7885856053927</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2540276322776</v>
+        <v>358.2540276322777</v>
       </c>
       <c r="G18" t="n">
         <v>220.8126299914996</v>
@@ -5591,28 +5591,28 @@
         <v>119.8966521363041</v>
       </c>
       <c r="I18" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="J18" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="K18" t="n">
-        <v>157.3616934996501</v>
+        <v>141.599614789977</v>
       </c>
       <c r="L18" t="n">
-        <v>661.7232333657679</v>
+        <v>645.9611546560949</v>
       </c>
       <c r="M18" t="n">
-        <v>1302.268582832872</v>
+        <v>1286.506504123199</v>
       </c>
       <c r="N18" t="n">
-        <v>1975.474275085654</v>
+        <v>1485.163245775863</v>
       </c>
       <c r="O18" t="n">
-        <v>2524.910283838376</v>
+        <v>2034.599254528585</v>
       </c>
       <c r="P18" t="n">
-        <v>2633.599911365674</v>
+        <v>2458.567023009421</v>
       </c>
       <c r="Q18" t="n">
         <v>2656.336852567651</v>
@@ -5649,46 +5649,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="C19" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="D19" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="E19" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="F19" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="G19" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="H19" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="I19" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="J19" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="K19" t="n">
         <v>175.03972472223</v>
       </c>
       <c r="L19" t="n">
-        <v>359.8727196230479</v>
+        <v>359.872719623048</v>
       </c>
       <c r="M19" t="n">
-        <v>565.1423203422854</v>
+        <v>565.1423203422855</v>
       </c>
       <c r="N19" t="n">
-        <v>770.9656851783893</v>
+        <v>770.9656851783894</v>
       </c>
       <c r="O19" t="n">
-        <v>945.0605805669878</v>
+        <v>945.0605805669879</v>
       </c>
       <c r="P19" t="n">
         <v>1070.508157165603</v>
@@ -5703,22 +5703,22 @@
         <v>1073.926476585963</v>
       </c>
       <c r="T19" t="n">
-        <v>848.2972798983277</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="U19" t="n">
-        <v>559.1451034760075</v>
+        <v>784.7743001636427</v>
       </c>
       <c r="V19" t="n">
-        <v>304.4606152701207</v>
+        <v>530.0898119577558</v>
       </c>
       <c r="W19" t="n">
-        <v>304.4606152701207</v>
+        <v>240.6726419207952</v>
       </c>
       <c r="X19" t="n">
-        <v>76.47106437210334</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="Y19" t="n">
-        <v>76.47106437210334</v>
+        <v>73.99179512662052</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2035.910253889014</v>
+        <v>2196.616170759898</v>
       </c>
       <c r="C20" t="n">
-        <v>1666.947736948603</v>
+        <v>1827.653653819486</v>
       </c>
       <c r="D20" t="n">
-        <v>1308.682038341852</v>
+        <v>1469.387955212736</v>
       </c>
       <c r="E20" t="n">
-        <v>922.8937857436081</v>
+        <v>1083.599702614492</v>
       </c>
       <c r="F20" t="n">
-        <v>511.9078809540005</v>
+        <v>672.6137978248842</v>
       </c>
       <c r="G20" t="n">
-        <v>511.9078809540005</v>
+        <v>255.5260160613116</v>
       </c>
       <c r="H20" t="n">
-        <v>193.68476572651</v>
+        <v>193.6847657265099</v>
       </c>
       <c r="I20" t="n">
         <v>73.99179512662052</v>
       </c>
       <c r="J20" t="n">
-        <v>262.6316941403566</v>
+        <v>262.6316941403561</v>
       </c>
       <c r="K20" t="n">
-        <v>666.0988071604011</v>
+        <v>666.098807160401</v>
       </c>
       <c r="L20" t="n">
         <v>1218.912065406599</v>
@@ -5764,40 +5764,40 @@
         <v>1850.62987638991</v>
       </c>
       <c r="N20" t="n">
-        <v>2477.937544449755</v>
+        <v>2477.937544449756</v>
       </c>
       <c r="O20" t="n">
         <v>3025.098749216832</v>
       </c>
       <c r="P20" t="n">
-        <v>3454.413795556125</v>
+        <v>3454.413795556126</v>
       </c>
       <c r="Q20" t="n">
-        <v>3699.589756331025</v>
+        <v>3699.589756331026</v>
       </c>
       <c r="R20" t="n">
-        <v>3699.589756331025</v>
+        <v>3699.589756331026</v>
       </c>
       <c r="S20" t="n">
-        <v>3543.374718827853</v>
+        <v>3699.589756331026</v>
       </c>
       <c r="T20" t="n">
-        <v>3328.574857095565</v>
+        <v>3699.589756331026</v>
       </c>
       <c r="U20" t="n">
-        <v>3074.883153840716</v>
+        <v>3699.589756331026</v>
       </c>
       <c r="V20" t="n">
-        <v>2743.820266497145</v>
+        <v>3699.589756331026</v>
       </c>
       <c r="W20" t="n">
-        <v>2391.051611227031</v>
+        <v>3346.821101060912</v>
       </c>
       <c r="X20" t="n">
-        <v>2035.910253889014</v>
+        <v>2973.355342799832</v>
       </c>
       <c r="Y20" t="n">
-        <v>2035.910253889014</v>
+        <v>2583.21601082402</v>
       </c>
     </row>
     <row r="21">
@@ -5831,25 +5831,25 @@
         <v>73.99179512662052</v>
       </c>
       <c r="J21" t="n">
-        <v>73.99179512662052</v>
+        <v>192.6510469835159</v>
       </c>
       <c r="K21" t="n">
-        <v>141.599614789977</v>
+        <v>522.0794512893252</v>
       </c>
       <c r="L21" t="n">
-        <v>645.9611546560948</v>
+        <v>659.3090493050186</v>
       </c>
       <c r="M21" t="n">
-        <v>1286.506504123199</v>
+        <v>1299.854398772123</v>
       </c>
       <c r="N21" t="n">
-        <v>1959.712196375981</v>
+        <v>1973.060091024904</v>
       </c>
       <c r="O21" t="n">
-        <v>2509.148205128703</v>
+        <v>2132.572403693664</v>
       </c>
       <c r="P21" t="n">
-        <v>2633.599911365674</v>
+        <v>2556.5401721745</v>
       </c>
       <c r="Q21" t="n">
         <v>2656.336852567651</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>640.856995150733</v>
+        <v>228.2464382268554</v>
       </c>
       <c r="C22" t="n">
-        <v>471.9208122228262</v>
+        <v>228.2464382268554</v>
       </c>
       <c r="D22" t="n">
-        <v>471.9208122228262</v>
+        <v>228.2464382268554</v>
       </c>
       <c r="E22" t="n">
-        <v>471.9208122228262</v>
+        <v>228.2464382268554</v>
       </c>
       <c r="F22" t="n">
-        <v>325.0308647249158</v>
+        <v>228.2464382268554</v>
       </c>
       <c r="G22" t="n">
-        <v>325.0308647249158</v>
+        <v>228.2464382268554</v>
       </c>
       <c r="H22" t="n">
-        <v>198.5034697522943</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="I22" t="n">
         <v>73.99179512662052</v>
@@ -5916,16 +5916,16 @@
         <v>175.03972472223</v>
       </c>
       <c r="L22" t="n">
-        <v>359.8727196230479</v>
+        <v>359.872719623048</v>
       </c>
       <c r="M22" t="n">
-        <v>565.1423203422854</v>
+        <v>565.1423203422855</v>
       </c>
       <c r="N22" t="n">
-        <v>770.9656851783893</v>
+        <v>770.9656851783894</v>
       </c>
       <c r="O22" t="n">
-        <v>945.0605805669878</v>
+        <v>945.0605805669879</v>
       </c>
       <c r="P22" t="n">
         <v>1070.508157165603</v>
@@ -5934,28 +5934,28 @@
         <v>1073.926476585963</v>
       </c>
       <c r="R22" t="n">
-        <v>1073.926476585963</v>
+        <v>943.4485153053656</v>
       </c>
       <c r="S22" t="n">
-        <v>866.4861918383681</v>
+        <v>943.4485153053656</v>
       </c>
       <c r="T22" t="n">
-        <v>640.856995150733</v>
+        <v>943.4485153053656</v>
       </c>
       <c r="U22" t="n">
-        <v>640.856995150733</v>
+        <v>943.4485153053656</v>
       </c>
       <c r="V22" t="n">
-        <v>640.856995150733</v>
+        <v>688.7640270994788</v>
       </c>
       <c r="W22" t="n">
-        <v>640.856995150733</v>
+        <v>399.3468570625182</v>
       </c>
       <c r="X22" t="n">
-        <v>640.856995150733</v>
+        <v>399.3468570625182</v>
       </c>
       <c r="Y22" t="n">
-        <v>640.856995150733</v>
+        <v>399.3468570625182</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2127.037651510241</v>
+        <v>2073.220921539783</v>
       </c>
       <c r="C23" t="n">
-        <v>1758.075134569829</v>
+        <v>1704.258404599372</v>
       </c>
       <c r="D23" t="n">
-        <v>1399.809435963079</v>
+        <v>1345.992705992621</v>
       </c>
       <c r="E23" t="n">
-        <v>1014.021183364834</v>
+        <v>1226.766272743487</v>
       </c>
       <c r="F23" t="n">
-        <v>603.0352785752268</v>
+        <v>815.7803679538799</v>
       </c>
       <c r="G23" t="n">
-        <v>186.4495920830058</v>
+        <v>399.1946814616588</v>
       </c>
       <c r="H23" t="n">
-        <v>186.4495920830058</v>
+        <v>86.11364943189743</v>
       </c>
       <c r="I23" t="n">
-        <v>86.11364943189744</v>
+        <v>86.11364943189743</v>
       </c>
       <c r="J23" t="n">
-        <v>316.5202242826244</v>
+        <v>316.520224282624</v>
       </c>
       <c r="K23" t="n">
-        <v>782.5847574885292</v>
+        <v>782.5847574885283</v>
       </c>
       <c r="L23" t="n">
-        <v>1413.055650717817</v>
+        <v>1413.055650717816</v>
       </c>
       <c r="M23" t="n">
-        <v>2131.182543644155</v>
+        <v>2131.182543644154</v>
       </c>
       <c r="N23" t="n">
-        <v>2846.29748293078</v>
+        <v>2846.297482930779</v>
       </c>
       <c r="O23" t="n">
-        <v>3476.372603996238</v>
+        <v>3476.372603996237</v>
       </c>
       <c r="P23" t="n">
-        <v>3976.452759614951</v>
+        <v>3976.45275961495</v>
       </c>
       <c r="Q23" t="n">
-        <v>4274.770370373407</v>
+        <v>4274.770370373406</v>
       </c>
       <c r="R23" t="n">
-        <v>4305.682471594872</v>
+        <v>4305.682471594871</v>
       </c>
       <c r="S23" t="n">
-        <v>4305.682471594872</v>
+        <v>4160.908930087623</v>
       </c>
       <c r="T23" t="n">
-        <v>4214.72566005808</v>
+        <v>4160.908930087623</v>
       </c>
       <c r="U23" t="n">
-        <v>3961.074124424939</v>
+        <v>3907.257394454482</v>
       </c>
       <c r="V23" t="n">
-        <v>3630.011237081369</v>
+        <v>3576.194507110911</v>
       </c>
       <c r="W23" t="n">
-        <v>3277.242581811254</v>
+        <v>3223.425851840797</v>
       </c>
       <c r="X23" t="n">
-        <v>2903.776823550174</v>
+        <v>2849.960093579717</v>
       </c>
       <c r="Y23" t="n">
-        <v>2513.637491574363</v>
+        <v>2459.820761603905</v>
       </c>
     </row>
     <row r="24">
@@ -6065,25 +6065,25 @@
         <v>122.7691181380216</v>
       </c>
       <c r="I24" t="n">
-        <v>86.11364943189744</v>
+        <v>86.11364943189743</v>
       </c>
       <c r="J24" t="n">
-        <v>104.8187222999256</v>
+        <v>229.6488472869303</v>
       </c>
       <c r="K24" t="n">
-        <v>214.9434958564826</v>
+        <v>339.7736208434873</v>
       </c>
       <c r="L24" t="n">
-        <v>516.5061121865901</v>
+        <v>901.3044521370133</v>
       </c>
       <c r="M24" t="n">
-        <v>1223.765328248207</v>
+        <v>1608.56366819863</v>
       </c>
       <c r="N24" t="n">
-        <v>1490.901654030835</v>
+        <v>1875.699993981258</v>
       </c>
       <c r="O24" t="n">
-        <v>2102.983103689781</v>
+        <v>2418.261244643319</v>
       </c>
       <c r="P24" t="n">
         <v>2577.229361417491</v>
@@ -6123,43 +6123,43 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>254.4952717830328</v>
+        <v>372.2338869749246</v>
       </c>
       <c r="C25" t="n">
-        <v>254.4952717830328</v>
+        <v>372.2338869749246</v>
       </c>
       <c r="D25" t="n">
-        <v>254.4952717830328</v>
+        <v>372.2338869749246</v>
       </c>
       <c r="E25" t="n">
-        <v>254.4952717830328</v>
+        <v>372.2338869749246</v>
       </c>
       <c r="F25" t="n">
-        <v>254.4952717830328</v>
+        <v>372.2338869749246</v>
       </c>
       <c r="G25" t="n">
-        <v>86.11364943189744</v>
+        <v>203.8522646237892</v>
       </c>
       <c r="H25" t="n">
-        <v>86.11364943189744</v>
+        <v>203.8522646237892</v>
       </c>
       <c r="I25" t="n">
-        <v>86.11364943189744</v>
+        <v>86.11364943189743</v>
       </c>
       <c r="J25" t="n">
-        <v>86.11364943189744</v>
+        <v>86.11364943189743</v>
       </c>
       <c r="K25" t="n">
-        <v>212.8076375348879</v>
+        <v>212.8076375348878</v>
       </c>
       <c r="L25" t="n">
-        <v>430.4587576962464</v>
+        <v>430.4587576962463</v>
       </c>
       <c r="M25" t="n">
-        <v>670.3304700620229</v>
+        <v>670.3304700620228</v>
       </c>
       <c r="N25" t="n">
-        <v>909.9331856692334</v>
+        <v>909.9331856692332</v>
       </c>
       <c r="O25" t="n">
         <v>1115.228778841303</v>
@@ -6171,28 +6171,28 @@
         <v>1289.276287324572</v>
       </c>
       <c r="R25" t="n">
-        <v>1289.276287324572</v>
+        <v>1168.925155535959</v>
       </c>
       <c r="S25" t="n">
-        <v>1085.761019183555</v>
+        <v>965.4098873949426</v>
       </c>
       <c r="T25" t="n">
-        <v>861.0941374698857</v>
+        <v>740.743005681273</v>
       </c>
       <c r="U25" t="n">
-        <v>571.9542459195736</v>
+        <v>740.743005681273</v>
       </c>
       <c r="V25" t="n">
-        <v>317.2697577136868</v>
+        <v>740.743005681273</v>
       </c>
       <c r="W25" t="n">
-        <v>317.2697577136868</v>
+        <v>451.3258356443123</v>
       </c>
       <c r="X25" t="n">
-        <v>254.4952717830328</v>
+        <v>451.3258356443123</v>
       </c>
       <c r="Y25" t="n">
-        <v>254.4952717830328</v>
+        <v>372.2338869749246</v>
       </c>
     </row>
     <row r="26">
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2054.330430941758</v>
+        <v>2026.701708859132</v>
       </c>
       <c r="C26" t="n">
-        <v>1685.367914001346</v>
+        <v>1657.739191918721</v>
       </c>
       <c r="D26" t="n">
-        <v>1327.102215394596</v>
+        <v>1299.47349331197</v>
       </c>
       <c r="E26" t="n">
-        <v>1327.102215394596</v>
+        <v>913.685240713726</v>
       </c>
       <c r="F26" t="n">
-        <v>916.1163106049881</v>
+        <v>502.6993359241185</v>
       </c>
       <c r="G26" t="n">
-        <v>499.5306241127671</v>
+        <v>86.11364943189741</v>
       </c>
       <c r="H26" t="n">
-        <v>186.4495920830057</v>
+        <v>86.11364943189741</v>
       </c>
       <c r="I26" t="n">
-        <v>86.11364943189743</v>
+        <v>86.11364943189741</v>
       </c>
       <c r="J26" t="n">
         <v>316.5202242826242</v>
@@ -6241,37 +6241,37 @@
         <v>2846.297482930779</v>
       </c>
       <c r="O26" t="n">
-        <v>3476.372603996238</v>
+        <v>3476.372603996237</v>
       </c>
       <c r="P26" t="n">
-        <v>3976.45275961495</v>
+        <v>3976.452759614949</v>
       </c>
       <c r="Q26" t="n">
-        <v>4274.770370373406</v>
+        <v>4274.770370373405</v>
       </c>
       <c r="R26" t="n">
         <v>4305.682471594871</v>
       </c>
       <c r="S26" t="n">
-        <v>4160.908930087623</v>
+        <v>4160.908930087622</v>
       </c>
       <c r="T26" t="n">
-        <v>3948.306990405676</v>
+        <v>3948.306990405675</v>
       </c>
       <c r="U26" t="n">
-        <v>3694.655454772535</v>
+        <v>3694.655454772534</v>
       </c>
       <c r="V26" t="n">
-        <v>3557.304016512886</v>
+        <v>3363.592567428963</v>
       </c>
       <c r="W26" t="n">
-        <v>3204.535361242772</v>
+        <v>3176.906639160146</v>
       </c>
       <c r="X26" t="n">
-        <v>2831.069602981692</v>
+        <v>2803.440880899066</v>
       </c>
       <c r="Y26" t="n">
-        <v>2440.93027100588</v>
+        <v>2413.301548923254</v>
       </c>
     </row>
     <row r="27">
@@ -6293,7 +6293,7 @@
         <v>504.7978651640974</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2633071909824</v>
+        <v>358.2633071909823</v>
       </c>
       <c r="G27" t="n">
         <v>221.0905542041166</v>
@@ -6302,25 +6302,25 @@
         <v>122.7691181380216</v>
       </c>
       <c r="I27" t="n">
-        <v>86.11364943189743</v>
+        <v>86.11364943189741</v>
       </c>
       <c r="J27" t="n">
-        <v>104.8187222999256</v>
+        <v>229.6488472869303</v>
       </c>
       <c r="K27" t="n">
-        <v>214.9434958564826</v>
+        <v>339.7736208434873</v>
       </c>
       <c r="L27" t="n">
-        <v>516.5061121865901</v>
+        <v>901.3044521370133</v>
       </c>
       <c r="M27" t="n">
-        <v>1223.765328248207</v>
+        <v>1608.56366819863</v>
       </c>
       <c r="N27" t="n">
-        <v>1490.901654030835</v>
+        <v>1875.699993981258</v>
       </c>
       <c r="O27" t="n">
-        <v>2102.983103689781</v>
+        <v>2418.261244643319</v>
       </c>
       <c r="P27" t="n">
         <v>2577.229361417491</v>
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>401.9397798577147</v>
+        <v>86.11364943189741</v>
       </c>
       <c r="C28" t="n">
-        <v>233.0035969298078</v>
+        <v>86.11364943189741</v>
       </c>
       <c r="D28" t="n">
-        <v>233.0035969298078</v>
+        <v>86.11364943189741</v>
       </c>
       <c r="E28" t="n">
-        <v>233.0035969298078</v>
+        <v>86.11364943189741</v>
       </c>
       <c r="F28" t="n">
-        <v>86.11364943189743</v>
+        <v>86.11364943189741</v>
       </c>
       <c r="G28" t="n">
-        <v>86.11364943189743</v>
+        <v>86.11364943189741</v>
       </c>
       <c r="H28" t="n">
-        <v>86.11364943189743</v>
+        <v>86.11364943189741</v>
       </c>
       <c r="I28" t="n">
-        <v>86.11364943189743</v>
+        <v>86.11364943189741</v>
       </c>
       <c r="J28" t="n">
-        <v>86.11364943189743</v>
+        <v>86.11364943189741</v>
       </c>
       <c r="K28" t="n">
         <v>212.8076375348878</v>
@@ -6393,10 +6393,10 @@
         <v>430.4587576962463</v>
       </c>
       <c r="M28" t="n">
-        <v>670.3304700620229</v>
+        <v>670.3304700620228</v>
       </c>
       <c r="N28" t="n">
-        <v>909.9331856692334</v>
+        <v>909.9331856692332</v>
       </c>
       <c r="O28" t="n">
         <v>1115.228778841303</v>
@@ -6414,22 +6414,22 @@
         <v>1289.276287324572</v>
       </c>
       <c r="T28" t="n">
-        <v>1287.054862935389</v>
+        <v>1064.609405610902</v>
       </c>
       <c r="U28" t="n">
-        <v>1287.054862935389</v>
+        <v>1064.609405610902</v>
       </c>
       <c r="V28" t="n">
-        <v>1032.370374729502</v>
+        <v>809.9249174050152</v>
       </c>
       <c r="W28" t="n">
-        <v>1032.370374729502</v>
+        <v>520.5077473680547</v>
       </c>
       <c r="X28" t="n">
-        <v>804.3808238314846</v>
+        <v>292.5181964700373</v>
       </c>
       <c r="Y28" t="n">
-        <v>583.5882446879544</v>
+        <v>267.7621142621371</v>
       </c>
     </row>
     <row r="29">
@@ -6460,7 +6460,7 @@
         <v>186.4495920830057</v>
       </c>
       <c r="I29" t="n">
-        <v>86.11364943189743</v>
+        <v>86.11364943189741</v>
       </c>
       <c r="J29" t="n">
         <v>316.5202242826242</v>
@@ -6472,19 +6472,19 @@
         <v>1413.055650717816</v>
       </c>
       <c r="M29" t="n">
-        <v>2131.182543644155</v>
+        <v>2131.182543644154</v>
       </c>
       <c r="N29" t="n">
-        <v>2846.29748293078</v>
+        <v>2846.297482930779</v>
       </c>
       <c r="O29" t="n">
-        <v>3476.372603996238</v>
+        <v>3476.372603996237</v>
       </c>
       <c r="P29" t="n">
-        <v>3976.45275961495</v>
+        <v>3976.452759614949</v>
       </c>
       <c r="Q29" t="n">
-        <v>4274.770370373406</v>
+        <v>4274.770370373405</v>
       </c>
       <c r="R29" t="n">
         <v>4305.682471594871</v>
@@ -6496,16 +6496,16 @@
         <v>4305.682471594871</v>
       </c>
       <c r="U29" t="n">
-        <v>4274.155156454701</v>
+        <v>4052.030935961729</v>
       </c>
       <c r="V29" t="n">
-        <v>3943.09226911113</v>
+        <v>3720.968048618159</v>
       </c>
       <c r="W29" t="n">
-        <v>3590.323613841016</v>
+        <v>3368.199393348044</v>
       </c>
       <c r="X29" t="n">
-        <v>3216.857855579936</v>
+        <v>2994.733635086965</v>
       </c>
       <c r="Y29" t="n">
         <v>2826.718523604124</v>
@@ -6530,7 +6530,7 @@
         <v>504.7978651640974</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2633071909824</v>
+        <v>358.2633071909823</v>
       </c>
       <c r="G30" t="n">
         <v>221.0905542041166</v>
@@ -6539,22 +6539,22 @@
         <v>122.7691181380216</v>
       </c>
       <c r="I30" t="n">
-        <v>86.11364943189743</v>
+        <v>86.11364943189741</v>
       </c>
       <c r="J30" t="n">
-        <v>104.8187222999256</v>
+        <v>229.6488472869303</v>
       </c>
       <c r="K30" t="n">
-        <v>214.9434958564826</v>
+        <v>339.7736208434873</v>
       </c>
       <c r="L30" t="n">
-        <v>776.4743271500087</v>
+        <v>901.3044521370133</v>
       </c>
       <c r="M30" t="n">
-        <v>1483.733543211626</v>
+        <v>1608.56366819863</v>
       </c>
       <c r="N30" t="n">
-        <v>2196.103491068335</v>
+        <v>1875.699993981258</v>
       </c>
       <c r="O30" t="n">
         <v>2418.261244643319</v>
@@ -6597,31 +6597,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>405.1664717721401</v>
+        <v>86.11364943189741</v>
       </c>
       <c r="C31" t="n">
-        <v>236.2302888442331</v>
+        <v>86.11364943189741</v>
       </c>
       <c r="D31" t="n">
-        <v>86.11364943189743</v>
+        <v>86.11364943189741</v>
       </c>
       <c r="E31" t="n">
-        <v>86.11364943189743</v>
+        <v>86.11364943189741</v>
       </c>
       <c r="F31" t="n">
-        <v>86.11364943189743</v>
+        <v>86.11364943189741</v>
       </c>
       <c r="G31" t="n">
-        <v>86.11364943189743</v>
+        <v>86.11364943189741</v>
       </c>
       <c r="H31" t="n">
-        <v>86.11364943189743</v>
+        <v>86.11364943189741</v>
       </c>
       <c r="I31" t="n">
-        <v>86.11364943189743</v>
+        <v>86.11364943189741</v>
       </c>
       <c r="J31" t="n">
-        <v>86.11364943189743</v>
+        <v>86.11364943189741</v>
       </c>
       <c r="K31" t="n">
         <v>212.8076375348878</v>
@@ -6630,10 +6630,10 @@
         <v>430.4587576962463</v>
       </c>
       <c r="M31" t="n">
-        <v>670.3304700620229</v>
+        <v>670.3304700620228</v>
       </c>
       <c r="N31" t="n">
-        <v>909.9331856692334</v>
+        <v>909.9331856692332</v>
       </c>
       <c r="O31" t="n">
         <v>1115.228778841303</v>
@@ -6651,22 +6651,22 @@
         <v>1289.276287324572</v>
       </c>
       <c r="T31" t="n">
-        <v>1289.276287324572</v>
+        <v>1064.609405610902</v>
       </c>
       <c r="U31" t="n">
-        <v>1289.276287324572</v>
+        <v>775.46951406059</v>
       </c>
       <c r="V31" t="n">
-        <v>1034.591799118685</v>
+        <v>520.7850258547031</v>
       </c>
       <c r="W31" t="n">
-        <v>807.60751574591</v>
+        <v>231.3678558177425</v>
       </c>
       <c r="X31" t="n">
-        <v>807.60751574591</v>
+        <v>86.11364943189741</v>
       </c>
       <c r="Y31" t="n">
-        <v>586.8149366023798</v>
+        <v>86.11364943189741</v>
       </c>
     </row>
     <row r="32">
@@ -6676,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2339.782740888894</v>
+        <v>2440.118683540002</v>
       </c>
       <c r="C32" t="n">
-        <v>1970.820223948482</v>
+        <v>2071.156166599591</v>
       </c>
       <c r="D32" t="n">
-        <v>1612.554525341732</v>
+        <v>1712.89046799284</v>
       </c>
       <c r="E32" t="n">
-        <v>1226.766272743487</v>
+        <v>1327.102215394596</v>
       </c>
       <c r="F32" t="n">
-        <v>815.7803679538799</v>
+        <v>916.1163106049883</v>
       </c>
       <c r="G32" t="n">
-        <v>399.1946814616588</v>
+        <v>499.5306241127672</v>
       </c>
       <c r="H32" t="n">
-        <v>86.11364943189744</v>
+        <v>186.4495920830058</v>
       </c>
       <c r="I32" t="n">
-        <v>86.11364943189744</v>
+        <v>86.11364943189743</v>
       </c>
       <c r="J32" t="n">
-        <v>316.5202242826244</v>
+        <v>316.520224282624</v>
       </c>
       <c r="K32" t="n">
-        <v>782.5847574885292</v>
+        <v>782.5847574885288</v>
       </c>
       <c r="L32" t="n">
-        <v>1413.055650717817</v>
+        <v>1413.055650717816</v>
       </c>
       <c r="M32" t="n">
         <v>2131.182543644155</v>
@@ -6718,34 +6718,34 @@
         <v>3476.372603996238</v>
       </c>
       <c r="P32" t="n">
-        <v>3976.452759614951</v>
+        <v>3976.45275961495</v>
       </c>
       <c r="Q32" t="n">
-        <v>4274.770370373407</v>
+        <v>4274.770370373406</v>
       </c>
       <c r="R32" t="n">
-        <v>4305.682471594872</v>
+        <v>4305.682471594871</v>
       </c>
       <c r="S32" t="n">
-        <v>4305.682471594872</v>
+        <v>4305.682471594871</v>
       </c>
       <c r="T32" t="n">
-        <v>4305.682471594872</v>
+        <v>4305.682471594871</v>
       </c>
       <c r="U32" t="n">
-        <v>4173.819213803592</v>
+        <v>4274.155156454701</v>
       </c>
       <c r="V32" t="n">
-        <v>3842.756326460022</v>
+        <v>3943.09226911113</v>
       </c>
       <c r="W32" t="n">
-        <v>3489.987671189907</v>
+        <v>3590.323613841016</v>
       </c>
       <c r="X32" t="n">
-        <v>3116.521912928828</v>
+        <v>3216.857855579936</v>
       </c>
       <c r="Y32" t="n">
-        <v>2726.382580953016</v>
+        <v>2826.718523604124</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2659.529089531567</v>
+        <v>987.4227591119312</v>
       </c>
       <c r="C33" t="n">
-        <v>2485.07606025044</v>
+        <v>812.9697298308042</v>
       </c>
       <c r="D33" t="n">
-        <v>2336.141650589189</v>
+        <v>664.035320169553</v>
       </c>
       <c r="E33" t="n">
-        <v>2176.904195583733</v>
+        <v>504.7978651640974</v>
       </c>
       <c r="F33" t="n">
-        <v>2030.369637610618</v>
+        <v>358.2633071909824</v>
       </c>
       <c r="G33" t="n">
-        <v>1893.196884623753</v>
+        <v>221.0905542041166</v>
       </c>
       <c r="H33" t="n">
-        <v>1794.875448557658</v>
+        <v>122.7691181380216</v>
       </c>
       <c r="I33" t="n">
-        <v>1758.219979851533</v>
+        <v>86.11364943189743</v>
       </c>
       <c r="J33" t="n">
-        <v>1776.925052719562</v>
+        <v>229.6488472869303</v>
       </c>
       <c r="K33" t="n">
-        <v>1887.049826276118</v>
+        <v>339.7736208434873</v>
       </c>
       <c r="L33" t="n">
-        <v>2448.580657569644</v>
+        <v>901.3044521370133</v>
       </c>
       <c r="M33" t="n">
-        <v>3155.839873631261</v>
+        <v>1608.56366819863</v>
       </c>
       <c r="N33" t="n">
-        <v>3422.976199413889</v>
+        <v>1875.699993981258</v>
       </c>
       <c r="O33" t="n">
-        <v>4035.057649072835</v>
+        <v>2418.261244643319</v>
       </c>
       <c r="P33" t="n">
-        <v>4249.335691837128</v>
+        <v>2577.229361417491</v>
       </c>
       <c r="Q33" t="n">
-        <v>4305.682471594872</v>
+        <v>2633.576141175236</v>
       </c>
       <c r="R33" t="n">
-        <v>4301.25010586014</v>
+        <v>2629.143775440504</v>
       </c>
       <c r="S33" t="n">
-        <v>4156.773273342593</v>
+        <v>2484.666942922957</v>
       </c>
       <c r="T33" t="n">
-        <v>3960.866803980511</v>
+        <v>2288.760473560875</v>
       </c>
       <c r="U33" t="n">
-        <v>3732.745690482066</v>
+        <v>2060.63936006243</v>
       </c>
       <c r="V33" t="n">
-        <v>3497.593582250323</v>
+        <v>1825.487251830687</v>
       </c>
       <c r="W33" t="n">
-        <v>3243.356225522122</v>
+        <v>1571.249895102486</v>
       </c>
       <c r="X33" t="n">
-        <v>3035.504725316589</v>
+        <v>1363.398394896953</v>
       </c>
       <c r="Y33" t="n">
-        <v>2827.744426551635</v>
+        <v>1155.638096131999</v>
       </c>
     </row>
     <row r="34">
@@ -6834,43 +6834,43 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>238.3658583948171</v>
+        <v>86.11364943189743</v>
       </c>
       <c r="C34" t="n">
-        <v>238.3658583948171</v>
+        <v>86.11364943189743</v>
       </c>
       <c r="D34" t="n">
-        <v>238.3658583948171</v>
+        <v>86.11364943189743</v>
       </c>
       <c r="E34" t="n">
-        <v>238.3658583948171</v>
+        <v>86.11364943189743</v>
       </c>
       <c r="F34" t="n">
-        <v>238.3658583948171</v>
+        <v>86.11364943189743</v>
       </c>
       <c r="G34" t="n">
-        <v>238.3658583948171</v>
+        <v>86.11364943189743</v>
       </c>
       <c r="H34" t="n">
-        <v>86.11364943189744</v>
+        <v>86.11364943189743</v>
       </c>
       <c r="I34" t="n">
-        <v>86.11364943189744</v>
+        <v>86.11364943189743</v>
       </c>
       <c r="J34" t="n">
-        <v>86.11364943189744</v>
+        <v>86.11364943189743</v>
       </c>
       <c r="K34" t="n">
-        <v>212.8076375348879</v>
+        <v>212.8076375348878</v>
       </c>
       <c r="L34" t="n">
-        <v>430.4587576962464</v>
+        <v>430.4587576962463</v>
       </c>
       <c r="M34" t="n">
-        <v>670.3304700620229</v>
+        <v>670.3304700620228</v>
       </c>
       <c r="N34" t="n">
-        <v>909.9331856692334</v>
+        <v>909.9331856692332</v>
       </c>
       <c r="O34" t="n">
         <v>1115.228778841303</v>
@@ -6882,28 +6882,28 @@
         <v>1289.276287324572</v>
       </c>
       <c r="R34" t="n">
-        <v>1168.925155535959</v>
+        <v>1289.276287324572</v>
       </c>
       <c r="S34" t="n">
-        <v>965.4098873949429</v>
+        <v>1289.276287324572</v>
       </c>
       <c r="T34" t="n">
-        <v>740.7430056812732</v>
+        <v>1147.344750123074</v>
       </c>
       <c r="U34" t="n">
-        <v>451.603114130961</v>
+        <v>858.2048585727622</v>
       </c>
       <c r="V34" t="n">
-        <v>238.3658583948171</v>
+        <v>603.5203703668753</v>
       </c>
       <c r="W34" t="n">
-        <v>238.3658583948171</v>
+        <v>314.1032003299148</v>
       </c>
       <c r="X34" t="n">
-        <v>238.3658583948171</v>
+        <v>86.11364943189743</v>
       </c>
       <c r="Y34" t="n">
-        <v>238.3658583948171</v>
+        <v>86.11364943189743</v>
       </c>
     </row>
     <row r="35">
@@ -6919,28 +6919,28 @@
         <v>1491.656464917425</v>
       </c>
       <c r="D35" t="n">
-        <v>1226.766272743487</v>
+        <v>1399.809435963079</v>
       </c>
       <c r="E35" t="n">
-        <v>1226.766272743487</v>
+        <v>1014.021183364834</v>
       </c>
       <c r="F35" t="n">
-        <v>815.7803679538799</v>
+        <v>603.0352785752268</v>
       </c>
       <c r="G35" t="n">
-        <v>399.1946814616588</v>
+        <v>186.4495920830058</v>
       </c>
       <c r="H35" t="n">
-        <v>86.11364943189743</v>
+        <v>186.4495920830058</v>
       </c>
       <c r="I35" t="n">
         <v>86.11364943189743</v>
       </c>
       <c r="J35" t="n">
-        <v>316.5202242826242</v>
+        <v>316.520224282624</v>
       </c>
       <c r="K35" t="n">
-        <v>782.5847574885288</v>
+        <v>782.5847574885283</v>
       </c>
       <c r="L35" t="n">
         <v>1413.055650717816</v>
@@ -6952,7 +6952,7 @@
         <v>2846.297482930779</v>
       </c>
       <c r="O35" t="n">
-        <v>3476.372603996238</v>
+        <v>3476.372603996237</v>
       </c>
       <c r="P35" t="n">
         <v>3976.45275961495</v>
@@ -7016,19 +7016,19 @@
         <v>86.11364943189743</v>
       </c>
       <c r="J36" t="n">
-        <v>104.8187222999256</v>
+        <v>229.6488472869303</v>
       </c>
       <c r="K36" t="n">
-        <v>214.9434958564826</v>
+        <v>339.7736208434873</v>
       </c>
       <c r="L36" t="n">
-        <v>747.1589986239721</v>
+        <v>901.3044521370133</v>
       </c>
       <c r="M36" t="n">
-        <v>1454.418214685589</v>
+        <v>1608.56366819863</v>
       </c>
       <c r="N36" t="n">
-        <v>2196.103491068335</v>
+        <v>1875.699993981258</v>
       </c>
       <c r="O36" t="n">
         <v>2418.261244643319</v>
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>86.11364943189743</v>
+        <v>255.0498323598043</v>
       </c>
       <c r="C37" t="n">
         <v>86.11364943189743</v>
@@ -7104,10 +7104,10 @@
         <v>430.4587576962463</v>
       </c>
       <c r="M37" t="n">
-        <v>670.3304700620229</v>
+        <v>670.3304700620228</v>
       </c>
       <c r="N37" t="n">
-        <v>909.9331856692334</v>
+        <v>909.9331856692332</v>
       </c>
       <c r="O37" t="n">
         <v>1115.228778841303</v>
@@ -7119,28 +7119,28 @@
         <v>1289.276287324572</v>
       </c>
       <c r="R37" t="n">
-        <v>1168.925155535959</v>
+        <v>1289.276287324572</v>
       </c>
       <c r="S37" t="n">
-        <v>965.4098873949429</v>
+        <v>1085.761019183555</v>
       </c>
       <c r="T37" t="n">
-        <v>965.4098873949429</v>
+        <v>861.0941374698855</v>
       </c>
       <c r="U37" t="n">
-        <v>676.2699958446308</v>
+        <v>861.0941374698855</v>
       </c>
       <c r="V37" t="n">
-        <v>421.5855076387439</v>
+        <v>606.4096492639986</v>
       </c>
       <c r="W37" t="n">
-        <v>421.5855076387439</v>
+        <v>316.992479227038</v>
       </c>
       <c r="X37" t="n">
-        <v>193.5959567407266</v>
+        <v>316.992479227038</v>
       </c>
       <c r="Y37" t="n">
-        <v>86.11364943189743</v>
+        <v>316.992479227038</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2339.782740888894</v>
+        <v>2440.118683540002</v>
       </c>
       <c r="C38" t="n">
-        <v>1970.820223948482</v>
+        <v>2071.156166599591</v>
       </c>
       <c r="D38" t="n">
-        <v>1612.554525341732</v>
+        <v>1712.89046799284</v>
       </c>
       <c r="E38" t="n">
-        <v>1226.766272743487</v>
+        <v>1327.102215394596</v>
       </c>
       <c r="F38" t="n">
-        <v>815.7803679538799</v>
+        <v>916.1163106049883</v>
       </c>
       <c r="G38" t="n">
-        <v>399.1946814616588</v>
+        <v>499.5306241127672</v>
       </c>
       <c r="H38" t="n">
-        <v>86.11364943189744</v>
+        <v>186.4495920830058</v>
       </c>
       <c r="I38" t="n">
-        <v>86.11364943189744</v>
+        <v>86.11364943189743</v>
       </c>
       <c r="J38" t="n">
-        <v>316.5202242826244</v>
+        <v>316.520224282624</v>
       </c>
       <c r="K38" t="n">
-        <v>782.5847574885292</v>
+        <v>782.5847574885283</v>
       </c>
       <c r="L38" t="n">
-        <v>1413.055650717817</v>
+        <v>1413.055650717816</v>
       </c>
       <c r="M38" t="n">
-        <v>2131.182543644155</v>
+        <v>2131.182543644154</v>
       </c>
       <c r="N38" t="n">
-        <v>2846.29748293078</v>
+        <v>2846.297482930779</v>
       </c>
       <c r="O38" t="n">
-        <v>3476.372603996238</v>
+        <v>3476.372603996237</v>
       </c>
       <c r="P38" t="n">
-        <v>3976.452759614951</v>
+        <v>3976.45275961495</v>
       </c>
       <c r="Q38" t="n">
-        <v>4274.770370373407</v>
+        <v>4274.770370373406</v>
       </c>
       <c r="R38" t="n">
-        <v>4305.682471594872</v>
+        <v>4305.682471594871</v>
       </c>
       <c r="S38" t="n">
-        <v>4160.908930087624</v>
+        <v>4305.682471594871</v>
       </c>
       <c r="T38" t="n">
-        <v>3948.306990405677</v>
+        <v>4093.080531912924</v>
       </c>
       <c r="U38" t="n">
-        <v>3948.306990405677</v>
+        <v>3839.428996279783</v>
       </c>
       <c r="V38" t="n">
-        <v>3617.244103062106</v>
+        <v>3839.428996279783</v>
       </c>
       <c r="W38" t="n">
-        <v>3489.987671189907</v>
+        <v>3486.660341009669</v>
       </c>
       <c r="X38" t="n">
-        <v>3116.521912928828</v>
+        <v>3216.857855579936</v>
       </c>
       <c r="Y38" t="n">
-        <v>2726.382580953016</v>
+        <v>2826.718523604124</v>
       </c>
     </row>
     <row r="39">
@@ -7250,25 +7250,25 @@
         <v>122.7691181380216</v>
       </c>
       <c r="I39" t="n">
-        <v>86.11364943189744</v>
+        <v>86.11364943189743</v>
       </c>
       <c r="J39" t="n">
-        <v>104.8187222999256</v>
+        <v>229.6488472869303</v>
       </c>
       <c r="K39" t="n">
-        <v>214.9434958564826</v>
+        <v>339.7736208434873</v>
       </c>
       <c r="L39" t="n">
-        <v>516.5061121865901</v>
+        <v>901.3044521370133</v>
       </c>
       <c r="M39" t="n">
-        <v>1223.765328248207</v>
+        <v>1608.56366819863</v>
       </c>
       <c r="N39" t="n">
-        <v>1490.901654030835</v>
+        <v>1875.699993981258</v>
       </c>
       <c r="O39" t="n">
-        <v>2102.983103689781</v>
+        <v>2418.261244643319</v>
       </c>
       <c r="P39" t="n">
         <v>2577.229361417491</v>
@@ -7308,43 +7308,43 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>501.8819976185181</v>
+        <v>236.2302888442331</v>
       </c>
       <c r="C40" t="n">
-        <v>501.8819976185181</v>
+        <v>236.2302888442331</v>
       </c>
       <c r="D40" t="n">
-        <v>351.7653582061823</v>
+        <v>86.11364943189743</v>
       </c>
       <c r="E40" t="n">
-        <v>203.8522646237892</v>
+        <v>86.11364943189743</v>
       </c>
       <c r="F40" t="n">
-        <v>203.8522646237892</v>
+        <v>86.11364943189743</v>
       </c>
       <c r="G40" t="n">
-        <v>203.8522646237892</v>
+        <v>86.11364943189743</v>
       </c>
       <c r="H40" t="n">
-        <v>203.8522646237892</v>
+        <v>86.11364943189743</v>
       </c>
       <c r="I40" t="n">
-        <v>86.11364943189744</v>
+        <v>86.11364943189743</v>
       </c>
       <c r="J40" t="n">
-        <v>86.11364943189744</v>
+        <v>86.11364943189743</v>
       </c>
       <c r="K40" t="n">
-        <v>212.8076375348879</v>
+        <v>212.8076375348878</v>
       </c>
       <c r="L40" t="n">
-        <v>430.4587576962464</v>
+        <v>430.4587576962463</v>
       </c>
       <c r="M40" t="n">
-        <v>670.3304700620229</v>
+        <v>670.3304700620228</v>
       </c>
       <c r="N40" t="n">
-        <v>909.9331856692334</v>
+        <v>909.9331856692332</v>
       </c>
       <c r="O40" t="n">
         <v>1115.228778841303</v>
@@ -7359,25 +7359,25 @@
         <v>1289.276287324572</v>
       </c>
       <c r="S40" t="n">
-        <v>1085.761019183555</v>
+        <v>1289.276287324572</v>
       </c>
       <c r="T40" t="n">
-        <v>1080.439059205791</v>
+        <v>1064.609405610902</v>
       </c>
       <c r="U40" t="n">
-        <v>791.2991676554786</v>
+        <v>939.6969070916674</v>
       </c>
       <c r="V40" t="n">
-        <v>791.2991676554786</v>
+        <v>685.0124188857806</v>
       </c>
       <c r="W40" t="n">
-        <v>501.8819976185181</v>
+        <v>685.0124188857806</v>
       </c>
       <c r="X40" t="n">
-        <v>501.8819976185181</v>
+        <v>457.0228679877632</v>
       </c>
       <c r="Y40" t="n">
-        <v>501.8819976185181</v>
+        <v>236.2302888442331</v>
       </c>
     </row>
     <row r="41">
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2071.156166599591</v>
+        <v>2054.330430941758</v>
       </c>
       <c r="C41" t="n">
-        <v>2071.156166599591</v>
+        <v>1685.367914001346</v>
       </c>
       <c r="D41" t="n">
-        <v>1712.89046799284</v>
+        <v>1327.102215394596</v>
       </c>
       <c r="E41" t="n">
         <v>1327.102215394596</v>
@@ -7408,7 +7408,7 @@
         <v>186.4495920830057</v>
       </c>
       <c r="I41" t="n">
-        <v>86.11364943189743</v>
+        <v>86.11364943189741</v>
       </c>
       <c r="J41" t="n">
         <v>316.5202242826242</v>
@@ -7417,46 +7417,46 @@
         <v>782.5847574885288</v>
       </c>
       <c r="L41" t="n">
-        <v>1413.055650717816</v>
+        <v>1413.055650717815</v>
       </c>
       <c r="M41" t="n">
-        <v>2131.182543644155</v>
+        <v>2131.182543644154</v>
       </c>
       <c r="N41" t="n">
-        <v>2846.29748293078</v>
+        <v>2846.297482930779</v>
       </c>
       <c r="O41" t="n">
-        <v>3476.372603996238</v>
+        <v>3476.372603996237</v>
       </c>
       <c r="P41" t="n">
-        <v>3976.45275961495</v>
+        <v>3976.452759614949</v>
       </c>
       <c r="Q41" t="n">
-        <v>4274.770370373406</v>
+        <v>4274.770370373405</v>
       </c>
       <c r="R41" t="n">
         <v>4305.682471594871</v>
       </c>
       <c r="S41" t="n">
-        <v>4160.908930087623</v>
+        <v>4160.908930087622</v>
       </c>
       <c r="T41" t="n">
-        <v>3948.306990405676</v>
+        <v>3948.306990405675</v>
       </c>
       <c r="U41" t="n">
-        <v>3694.655454772535</v>
+        <v>3694.655454772534</v>
       </c>
       <c r="V41" t="n">
-        <v>3363.592567428964</v>
+        <v>3363.592567428963</v>
       </c>
       <c r="W41" t="n">
-        <v>3221.361096900604</v>
+        <v>3010.823912158849</v>
       </c>
       <c r="X41" t="n">
-        <v>2847.895338639524</v>
+        <v>2831.069602981692</v>
       </c>
       <c r="Y41" t="n">
-        <v>2457.756006663712</v>
+        <v>2440.93027100588</v>
       </c>
     </row>
     <row r="42">
@@ -7478,7 +7478,7 @@
         <v>504.7978651640974</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2633071909824</v>
+        <v>358.2633071909823</v>
       </c>
       <c r="G42" t="n">
         <v>221.0905542041166</v>
@@ -7487,22 +7487,22 @@
         <v>122.7691181380216</v>
       </c>
       <c r="I42" t="n">
-        <v>86.11364943189743</v>
+        <v>86.11364943189741</v>
       </c>
       <c r="J42" t="n">
-        <v>104.8187222999256</v>
+        <v>229.6488472869303</v>
       </c>
       <c r="K42" t="n">
-        <v>214.9434958564826</v>
+        <v>339.7736208434873</v>
       </c>
       <c r="L42" t="n">
-        <v>409.3423852995841</v>
+        <v>901.3044521370133</v>
       </c>
       <c r="M42" t="n">
-        <v>1064.494518601627</v>
+        <v>1608.56366819863</v>
       </c>
       <c r="N42" t="n">
-        <v>1806.179794984373</v>
+        <v>1875.699993981258</v>
       </c>
       <c r="O42" t="n">
         <v>2418.261244643319</v>
@@ -7545,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>570.32140220885</v>
+        <v>203.8522646237892</v>
       </c>
       <c r="C43" t="n">
-        <v>401.3852192809431</v>
+        <v>203.8522646237892</v>
       </c>
       <c r="D43" t="n">
-        <v>401.3852192809431</v>
+        <v>203.8522646237892</v>
       </c>
       <c r="E43" t="n">
-        <v>401.3852192809431</v>
+        <v>203.8522646237892</v>
       </c>
       <c r="F43" t="n">
-        <v>254.4952717830328</v>
+        <v>203.8522646237892</v>
       </c>
       <c r="G43" t="n">
-        <v>86.11364943189743</v>
+        <v>203.8522646237892</v>
       </c>
       <c r="H43" t="n">
-        <v>86.11364943189743</v>
+        <v>203.8522646237892</v>
       </c>
       <c r="I43" t="n">
-        <v>86.11364943189743</v>
+        <v>86.11364943189741</v>
       </c>
       <c r="J43" t="n">
-        <v>86.11364943189743</v>
+        <v>86.11364943189741</v>
       </c>
       <c r="K43" t="n">
         <v>212.8076375348878</v>
@@ -7578,10 +7578,10 @@
         <v>430.4587576962463</v>
       </c>
       <c r="M43" t="n">
-        <v>670.3304700620229</v>
+        <v>670.3304700620228</v>
       </c>
       <c r="N43" t="n">
-        <v>909.9331856692334</v>
+        <v>909.9331856692332</v>
       </c>
       <c r="O43" t="n">
         <v>1115.228778841303</v>
@@ -7593,28 +7593,28 @@
         <v>1289.276287324572</v>
       </c>
       <c r="R43" t="n">
-        <v>1289.276287324572</v>
+        <v>1168.925155535959</v>
       </c>
       <c r="S43" t="n">
-        <v>1289.276287324572</v>
+        <v>965.4098873949426</v>
       </c>
       <c r="T43" t="n">
-        <v>1289.276287324572</v>
+        <v>740.743005681273</v>
       </c>
       <c r="U43" t="n">
-        <v>1289.276287324572</v>
+        <v>458.5367528296761</v>
       </c>
       <c r="V43" t="n">
-        <v>1034.591799118685</v>
+        <v>203.8522646237892</v>
       </c>
       <c r="W43" t="n">
-        <v>745.1746290817243</v>
+        <v>203.8522646237892</v>
       </c>
       <c r="X43" t="n">
-        <v>745.1746290817243</v>
+        <v>203.8522646237892</v>
       </c>
       <c r="Y43" t="n">
-        <v>570.32140220885</v>
+        <v>203.8522646237892</v>
       </c>
     </row>
     <row r="44">
@@ -7624,10 +7624,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2071.156166599591</v>
+        <v>2081.852984933252</v>
       </c>
       <c r="C44" t="n">
-        <v>2071.156166599591</v>
+        <v>1712.89046799284</v>
       </c>
       <c r="D44" t="n">
         <v>1712.89046799284</v>
@@ -7645,16 +7645,16 @@
         <v>186.4495920830057</v>
       </c>
       <c r="I44" t="n">
-        <v>86.11364943189743</v>
+        <v>86.11364943189741</v>
       </c>
       <c r="J44" t="n">
-        <v>316.5202242826235</v>
+        <v>316.5202242826241</v>
       </c>
       <c r="K44" t="n">
-        <v>782.5847574885281</v>
+        <v>782.5847574885287</v>
       </c>
       <c r="L44" t="n">
-        <v>1413.055650717815</v>
+        <v>1413.055650717816</v>
       </c>
       <c r="M44" t="n">
         <v>2131.182543644154</v>
@@ -7663,7 +7663,7 @@
         <v>2846.297482930779</v>
       </c>
       <c r="O44" t="n">
-        <v>3476.372603996237</v>
+        <v>3476.372603996238</v>
       </c>
       <c r="P44" t="n">
         <v>3976.45275961495</v>
@@ -7675,25 +7675,25 @@
         <v>4305.682471594871</v>
       </c>
       <c r="S44" t="n">
-        <v>4160.908930087623</v>
+        <v>4169.540993481091</v>
       </c>
       <c r="T44" t="n">
-        <v>3948.306990405676</v>
+        <v>4169.540993481091</v>
       </c>
       <c r="U44" t="n">
-        <v>3694.655454772535</v>
+        <v>3915.88945784795</v>
       </c>
       <c r="V44" t="n">
-        <v>3363.592567428964</v>
+        <v>3584.82657050438</v>
       </c>
       <c r="W44" t="n">
-        <v>3010.823912158849</v>
+        <v>3232.057915234265</v>
       </c>
       <c r="X44" t="n">
-        <v>2637.35815389777</v>
+        <v>2858.592156973185</v>
       </c>
       <c r="Y44" t="n">
-        <v>2457.756006663712</v>
+        <v>2468.452824997374</v>
       </c>
     </row>
     <row r="45">
@@ -7715,7 +7715,7 @@
         <v>504.7978651640974</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2633071909824</v>
+        <v>358.2633071909823</v>
       </c>
       <c r="G45" t="n">
         <v>221.0905542041166</v>
@@ -7724,22 +7724,22 @@
         <v>122.7691181380216</v>
       </c>
       <c r="I45" t="n">
-        <v>86.11364943189743</v>
+        <v>86.11364943189741</v>
       </c>
       <c r="J45" t="n">
-        <v>104.8187222999256</v>
+        <v>229.6488472869303</v>
       </c>
       <c r="K45" t="n">
-        <v>214.9434958564826</v>
+        <v>339.7736208434873</v>
       </c>
       <c r="L45" t="n">
-        <v>409.3423852995841</v>
+        <v>901.3044521370133</v>
       </c>
       <c r="M45" t="n">
-        <v>1064.494518601627</v>
+        <v>1608.56366819863</v>
       </c>
       <c r="N45" t="n">
-        <v>1806.179794984373</v>
+        <v>1875.699993981258</v>
       </c>
       <c r="O45" t="n">
         <v>2418.261244643319</v>
@@ -7782,31 +7782,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>699.9695128524435</v>
+        <v>86.11364943189741</v>
       </c>
       <c r="C46" t="n">
-        <v>531.0333299245366</v>
+        <v>86.11364943189741</v>
       </c>
       <c r="D46" t="n">
-        <v>380.9166905122009</v>
+        <v>86.11364943189741</v>
       </c>
       <c r="E46" t="n">
-        <v>233.0035969298078</v>
+        <v>86.11364943189741</v>
       </c>
       <c r="F46" t="n">
-        <v>86.11364943189743</v>
+        <v>86.11364943189741</v>
       </c>
       <c r="G46" t="n">
-        <v>86.11364943189743</v>
+        <v>86.11364943189741</v>
       </c>
       <c r="H46" t="n">
-        <v>86.11364943189743</v>
+        <v>86.11364943189741</v>
       </c>
       <c r="I46" t="n">
-        <v>86.11364943189743</v>
+        <v>86.11364943189741</v>
       </c>
       <c r="J46" t="n">
-        <v>86.11364943189743</v>
+        <v>86.11364943189741</v>
       </c>
       <c r="K46" t="n">
         <v>212.8076375348878</v>
@@ -7815,10 +7815,10 @@
         <v>430.4587576962463</v>
       </c>
       <c r="M46" t="n">
-        <v>670.3304700620229</v>
+        <v>670.3304700620228</v>
       </c>
       <c r="N46" t="n">
-        <v>909.9331856692334</v>
+        <v>909.9331856692332</v>
       </c>
       <c r="O46" t="n">
         <v>1115.228778841303</v>
@@ -7839,19 +7839,19 @@
         <v>1289.276287324572</v>
       </c>
       <c r="U46" t="n">
-        <v>1289.276287324572</v>
+        <v>1000.13639577426</v>
       </c>
       <c r="V46" t="n">
-        <v>1109.607528580701</v>
+        <v>745.4519075683728</v>
       </c>
       <c r="W46" t="n">
-        <v>1109.607528580701</v>
+        <v>456.0347375314122</v>
       </c>
       <c r="X46" t="n">
-        <v>881.6179776826832</v>
+        <v>228.0451866333948</v>
       </c>
       <c r="Y46" t="n">
-        <v>881.6179776826832</v>
+        <v>86.11364943189741</v>
       </c>
     </row>
   </sheetData>
@@ -8066,19 +8066,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>174.6270615612551</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8300,19 +8300,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>303.312501347746</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
         <v>139.9817740860215</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>193.3577389147212</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8543,7 +8543,7 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>186.8580120236956</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
@@ -8768,13 +8768,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>6.233205181928696</v>
+        <v>6.233205181928668</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
@@ -8786,10 +8786,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>15.9212916259324</v>
+        <v>68.29886828945429</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>22.1544968078611</v>
+        <v>22.15449680786087</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9242,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>6.233205181928696</v>
+        <v>6.233205181928668</v>
       </c>
       <c r="K18" t="n">
-        <v>15.9212916259324</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9254,16 +9254,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>176.8008973295489</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9479,13 +9479,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>6.233205181928696</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
@@ -9494,13 +9494,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>15.92129162593254</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>77.83812039512507</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9716,13 +9716,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>108.2461887747535</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
@@ -9731,10 +9731,10 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>323.6398960475526</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -9953,13 +9953,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>108.2461887747535</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
@@ -9968,10 +9968,10 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>323.6398960475526</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10202,10 +10202,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>449.7309313879612</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>323.6398960475526</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10442,10 +10442,10 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>323.6398960475526</v>
       </c>
       <c r="P33" t="n">
-        <v>55.8686121112334</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -10664,22 +10664,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>341.2289023478667</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>323.6398960475526</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -10901,13 +10901,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>108.2461887747535</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
@@ -10916,10 +10916,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>323.6398960475526</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -11138,22 +11138,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>413.0716468211372</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>323.6398960475526</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.096615172073</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298165</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,22 +11375,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>413.0716468211372</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>323.6398960475526</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -23272,13 +23272,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>412.9169039459368</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4960408938906</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,22 +23311,22 @@
         <v>154.6528871281403</v>
       </c>
       <c r="T11" t="n">
-        <v>127.7260705552828</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>155.7318637486499</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23421,7 +23421,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23430,16 +23430,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.9207765545704</v>
+        <v>16.97365325768533</v>
       </c>
       <c r="H13" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>123.2665578794171</v>
       </c>
       <c r="J13" t="n">
-        <v>17.69584188176918</v>
+        <v>17.69584188176917</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U13" t="n">
-        <v>60.69561706280436</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23503,19 +23503,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>412.9169039459368</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4960408938906</v>
+        <v>118.4960408938905</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>154.6528871281403</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>132.0336391390752</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>226.0887946250972</v>
       </c>
     </row>
     <row r="15">
@@ -23652,22 +23652,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>145.0457407993577</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>152.7120966692326</v>
@@ -23676,7 +23676,7 @@
         <v>123.2665578794171</v>
       </c>
       <c r="J16" t="n">
-        <v>17.69584188176918</v>
+        <v>17.69584188176917</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>129.1731816677914</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>205.3658819001187</v>
       </c>
       <c r="T16" t="n">
-        <v>58.35886639452585</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23749,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>113.8332951025942</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4960408938906</v>
+        <v>118.4960408938905</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23791,10 +23791,10 @@
         <v>251.1547862223006</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>148.0333797447905</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>177.3775036289093</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23913,7 +23913,7 @@
         <v>123.2665578794171</v>
       </c>
       <c r="J19" t="n">
-        <v>17.69584188176918</v>
+        <v>17.69584188176917</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23943,7 +23943,7 @@
         <v>205.3658819001187</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23952,10 +23952,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>60.69561706280419</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23983,10 +23983,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>412.9169039459368</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>253.818046243762</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>154.6528871281403</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>18.14115691383302</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>10.44256553463123</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24138,19 +24138,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.9207765545704</v>
       </c>
       <c r="H22" t="n">
-        <v>27.44997564633736</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>123.2665578794171</v>
       </c>
       <c r="J22" t="n">
-        <v>17.69584188176918</v>
+        <v>17.69584188176917</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24174,22 +24174,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>129.1731816677914</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U22" t="n">
         <v>286.260654658097</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24214,7 +24214,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>263.8962011556193</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24223,10 +24223,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>309.9502217094637</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>99.33258322459723</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,10 +24256,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>143.3258060921758</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>120.4286768637039</v>
+        <v>210.475920285128</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24384,10 +24384,10 @@
         <v>150.7296868732905</v>
       </c>
       <c r="I25" t="n">
-        <v>116.5612290399729</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>1.931832696655022</v>
+        <v>1.931832696655036</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>119.1476204707264</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,19 +24420,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.248492634809</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>163.5629143176897</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>140.2836241694009</v>
       </c>
     </row>
     <row r="26">
@@ -24451,7 +24451,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24460,10 +24460,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>309.9502217094637</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>99.33258322459723</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24502,10 +24502,10 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>191.7743345930828</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>164.4218997312842</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24612,7 +24612,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.697806127624</v>
@@ -24624,7 +24624,7 @@
         <v>116.5612290399729</v>
       </c>
       <c r="J28" t="n">
-        <v>1.931832696655022</v>
+        <v>1.931832696655036</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24651,10 +24651,10 @@
         <v>119.1476204707264</v>
       </c>
       <c r="S28" t="n">
-        <v>201.4801154596064</v>
+        <v>201.4801154596065</v>
       </c>
       <c r="T28" t="n">
-        <v>220.2210027512417</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.248492634809</v>
@@ -24663,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>194.0761319662736</v>
       </c>
     </row>
     <row r="29">
@@ -24736,7 +24736,7 @@
         <v>210.475920285128</v>
       </c>
       <c r="U29" t="n">
-        <v>219.9029782880406</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24748,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>219.9029782880416</v>
       </c>
     </row>
     <row r="30">
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24861,7 +24861,7 @@
         <v>116.5612290399729</v>
       </c>
       <c r="J31" t="n">
-        <v>1.931832696655022</v>
+        <v>1.931832696655036</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24888,25 +24888,25 @@
         <v>119.1476204707264</v>
       </c>
       <c r="S31" t="n">
-        <v>201.4801154596064</v>
+        <v>201.4801154596065</v>
       </c>
       <c r="T31" t="n">
-        <v>222.420212896533</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.248492634809</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>61.80855779754373</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>81.90799106705052</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24937,7 +24937,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>99.33258322459722</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24973,7 +24973,7 @@
         <v>210.475920285128</v>
       </c>
       <c r="U32" t="n">
-        <v>120.570395063442</v>
+        <v>219.9029782880406</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -25092,13 +25092,13 @@
         <v>166.697806127624</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>150.7296868732905</v>
       </c>
       <c r="I34" t="n">
         <v>116.5612290399729</v>
       </c>
       <c r="J34" t="n">
-        <v>1.931832696655022</v>
+        <v>1.931832696655036</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25122,25 +25122,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>119.1476204707264</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>201.4801154596065</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>81.9079910670506</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>41.03276014504556</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25159,10 +25159,10 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>92.44175136848526</v>
+        <v>263.7544829558805</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25171,10 +25171,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>309.9502217094637</v>
       </c>
       <c r="I35" t="n">
-        <v>99.33258322459722</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>118.508759783376</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25335,7 +25335,7 @@
         <v>116.5612290399729</v>
       </c>
       <c r="J37" t="n">
-        <v>1.931832696655022</v>
+        <v>1.931832696655036</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>119.1476204707264</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>222.420212896533</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.248492634809</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>112.1771691163539</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25411,7 +25411,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>99.33258322459722</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,22 +25441,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>143.3258060921758</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.1150202768096</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>223.2571011639366</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>102.6266401030336</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25557,7 +25557,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25569,10 +25569,10 @@
         <v>150.7296868732905</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>116.5612290399729</v>
       </c>
       <c r="J40" t="n">
-        <v>1.931832696655022</v>
+        <v>1.931832696655036</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25599,25 +25599,25 @@
         <v>119.1476204707264</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>201.4801154596065</v>
       </c>
       <c r="T40" t="n">
-        <v>217.1514725185459</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>162.5851191007667</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25630,13 +25630,13 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25690,10 +25690,10 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>208.4318128943369</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>191.7743345930839</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25797,19 +25797,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.697806127624</v>
       </c>
       <c r="H43" t="n">
         <v>150.7296868732905</v>
       </c>
       <c r="I43" t="n">
-        <v>116.5612290399729</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>1.931832696655022</v>
+        <v>1.931832696655036</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>119.1476204707264</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>201.4801154596064</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>222.420212896533</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.248492634809</v>
+        <v>6.864302311728068</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>45.47995874794924</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25867,10 +25867,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25915,10 +25915,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>8.545742759534448</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>210.475920285128</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25933,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>208.431812894337</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26022,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.697806127624</v>
@@ -26046,7 +26046,7 @@
         <v>116.5612290399729</v>
       </c>
       <c r="J46" t="n">
-        <v>1.931832696655022</v>
+        <v>1.931832696655036</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26073,25 +26073,25 @@
         <v>119.1476204707264</v>
       </c>
       <c r="S46" t="n">
-        <v>201.4801154596064</v>
+        <v>201.4801154596065</v>
       </c>
       <c r="T46" t="n">
         <v>222.420212896533</v>
       </c>
       <c r="U46" t="n">
-        <v>286.248492634809</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>74.26557216739531</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>78.07243152261233</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>683505.0645494171</v>
+        <v>683505.064549417</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>683505.064549417</v>
+        <v>683505.0645494171</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>683505.0645494169</v>
+        <v>683505.064549417</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>738666.0972997826</v>
+        <v>738666.0972997824</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>738666.0972997823</v>
+        <v>738666.0972997822</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>738666.0972997824</v>
+        <v>738666.0972997823</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>738666.0972997824</v>
+        <v>738666.0972997823</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>738666.0972997826</v>
+        <v>738666.0972997827</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>738666.0972997826</v>
+        <v>738666.0972997822</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>738666.0972997824</v>
+        <v>738666.0972997823</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982125</v>
+        <v>615781.3273982123</v>
       </c>
       <c r="C2" t="n">
+        <v>615781.3273982126</v>
+      </c>
+      <c r="D2" t="n">
         <v>615781.3273982122</v>
       </c>
-      <c r="D2" t="n">
-        <v>615781.3273982119</v>
-      </c>
       <c r="E2" t="n">
-        <v>506603.483539985</v>
+        <v>506603.4835399849</v>
       </c>
       <c r="F2" t="n">
-        <v>506603.4835399849</v>
+        <v>506603.4835399848</v>
       </c>
       <c r="G2" t="n">
         <v>506603.483539985</v>
       </c>
       <c r="H2" t="n">
-        <v>506603.4835399851</v>
+        <v>506603.483539985</v>
       </c>
       <c r="I2" t="n">
         <v>548328.532568696</v>
       </c>
       <c r="J2" t="n">
+        <v>548328.5325686957</v>
+      </c>
+      <c r="K2" t="n">
+        <v>548328.532568696</v>
+      </c>
+      <c r="L2" t="n">
         <v>548328.5325686958</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
+        <v>548328.5325686958</v>
+      </c>
+      <c r="N2" t="n">
+        <v>548328.5325686961</v>
+      </c>
+      <c r="O2" t="n">
+        <v>548328.532568696</v>
+      </c>
+      <c r="P2" t="n">
         <v>548328.5325686957</v>
-      </c>
-      <c r="L2" t="n">
-        <v>548328.5325686961</v>
-      </c>
-      <c r="M2" t="n">
-        <v>548328.532568696</v>
-      </c>
-      <c r="N2" t="n">
-        <v>548328.532568696</v>
-      </c>
-      <c r="O2" t="n">
-        <v>548328.5325686957</v>
-      </c>
-      <c r="P2" t="n">
-        <v>548328.5325686958</v>
       </c>
     </row>
     <row r="3">
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>133368.5290586867</v>
+        <v>133368.5290586864</v>
       </c>
       <c r="J3" t="n">
         <v>63059.94259910617</v>
@@ -26441,19 +26441,19 @@
         <v>8277.699316071412</v>
       </c>
       <c r="J4" t="n">
-        <v>8277.699316071412</v>
+        <v>8277.69931607141</v>
       </c>
       <c r="K4" t="n">
         <v>8277.699316071412</v>
       </c>
       <c r="L4" t="n">
-        <v>8277.699316071414</v>
+        <v>8277.69931607141</v>
       </c>
       <c r="M4" t="n">
+        <v>8277.699316071412</v>
+      </c>
+      <c r="N4" t="n">
         <v>8277.69931607141</v>
-      </c>
-      <c r="N4" t="n">
-        <v>8277.699316071412</v>
       </c>
       <c r="O4" t="n">
         <v>8277.699316071412</v>
@@ -26484,34 +26484,34 @@
         <v>69171.54328360136</v>
       </c>
       <c r="G5" t="n">
-        <v>69171.54328360136</v>
+        <v>69171.54328360138</v>
       </c>
       <c r="H5" t="n">
         <v>69171.54328360138</v>
       </c>
       <c r="I5" t="n">
-        <v>81079.66231700631</v>
+        <v>81079.6623170063</v>
       </c>
       <c r="J5" t="n">
+        <v>81079.66231700628</v>
+      </c>
+      <c r="K5" t="n">
+        <v>81079.66231700628</v>
+      </c>
+      <c r="L5" t="n">
         <v>81079.6623170063</v>
-      </c>
-      <c r="K5" t="n">
-        <v>81079.6623170063</v>
-      </c>
-      <c r="L5" t="n">
-        <v>81079.66231700631</v>
       </c>
       <c r="M5" t="n">
         <v>81079.6623170063</v>
       </c>
       <c r="N5" t="n">
-        <v>81079.66231700631</v>
+        <v>81079.6623170063</v>
       </c>
       <c r="O5" t="n">
-        <v>81079.6623170063</v>
+        <v>81079.66231700628</v>
       </c>
       <c r="P5" t="n">
-        <v>81079.6623170063</v>
+        <v>81079.66231700628</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>199237.9883991013</v>
+        <v>199237.9883991011</v>
       </c>
       <c r="C6" t="n">
+        <v>280007.4199306492</v>
+      </c>
+      <c r="D6" t="n">
         <v>280007.4199306487</v>
       </c>
-      <c r="D6" t="n">
-        <v>280007.4199306485</v>
-      </c>
       <c r="E6" t="n">
-        <v>-252234.2820235318</v>
+        <v>-255873.5434854728</v>
       </c>
       <c r="F6" t="n">
-        <v>428758.660638307</v>
+        <v>425119.3991763659</v>
       </c>
       <c r="G6" t="n">
-        <v>428758.660638307</v>
+        <v>425119.3991763662</v>
       </c>
       <c r="H6" t="n">
-        <v>428758.6606383071</v>
+        <v>425119.399176366</v>
       </c>
       <c r="I6" t="n">
-        <v>325602.6418769315</v>
+        <v>323354.2153826146</v>
       </c>
       <c r="J6" t="n">
-        <v>395911.228336512</v>
+        <v>393662.8018421947</v>
       </c>
       <c r="K6" t="n">
-        <v>458971.170935618</v>
+        <v>456722.744441301</v>
       </c>
       <c r="L6" t="n">
-        <v>458971.1709356183</v>
+        <v>456722.7444413009</v>
       </c>
       <c r="M6" t="n">
-        <v>288544.7543719072</v>
+        <v>286296.3278775899</v>
       </c>
       <c r="N6" t="n">
-        <v>458971.1709356182</v>
+        <v>456722.7444413012</v>
       </c>
       <c r="O6" t="n">
-        <v>458971.170935618</v>
+        <v>456722.744441301</v>
       </c>
       <c r="P6" t="n">
-        <v>458971.1709356181</v>
+        <v>456722.7444413008</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>593.4761003380635</v>
+        <v>593.4761003380636</v>
       </c>
       <c r="F3" t="n">
-        <v>593.4761003380635</v>
+        <v>593.4761003380636</v>
       </c>
       <c r="G3" t="n">
-        <v>593.4761003380635</v>
+        <v>593.4761003380636</v>
       </c>
       <c r="H3" t="n">
-        <v>593.4761003380635</v>
+        <v>593.4761003380636</v>
       </c>
       <c r="I3" t="n">
-        <v>717.1233370992778</v>
+        <v>717.1233370992777</v>
       </c>
       <c r="J3" t="n">
-        <v>717.1233370992778</v>
+        <v>717.1233370992777</v>
       </c>
       <c r="K3" t="n">
-        <v>717.1233370992778</v>
+        <v>717.1233370992777</v>
       </c>
       <c r="L3" t="n">
-        <v>717.1233370992778</v>
+        <v>717.1233370992777</v>
       </c>
       <c r="M3" t="n">
-        <v>717.1233370992778</v>
+        <v>717.1233370992777</v>
       </c>
       <c r="N3" t="n">
-        <v>717.1233370992778</v>
+        <v>717.1233370992777</v>
       </c>
       <c r="O3" t="n">
-        <v>717.1233370992778</v>
+        <v>717.1233370992777</v>
       </c>
       <c r="P3" t="n">
-        <v>717.1233370992778</v>
+        <v>717.1233370992777</v>
       </c>
     </row>
     <row r="4">
@@ -26804,10 +26804,10 @@
         <v>924.8974390827563</v>
       </c>
       <c r="G4" t="n">
-        <v>924.8974390827563</v>
+        <v>924.8974390827565</v>
       </c>
       <c r="H4" t="n">
-        <v>924.8974390827564</v>
+        <v>924.8974390827565</v>
       </c>
       <c r="I4" t="n">
         <v>1076.420617898718</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>593.4761003380635</v>
+        <v>593.4761003380636</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>123.6472367612143</v>
+        <v>123.6472367612141</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>151.5231788159617</v>
+        <v>151.5231788159614</v>
       </c>
       <c r="J4" t="n">
         <v>241.0142888776588</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>152.0346092473755</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27393,16 +27393,16 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I2" t="n">
-        <v>196.168179941393</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27423,7 +27423,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -27432,10 +27432,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27457,28 +27457,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>87.69061953822364</v>
+        <v>52.77638064857638</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,10 +27505,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
@@ -27523,7 +27523,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27593,7 +27593,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27615,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>214.5672278460424</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>356.7568284542617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -27675,16 +27675,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27694,7 +27694,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -27703,13 +27703,13 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>60.50207587874964</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>97.4707188712695</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
@@ -27742,10 +27742,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
@@ -27763,7 +27763,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27785,7 +27785,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G7" t="n">
         <v>167.9909793584588</v>
@@ -27800,7 +27800,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27815,7 +27815,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -27827,7 +27827,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>119.7495544039028</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
         <v>286.3190293564909</v>
@@ -27852,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>199.839166891148</v>
+        <v>342.8322390905863</v>
       </c>
       <c r="H8" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -27931,19 +27931,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>123.3973950460205</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
@@ -27991,16 +27991,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>60.50207587874957</v>
       </c>
     </row>
     <row r="10">
@@ -28022,7 +28022,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>14.95552117266971</v>
       </c>
       <c r="G10" t="n">
         <v>167.9909793584588</v>
@@ -28052,7 +28052,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -28076,7 +28076,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -31755,10 +31755,10 @@
         <v>2.385833569198244</v>
       </c>
       <c r="H11" t="n">
-        <v>24.43391804055151</v>
+        <v>24.43391804055152</v>
       </c>
       <c r="I11" t="n">
-        <v>91.97984867651536</v>
+        <v>91.97984867651539</v>
       </c>
       <c r="J11" t="n">
         <v>202.4946418937396</v>
@@ -31767,16 +31767,16 @@
         <v>303.4869768779013</v>
       </c>
       <c r="L11" t="n">
-        <v>376.5024309712521</v>
+        <v>376.5024309712522</v>
       </c>
       <c r="M11" t="n">
         <v>418.9314987074814</v>
       </c>
       <c r="N11" t="n">
-        <v>425.7102483359659</v>
+        <v>425.710248335966</v>
       </c>
       <c r="O11" t="n">
-        <v>401.9861157822508</v>
+        <v>401.9861157822509</v>
       </c>
       <c r="P11" t="n">
         <v>343.0858495426692</v>
@@ -31794,7 +31794,7 @@
         <v>10.44398644916532</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1908666855358594</v>
+        <v>0.1908666855358595</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,7 +31837,7 @@
         <v>12.32862615985298</v>
       </c>
       <c r="I12" t="n">
-        <v>43.95082441182829</v>
+        <v>43.9508244118283</v>
       </c>
       <c r="J12" t="n">
         <v>120.604421484738</v>
@@ -31849,31 +31849,31 @@
         <v>277.1701353512815</v>
       </c>
       <c r="M12" t="n">
-        <v>323.4444746842445</v>
+        <v>323.4444746842446</v>
       </c>
       <c r="N12" t="n">
-        <v>332.0050874900644</v>
+        <v>332.0050874900645</v>
       </c>
       <c r="O12" t="n">
         <v>303.7197925947069</v>
       </c>
       <c r="P12" t="n">
-        <v>243.7619099671567</v>
+        <v>243.7619099671568</v>
       </c>
       <c r="Q12" t="n">
         <v>162.9483813607453</v>
       </c>
       <c r="R12" t="n">
-        <v>79.25705355080783</v>
+        <v>79.25705355080784</v>
       </c>
       <c r="S12" t="n">
-        <v>23.7110498578462</v>
+        <v>23.71104985784621</v>
       </c>
       <c r="T12" t="n">
-        <v>5.145325813308303</v>
+        <v>5.145325813308304</v>
       </c>
       <c r="U12" t="n">
-        <v>0.08398246702897129</v>
+        <v>0.0839824670289713</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,46 +31913,46 @@
         <v>1.070202803888311</v>
       </c>
       <c r="H13" t="n">
-        <v>9.515075838206991</v>
+        <v>9.515075838206993</v>
       </c>
       <c r="I13" t="n">
-        <v>32.18391704784122</v>
+        <v>32.18391704784123</v>
       </c>
       <c r="J13" t="n">
-        <v>75.66333823490359</v>
+        <v>75.66333823490361</v>
       </c>
       <c r="K13" t="n">
         <v>124.3381075790238</v>
       </c>
       <c r="L13" t="n">
-        <v>159.1099695889949</v>
+        <v>159.109969588995</v>
       </c>
       <c r="M13" t="n">
-        <v>167.7591540676922</v>
+        <v>167.7591540676923</v>
       </c>
       <c r="N13" t="n">
         <v>163.7702163441087</v>
       </c>
       <c r="O13" t="n">
-        <v>151.2683017714133</v>
+        <v>151.2683017714134</v>
       </c>
       <c r="P13" t="n">
         <v>129.4361645720917</v>
       </c>
       <c r="Q13" t="n">
-        <v>89.61489115104759</v>
+        <v>89.6148911510476</v>
       </c>
       <c r="R13" t="n">
-        <v>48.12020970937805</v>
+        <v>48.12020970937806</v>
       </c>
       <c r="S13" t="n">
         <v>18.65071613685356</v>
       </c>
       <c r="T13" t="n">
-        <v>4.572684707522782</v>
+        <v>4.572684707522783</v>
       </c>
       <c r="U13" t="n">
-        <v>0.05837469839390794</v>
+        <v>0.05837469839390796</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31992,10 +31992,10 @@
         <v>2.385833569198244</v>
       </c>
       <c r="H14" t="n">
-        <v>24.43391804055151</v>
+        <v>24.43391804055152</v>
       </c>
       <c r="I14" t="n">
-        <v>91.97984867651536</v>
+        <v>91.97984867651539</v>
       </c>
       <c r="J14" t="n">
         <v>202.4946418937396</v>
@@ -32004,16 +32004,16 @@
         <v>303.4869768779013</v>
       </c>
       <c r="L14" t="n">
-        <v>376.5024309712521</v>
+        <v>376.5024309712522</v>
       </c>
       <c r="M14" t="n">
         <v>418.9314987074814</v>
       </c>
       <c r="N14" t="n">
-        <v>425.7102483359659</v>
+        <v>425.710248335966</v>
       </c>
       <c r="O14" t="n">
-        <v>401.9861157822508</v>
+        <v>401.9861157822509</v>
       </c>
       <c r="P14" t="n">
         <v>343.0858495426692</v>
@@ -32031,7 +32031,7 @@
         <v>10.44398644916532</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1908666855358594</v>
+        <v>0.1908666855358595</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,7 +32074,7 @@
         <v>12.32862615985298</v>
       </c>
       <c r="I15" t="n">
-        <v>43.95082441182829</v>
+        <v>43.9508244118283</v>
       </c>
       <c r="J15" t="n">
         <v>120.604421484738</v>
@@ -32086,31 +32086,31 @@
         <v>277.1701353512815</v>
       </c>
       <c r="M15" t="n">
-        <v>323.4444746842445</v>
+        <v>323.4444746842446</v>
       </c>
       <c r="N15" t="n">
-        <v>332.0050874900644</v>
+        <v>332.0050874900645</v>
       </c>
       <c r="O15" t="n">
         <v>303.7197925947069</v>
       </c>
       <c r="P15" t="n">
-        <v>243.7619099671567</v>
+        <v>243.7619099671568</v>
       </c>
       <c r="Q15" t="n">
         <v>162.9483813607453</v>
       </c>
       <c r="R15" t="n">
-        <v>79.25705355080783</v>
+        <v>79.25705355080784</v>
       </c>
       <c r="S15" t="n">
-        <v>23.7110498578462</v>
+        <v>23.71104985784621</v>
       </c>
       <c r="T15" t="n">
-        <v>5.145325813308303</v>
+        <v>5.145325813308304</v>
       </c>
       <c r="U15" t="n">
-        <v>0.08398246702897129</v>
+        <v>0.0839824670289713</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,46 +32150,46 @@
         <v>1.070202803888311</v>
       </c>
       <c r="H16" t="n">
-        <v>9.515075838206991</v>
+        <v>9.515075838206993</v>
       </c>
       <c r="I16" t="n">
-        <v>32.18391704784122</v>
+        <v>32.18391704784123</v>
       </c>
       <c r="J16" t="n">
-        <v>75.66333823490359</v>
+        <v>75.66333823490361</v>
       </c>
       <c r="K16" t="n">
         <v>124.3381075790238</v>
       </c>
       <c r="L16" t="n">
-        <v>159.1099695889949</v>
+        <v>159.109969588995</v>
       </c>
       <c r="M16" t="n">
-        <v>167.7591540676922</v>
+        <v>167.7591540676923</v>
       </c>
       <c r="N16" t="n">
         <v>163.7702163441087</v>
       </c>
       <c r="O16" t="n">
-        <v>151.2683017714133</v>
+        <v>151.2683017714134</v>
       </c>
       <c r="P16" t="n">
         <v>129.4361645720917</v>
       </c>
       <c r="Q16" t="n">
-        <v>89.61489115104759</v>
+        <v>89.6148911510476</v>
       </c>
       <c r="R16" t="n">
-        <v>48.12020970937805</v>
+        <v>48.12020970937806</v>
       </c>
       <c r="S16" t="n">
         <v>18.65071613685356</v>
       </c>
       <c r="T16" t="n">
-        <v>4.572684707522782</v>
+        <v>4.572684707522783</v>
       </c>
       <c r="U16" t="n">
-        <v>0.05837469839390794</v>
+        <v>0.05837469839390796</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32229,10 +32229,10 @@
         <v>2.385833569198244</v>
       </c>
       <c r="H17" t="n">
-        <v>24.43391804055151</v>
+        <v>24.43391804055152</v>
       </c>
       <c r="I17" t="n">
-        <v>91.97984867651536</v>
+        <v>91.97984867651539</v>
       </c>
       <c r="J17" t="n">
         <v>202.4946418937396</v>
@@ -32241,16 +32241,16 @@
         <v>303.4869768779013</v>
       </c>
       <c r="L17" t="n">
-        <v>376.5024309712521</v>
+        <v>376.5024309712522</v>
       </c>
       <c r="M17" t="n">
         <v>418.9314987074814</v>
       </c>
       <c r="N17" t="n">
-        <v>425.7102483359659</v>
+        <v>425.710248335966</v>
       </c>
       <c r="O17" t="n">
-        <v>401.9861157822508</v>
+        <v>401.9861157822509</v>
       </c>
       <c r="P17" t="n">
         <v>343.0858495426692</v>
@@ -32268,7 +32268,7 @@
         <v>10.44398644916532</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1908666855358594</v>
+        <v>0.1908666855358595</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32311,7 +32311,7 @@
         <v>12.32862615985298</v>
       </c>
       <c r="I18" t="n">
-        <v>43.95082441182829</v>
+        <v>43.9508244118283</v>
       </c>
       <c r="J18" t="n">
         <v>120.604421484738</v>
@@ -32323,31 +32323,31 @@
         <v>277.1701353512815</v>
       </c>
       <c r="M18" t="n">
-        <v>323.4444746842445</v>
+        <v>323.4444746842446</v>
       </c>
       <c r="N18" t="n">
-        <v>332.0050874900644</v>
+        <v>332.0050874900645</v>
       </c>
       <c r="O18" t="n">
         <v>303.7197925947069</v>
       </c>
       <c r="P18" t="n">
-        <v>243.7619099671567</v>
+        <v>243.7619099671568</v>
       </c>
       <c r="Q18" t="n">
         <v>162.9483813607453</v>
       </c>
       <c r="R18" t="n">
-        <v>79.25705355080783</v>
+        <v>79.25705355080784</v>
       </c>
       <c r="S18" t="n">
-        <v>23.7110498578462</v>
+        <v>23.71104985784621</v>
       </c>
       <c r="T18" t="n">
-        <v>5.145325813308303</v>
+        <v>5.145325813308304</v>
       </c>
       <c r="U18" t="n">
-        <v>0.08398246702897129</v>
+        <v>0.0839824670289713</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,46 +32387,46 @@
         <v>1.070202803888311</v>
       </c>
       <c r="H19" t="n">
-        <v>9.515075838206991</v>
+        <v>9.515075838206993</v>
       </c>
       <c r="I19" t="n">
-        <v>32.18391704784122</v>
+        <v>32.18391704784123</v>
       </c>
       <c r="J19" t="n">
-        <v>75.66333823490359</v>
+        <v>75.66333823490361</v>
       </c>
       <c r="K19" t="n">
         <v>124.3381075790238</v>
       </c>
       <c r="L19" t="n">
-        <v>159.1099695889949</v>
+        <v>159.109969588995</v>
       </c>
       <c r="M19" t="n">
-        <v>167.7591540676922</v>
+        <v>167.7591540676923</v>
       </c>
       <c r="N19" t="n">
         <v>163.7702163441087</v>
       </c>
       <c r="O19" t="n">
-        <v>151.2683017714133</v>
+        <v>151.2683017714134</v>
       </c>
       <c r="P19" t="n">
         <v>129.4361645720917</v>
       </c>
       <c r="Q19" t="n">
-        <v>89.61489115104759</v>
+        <v>89.6148911510476</v>
       </c>
       <c r="R19" t="n">
-        <v>48.12020970937805</v>
+        <v>48.12020970937806</v>
       </c>
       <c r="S19" t="n">
         <v>18.65071613685356</v>
       </c>
       <c r="T19" t="n">
-        <v>4.572684707522782</v>
+        <v>4.572684707522783</v>
       </c>
       <c r="U19" t="n">
-        <v>0.05837469839390794</v>
+        <v>0.05837469839390796</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32466,10 +32466,10 @@
         <v>2.385833569198244</v>
       </c>
       <c r="H20" t="n">
-        <v>24.43391804055151</v>
+        <v>24.43391804055152</v>
       </c>
       <c r="I20" t="n">
-        <v>91.97984867651536</v>
+        <v>91.97984867651539</v>
       </c>
       <c r="J20" t="n">
         <v>202.4946418937396</v>
@@ -32478,16 +32478,16 @@
         <v>303.4869768779013</v>
       </c>
       <c r="L20" t="n">
-        <v>376.5024309712521</v>
+        <v>376.5024309712522</v>
       </c>
       <c r="M20" t="n">
         <v>418.9314987074814</v>
       </c>
       <c r="N20" t="n">
-        <v>425.7102483359659</v>
+        <v>425.710248335966</v>
       </c>
       <c r="O20" t="n">
-        <v>401.9861157822508</v>
+        <v>401.9861157822509</v>
       </c>
       <c r="P20" t="n">
         <v>343.0858495426692</v>
@@ -32505,7 +32505,7 @@
         <v>10.44398644916532</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1908666855358594</v>
+        <v>0.1908666855358595</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32548,7 +32548,7 @@
         <v>12.32862615985298</v>
       </c>
       <c r="I21" t="n">
-        <v>43.95082441182829</v>
+        <v>43.9508244118283</v>
       </c>
       <c r="J21" t="n">
         <v>120.604421484738</v>
@@ -32560,31 +32560,31 @@
         <v>277.1701353512815</v>
       </c>
       <c r="M21" t="n">
-        <v>323.4444746842445</v>
+        <v>323.4444746842446</v>
       </c>
       <c r="N21" t="n">
-        <v>332.0050874900644</v>
+        <v>332.0050874900645</v>
       </c>
       <c r="O21" t="n">
         <v>303.7197925947069</v>
       </c>
       <c r="P21" t="n">
-        <v>243.7619099671567</v>
+        <v>243.7619099671568</v>
       </c>
       <c r="Q21" t="n">
         <v>162.9483813607453</v>
       </c>
       <c r="R21" t="n">
-        <v>79.25705355080783</v>
+        <v>79.25705355080784</v>
       </c>
       <c r="S21" t="n">
-        <v>23.7110498578462</v>
+        <v>23.71104985784621</v>
       </c>
       <c r="T21" t="n">
-        <v>5.145325813308303</v>
+        <v>5.145325813308304</v>
       </c>
       <c r="U21" t="n">
-        <v>0.08398246702897129</v>
+        <v>0.0839824670289713</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,46 +32624,46 @@
         <v>1.070202803888311</v>
       </c>
       <c r="H22" t="n">
-        <v>9.515075838206991</v>
+        <v>9.515075838206993</v>
       </c>
       <c r="I22" t="n">
-        <v>32.18391704784122</v>
+        <v>32.18391704784123</v>
       </c>
       <c r="J22" t="n">
-        <v>75.66333823490359</v>
+        <v>75.66333823490361</v>
       </c>
       <c r="K22" t="n">
         <v>124.3381075790238</v>
       </c>
       <c r="L22" t="n">
-        <v>159.1099695889949</v>
+        <v>159.109969588995</v>
       </c>
       <c r="M22" t="n">
-        <v>167.7591540676922</v>
+        <v>167.7591540676923</v>
       </c>
       <c r="N22" t="n">
         <v>163.7702163441087</v>
       </c>
       <c r="O22" t="n">
-        <v>151.2683017714133</v>
+        <v>151.2683017714134</v>
       </c>
       <c r="P22" t="n">
         <v>129.4361645720917</v>
       </c>
       <c r="Q22" t="n">
-        <v>89.61489115104759</v>
+        <v>89.6148911510476</v>
       </c>
       <c r="R22" t="n">
-        <v>48.12020970937805</v>
+        <v>48.12020970937806</v>
       </c>
       <c r="S22" t="n">
         <v>18.65071613685356</v>
       </c>
       <c r="T22" t="n">
-        <v>4.572684707522782</v>
+        <v>4.572684707522783</v>
       </c>
       <c r="U22" t="n">
-        <v>0.05837469839390794</v>
+        <v>0.05837469839390796</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,40 +32700,40 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>2.882907887836291</v>
+        <v>2.88290788783629</v>
       </c>
       <c r="H23" t="n">
-        <v>29.52458040630342</v>
+        <v>29.52458040630341</v>
       </c>
       <c r="I23" t="n">
         <v>111.1433063458087</v>
       </c>
       <c r="J23" t="n">
-        <v>244.6832033452456</v>
+        <v>244.6832033452455</v>
       </c>
       <c r="K23" t="n">
-        <v>366.7166942373559</v>
+        <v>366.7166942373558</v>
       </c>
       <c r="L23" t="n">
-        <v>454.9444865097258</v>
+        <v>454.9444865097257</v>
       </c>
       <c r="M23" t="n">
-        <v>506.2133996600344</v>
+        <v>506.2133996600343</v>
       </c>
       <c r="N23" t="n">
-        <v>514.4044616963494</v>
+        <v>514.4044616963492</v>
       </c>
       <c r="O23" t="n">
-        <v>485.7375463866772</v>
+        <v>485.7375463866771</v>
       </c>
       <c r="P23" t="n">
-        <v>414.5657579057187</v>
+        <v>414.5657579057186</v>
       </c>
       <c r="Q23" t="n">
         <v>311.3216191725814</v>
       </c>
       <c r="R23" t="n">
-        <v>181.0934626092966</v>
+        <v>181.0934626092965</v>
       </c>
       <c r="S23" t="n">
         <v>65.69426349406953</v>
@@ -32788,19 +32788,19 @@
         <v>53.10771883235218</v>
       </c>
       <c r="J24" t="n">
-        <v>145.731639664675</v>
+        <v>145.7316396646749</v>
       </c>
       <c r="K24" t="n">
         <v>249.0785839809822</v>
       </c>
       <c r="L24" t="n">
-        <v>334.9168943688656</v>
+        <v>334.9168943688655</v>
       </c>
       <c r="M24" t="n">
-        <v>390.8322187191064</v>
+        <v>390.8322187191063</v>
       </c>
       <c r="N24" t="n">
-        <v>401.1763845910385</v>
+        <v>401.1763845910384</v>
       </c>
       <c r="O24" t="n">
         <v>366.9980157323068</v>
@@ -32809,16 +32809,16 @@
         <v>294.548262741777</v>
       </c>
       <c r="Q24" t="n">
-        <v>196.8977132352584</v>
+        <v>196.8977132352583</v>
       </c>
       <c r="R24" t="n">
-        <v>95.76979207525831</v>
+        <v>95.76979207525829</v>
       </c>
       <c r="S24" t="n">
         <v>28.65110691146641</v>
       </c>
       <c r="T24" t="n">
-        <v>6.217324026360718</v>
+        <v>6.217324026360717</v>
       </c>
       <c r="U24" t="n">
         <v>0.1014797175140488</v>
@@ -32867,22 +32867,22 @@
         <v>38.88924588728543</v>
       </c>
       <c r="J25" t="n">
-        <v>91.42734742001775</v>
+        <v>91.42734742001774</v>
       </c>
       <c r="K25" t="n">
         <v>150.2432171824388</v>
       </c>
       <c r="L25" t="n">
-        <v>192.2595910642884</v>
+        <v>192.2595910642883</v>
       </c>
       <c r="M25" t="n">
-        <v>202.7107819934893</v>
+        <v>202.7107819934892</v>
       </c>
       <c r="N25" t="n">
         <v>197.8907726785598</v>
       </c>
       <c r="O25" t="n">
-        <v>182.7841581183537</v>
+        <v>182.7841581183536</v>
       </c>
       <c r="P25" t="n">
         <v>156.4034242093244</v>
@@ -32891,16 +32891,16 @@
         <v>108.2856239019909</v>
       </c>
       <c r="R25" t="n">
-        <v>58.14577090644306</v>
+        <v>58.14577090644305</v>
       </c>
       <c r="S25" t="n">
         <v>22.53648257736582</v>
       </c>
       <c r="T25" t="n">
-        <v>5.525376531748532</v>
+        <v>5.525376531748531</v>
       </c>
       <c r="U25" t="n">
-        <v>0.07053672168189626</v>
+        <v>0.07053672168189624</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,40 +32937,40 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>2.882907887836291</v>
+        <v>2.88290788783629</v>
       </c>
       <c r="H26" t="n">
-        <v>29.52458040630342</v>
+        <v>29.52458040630341</v>
       </c>
       <c r="I26" t="n">
         <v>111.1433063458087</v>
       </c>
       <c r="J26" t="n">
-        <v>244.6832033452456</v>
+        <v>244.6832033452455</v>
       </c>
       <c r="K26" t="n">
-        <v>366.7166942373559</v>
+        <v>366.7166942373558</v>
       </c>
       <c r="L26" t="n">
-        <v>454.9444865097258</v>
+        <v>454.9444865097257</v>
       </c>
       <c r="M26" t="n">
-        <v>506.2133996600344</v>
+        <v>506.2133996600343</v>
       </c>
       <c r="N26" t="n">
-        <v>514.4044616963494</v>
+        <v>514.4044616963492</v>
       </c>
       <c r="O26" t="n">
-        <v>485.7375463866772</v>
+        <v>485.7375463866771</v>
       </c>
       <c r="P26" t="n">
-        <v>414.5657579057187</v>
+        <v>414.5657579057186</v>
       </c>
       <c r="Q26" t="n">
         <v>311.3216191725814</v>
       </c>
       <c r="R26" t="n">
-        <v>181.0934626092966</v>
+        <v>181.0934626092965</v>
       </c>
       <c r="S26" t="n">
         <v>65.69426349406953</v>
@@ -33025,19 +33025,19 @@
         <v>53.10771883235218</v>
       </c>
       <c r="J27" t="n">
-        <v>145.731639664675</v>
+        <v>145.7316396646749</v>
       </c>
       <c r="K27" t="n">
         <v>249.0785839809822</v>
       </c>
       <c r="L27" t="n">
-        <v>334.9168943688656</v>
+        <v>334.9168943688655</v>
       </c>
       <c r="M27" t="n">
-        <v>390.8322187191064</v>
+        <v>390.8322187191063</v>
       </c>
       <c r="N27" t="n">
-        <v>401.1763845910385</v>
+        <v>401.1763845910384</v>
       </c>
       <c r="O27" t="n">
         <v>366.9980157323068</v>
@@ -33046,16 +33046,16 @@
         <v>294.548262741777</v>
       </c>
       <c r="Q27" t="n">
-        <v>196.8977132352584</v>
+        <v>196.8977132352583</v>
       </c>
       <c r="R27" t="n">
-        <v>95.76979207525831</v>
+        <v>95.76979207525829</v>
       </c>
       <c r="S27" t="n">
         <v>28.65110691146641</v>
       </c>
       <c r="T27" t="n">
-        <v>6.217324026360718</v>
+        <v>6.217324026360717</v>
       </c>
       <c r="U27" t="n">
         <v>0.1014797175140488</v>
@@ -33104,22 +33104,22 @@
         <v>38.88924588728543</v>
       </c>
       <c r="J28" t="n">
-        <v>91.42734742001775</v>
+        <v>91.42734742001774</v>
       </c>
       <c r="K28" t="n">
         <v>150.2432171824388</v>
       </c>
       <c r="L28" t="n">
-        <v>192.2595910642884</v>
+        <v>192.2595910642883</v>
       </c>
       <c r="M28" t="n">
-        <v>202.7107819934893</v>
+        <v>202.7107819934892</v>
       </c>
       <c r="N28" t="n">
         <v>197.8907726785598</v>
       </c>
       <c r="O28" t="n">
-        <v>182.7841581183537</v>
+        <v>182.7841581183536</v>
       </c>
       <c r="P28" t="n">
         <v>156.4034242093244</v>
@@ -33128,16 +33128,16 @@
         <v>108.2856239019909</v>
       </c>
       <c r="R28" t="n">
-        <v>58.14577090644306</v>
+        <v>58.14577090644305</v>
       </c>
       <c r="S28" t="n">
         <v>22.53648257736582</v>
       </c>
       <c r="T28" t="n">
-        <v>5.525376531748532</v>
+        <v>5.525376531748531</v>
       </c>
       <c r="U28" t="n">
-        <v>0.07053672168189626</v>
+        <v>0.07053672168189624</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,40 +33174,40 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>2.882907887836291</v>
+        <v>2.88290788783629</v>
       </c>
       <c r="H29" t="n">
-        <v>29.52458040630342</v>
+        <v>29.52458040630341</v>
       </c>
       <c r="I29" t="n">
         <v>111.1433063458087</v>
       </c>
       <c r="J29" t="n">
-        <v>244.6832033452456</v>
+        <v>244.6832033452455</v>
       </c>
       <c r="K29" t="n">
-        <v>366.7166942373559</v>
+        <v>366.7166942373558</v>
       </c>
       <c r="L29" t="n">
-        <v>454.9444865097258</v>
+        <v>454.9444865097257</v>
       </c>
       <c r="M29" t="n">
-        <v>506.2133996600344</v>
+        <v>506.2133996600343</v>
       </c>
       <c r="N29" t="n">
-        <v>514.4044616963494</v>
+        <v>514.4044616963492</v>
       </c>
       <c r="O29" t="n">
-        <v>485.7375463866772</v>
+        <v>485.7375463866771</v>
       </c>
       <c r="P29" t="n">
-        <v>414.5657579057187</v>
+        <v>414.5657579057186</v>
       </c>
       <c r="Q29" t="n">
         <v>311.3216191725814</v>
       </c>
       <c r="R29" t="n">
-        <v>181.0934626092966</v>
+        <v>181.0934626092965</v>
       </c>
       <c r="S29" t="n">
         <v>65.69426349406953</v>
@@ -33262,19 +33262,19 @@
         <v>53.10771883235218</v>
       </c>
       <c r="J30" t="n">
-        <v>145.731639664675</v>
+        <v>145.7316396646749</v>
       </c>
       <c r="K30" t="n">
         <v>249.0785839809822</v>
       </c>
       <c r="L30" t="n">
-        <v>334.9168943688656</v>
+        <v>334.9168943688655</v>
       </c>
       <c r="M30" t="n">
-        <v>390.8322187191064</v>
+        <v>390.8322187191063</v>
       </c>
       <c r="N30" t="n">
-        <v>401.1763845910385</v>
+        <v>401.1763845910384</v>
       </c>
       <c r="O30" t="n">
         <v>366.9980157323068</v>
@@ -33283,16 +33283,16 @@
         <v>294.548262741777</v>
       </c>
       <c r="Q30" t="n">
-        <v>196.8977132352584</v>
+        <v>196.8977132352583</v>
       </c>
       <c r="R30" t="n">
-        <v>95.76979207525831</v>
+        <v>95.76979207525829</v>
       </c>
       <c r="S30" t="n">
         <v>28.65110691146641</v>
       </c>
       <c r="T30" t="n">
-        <v>6.217324026360718</v>
+        <v>6.217324026360717</v>
       </c>
       <c r="U30" t="n">
         <v>0.1014797175140488</v>
@@ -33341,22 +33341,22 @@
         <v>38.88924588728543</v>
       </c>
       <c r="J31" t="n">
-        <v>91.42734742001775</v>
+        <v>91.42734742001774</v>
       </c>
       <c r="K31" t="n">
         <v>150.2432171824388</v>
       </c>
       <c r="L31" t="n">
-        <v>192.2595910642884</v>
+        <v>192.2595910642883</v>
       </c>
       <c r="M31" t="n">
-        <v>202.7107819934893</v>
+        <v>202.7107819934892</v>
       </c>
       <c r="N31" t="n">
         <v>197.8907726785598</v>
       </c>
       <c r="O31" t="n">
-        <v>182.7841581183537</v>
+        <v>182.7841581183536</v>
       </c>
       <c r="P31" t="n">
         <v>156.4034242093244</v>
@@ -33365,16 +33365,16 @@
         <v>108.2856239019909</v>
       </c>
       <c r="R31" t="n">
-        <v>58.14577090644306</v>
+        <v>58.14577090644305</v>
       </c>
       <c r="S31" t="n">
         <v>22.53648257736582</v>
       </c>
       <c r="T31" t="n">
-        <v>5.525376531748532</v>
+        <v>5.525376531748531</v>
       </c>
       <c r="U31" t="n">
-        <v>0.07053672168189626</v>
+        <v>0.07053672168189624</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,40 +33411,40 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>2.882907887836291</v>
+        <v>2.88290788783629</v>
       </c>
       <c r="H32" t="n">
-        <v>29.52458040630342</v>
+        <v>29.52458040630341</v>
       </c>
       <c r="I32" t="n">
         <v>111.1433063458087</v>
       </c>
       <c r="J32" t="n">
-        <v>244.6832033452456</v>
+        <v>244.6832033452455</v>
       </c>
       <c r="K32" t="n">
-        <v>366.7166942373559</v>
+        <v>366.7166942373558</v>
       </c>
       <c r="L32" t="n">
-        <v>454.9444865097258</v>
+        <v>454.9444865097257</v>
       </c>
       <c r="M32" t="n">
-        <v>506.2133996600344</v>
+        <v>506.2133996600343</v>
       </c>
       <c r="N32" t="n">
-        <v>514.4044616963494</v>
+        <v>514.4044616963492</v>
       </c>
       <c r="O32" t="n">
-        <v>485.7375463866772</v>
+        <v>485.7375463866771</v>
       </c>
       <c r="P32" t="n">
-        <v>414.5657579057187</v>
+        <v>414.5657579057186</v>
       </c>
       <c r="Q32" t="n">
         <v>311.3216191725814</v>
       </c>
       <c r="R32" t="n">
-        <v>181.0934626092966</v>
+        <v>181.0934626092965</v>
       </c>
       <c r="S32" t="n">
         <v>65.69426349406953</v>
@@ -33499,19 +33499,19 @@
         <v>53.10771883235218</v>
       </c>
       <c r="J33" t="n">
-        <v>145.731639664675</v>
+        <v>145.7316396646749</v>
       </c>
       <c r="K33" t="n">
         <v>249.0785839809822</v>
       </c>
       <c r="L33" t="n">
-        <v>334.9168943688656</v>
+        <v>334.9168943688655</v>
       </c>
       <c r="M33" t="n">
-        <v>390.8322187191064</v>
+        <v>390.8322187191063</v>
       </c>
       <c r="N33" t="n">
-        <v>401.1763845910385</v>
+        <v>401.1763845910384</v>
       </c>
       <c r="O33" t="n">
         <v>366.9980157323068</v>
@@ -33520,16 +33520,16 @@
         <v>294.548262741777</v>
       </c>
       <c r="Q33" t="n">
-        <v>196.8977132352584</v>
+        <v>196.8977132352583</v>
       </c>
       <c r="R33" t="n">
-        <v>95.76979207525831</v>
+        <v>95.76979207525829</v>
       </c>
       <c r="S33" t="n">
         <v>28.65110691146641</v>
       </c>
       <c r="T33" t="n">
-        <v>6.217324026360718</v>
+        <v>6.217324026360717</v>
       </c>
       <c r="U33" t="n">
         <v>0.1014797175140488</v>
@@ -33578,22 +33578,22 @@
         <v>38.88924588728543</v>
       </c>
       <c r="J34" t="n">
-        <v>91.42734742001775</v>
+        <v>91.42734742001774</v>
       </c>
       <c r="K34" t="n">
         <v>150.2432171824388</v>
       </c>
       <c r="L34" t="n">
-        <v>192.2595910642884</v>
+        <v>192.2595910642883</v>
       </c>
       <c r="M34" t="n">
-        <v>202.7107819934893</v>
+        <v>202.7107819934892</v>
       </c>
       <c r="N34" t="n">
         <v>197.8907726785598</v>
       </c>
       <c r="O34" t="n">
-        <v>182.7841581183537</v>
+        <v>182.7841581183536</v>
       </c>
       <c r="P34" t="n">
         <v>156.4034242093244</v>
@@ -33602,16 +33602,16 @@
         <v>108.2856239019909</v>
       </c>
       <c r="R34" t="n">
-        <v>58.14577090644306</v>
+        <v>58.14577090644305</v>
       </c>
       <c r="S34" t="n">
         <v>22.53648257736582</v>
       </c>
       <c r="T34" t="n">
-        <v>5.525376531748532</v>
+        <v>5.525376531748531</v>
       </c>
       <c r="U34" t="n">
-        <v>0.07053672168189626</v>
+        <v>0.07053672168189624</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,40 +33648,40 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>2.882907887836291</v>
+        <v>2.88290788783629</v>
       </c>
       <c r="H35" t="n">
-        <v>29.52458040630342</v>
+        <v>29.52458040630341</v>
       </c>
       <c r="I35" t="n">
         <v>111.1433063458087</v>
       </c>
       <c r="J35" t="n">
-        <v>244.6832033452456</v>
+        <v>244.6832033452455</v>
       </c>
       <c r="K35" t="n">
-        <v>366.7166942373559</v>
+        <v>366.7166942373558</v>
       </c>
       <c r="L35" t="n">
-        <v>454.9444865097258</v>
+        <v>454.9444865097257</v>
       </c>
       <c r="M35" t="n">
-        <v>506.2133996600344</v>
+        <v>506.2133996600343</v>
       </c>
       <c r="N35" t="n">
-        <v>514.4044616963494</v>
+        <v>514.4044616963492</v>
       </c>
       <c r="O35" t="n">
-        <v>485.7375463866772</v>
+        <v>485.7375463866771</v>
       </c>
       <c r="P35" t="n">
-        <v>414.5657579057187</v>
+        <v>414.5657579057186</v>
       </c>
       <c r="Q35" t="n">
         <v>311.3216191725814</v>
       </c>
       <c r="R35" t="n">
-        <v>181.0934626092966</v>
+        <v>181.0934626092965</v>
       </c>
       <c r="S35" t="n">
         <v>65.69426349406953</v>
@@ -33736,19 +33736,19 @@
         <v>53.10771883235218</v>
       </c>
       <c r="J36" t="n">
-        <v>145.731639664675</v>
+        <v>145.7316396646749</v>
       </c>
       <c r="K36" t="n">
         <v>249.0785839809822</v>
       </c>
       <c r="L36" t="n">
-        <v>334.9168943688656</v>
+        <v>334.9168943688655</v>
       </c>
       <c r="M36" t="n">
-        <v>390.8322187191064</v>
+        <v>390.8322187191063</v>
       </c>
       <c r="N36" t="n">
-        <v>401.1763845910385</v>
+        <v>401.1763845910384</v>
       </c>
       <c r="O36" t="n">
         <v>366.9980157323068</v>
@@ -33757,16 +33757,16 @@
         <v>294.548262741777</v>
       </c>
       <c r="Q36" t="n">
-        <v>196.8977132352584</v>
+        <v>196.8977132352583</v>
       </c>
       <c r="R36" t="n">
-        <v>95.76979207525831</v>
+        <v>95.76979207525829</v>
       </c>
       <c r="S36" t="n">
         <v>28.65110691146641</v>
       </c>
       <c r="T36" t="n">
-        <v>6.217324026360718</v>
+        <v>6.217324026360717</v>
       </c>
       <c r="U36" t="n">
         <v>0.1014797175140488</v>
@@ -33815,22 +33815,22 @@
         <v>38.88924588728543</v>
       </c>
       <c r="J37" t="n">
-        <v>91.42734742001775</v>
+        <v>91.42734742001774</v>
       </c>
       <c r="K37" t="n">
         <v>150.2432171824388</v>
       </c>
       <c r="L37" t="n">
-        <v>192.2595910642884</v>
+        <v>192.2595910642883</v>
       </c>
       <c r="M37" t="n">
-        <v>202.7107819934893</v>
+        <v>202.7107819934892</v>
       </c>
       <c r="N37" t="n">
         <v>197.8907726785598</v>
       </c>
       <c r="O37" t="n">
-        <v>182.7841581183537</v>
+        <v>182.7841581183536</v>
       </c>
       <c r="P37" t="n">
         <v>156.4034242093244</v>
@@ -33839,16 +33839,16 @@
         <v>108.2856239019909</v>
       </c>
       <c r="R37" t="n">
-        <v>58.14577090644306</v>
+        <v>58.14577090644305</v>
       </c>
       <c r="S37" t="n">
         <v>22.53648257736582</v>
       </c>
       <c r="T37" t="n">
-        <v>5.525376531748532</v>
+        <v>5.525376531748531</v>
       </c>
       <c r="U37" t="n">
-        <v>0.07053672168189626</v>
+        <v>0.07053672168189624</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,40 +33885,40 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>2.882907887836291</v>
+        <v>2.88290788783629</v>
       </c>
       <c r="H38" t="n">
-        <v>29.52458040630342</v>
+        <v>29.52458040630341</v>
       </c>
       <c r="I38" t="n">
         <v>111.1433063458087</v>
       </c>
       <c r="J38" t="n">
-        <v>244.6832033452456</v>
+        <v>244.6832033452455</v>
       </c>
       <c r="K38" t="n">
-        <v>366.7166942373559</v>
+        <v>366.7166942373558</v>
       </c>
       <c r="L38" t="n">
-        <v>454.9444865097258</v>
+        <v>454.9444865097257</v>
       </c>
       <c r="M38" t="n">
-        <v>506.2133996600344</v>
+        <v>506.2133996600343</v>
       </c>
       <c r="N38" t="n">
-        <v>514.4044616963494</v>
+        <v>514.4044616963492</v>
       </c>
       <c r="O38" t="n">
-        <v>485.7375463866772</v>
+        <v>485.7375463866771</v>
       </c>
       <c r="P38" t="n">
-        <v>414.5657579057187</v>
+        <v>414.5657579057186</v>
       </c>
       <c r="Q38" t="n">
         <v>311.3216191725814</v>
       </c>
       <c r="R38" t="n">
-        <v>181.0934626092966</v>
+        <v>181.0934626092965</v>
       </c>
       <c r="S38" t="n">
         <v>65.69426349406953</v>
@@ -33973,19 +33973,19 @@
         <v>53.10771883235218</v>
       </c>
       <c r="J39" t="n">
-        <v>145.731639664675</v>
+        <v>145.7316396646749</v>
       </c>
       <c r="K39" t="n">
         <v>249.0785839809822</v>
       </c>
       <c r="L39" t="n">
-        <v>334.9168943688656</v>
+        <v>334.9168943688655</v>
       </c>
       <c r="M39" t="n">
-        <v>390.8322187191064</v>
+        <v>390.8322187191063</v>
       </c>
       <c r="N39" t="n">
-        <v>401.1763845910385</v>
+        <v>401.1763845910384</v>
       </c>
       <c r="O39" t="n">
         <v>366.9980157323068</v>
@@ -33994,16 +33994,16 @@
         <v>294.548262741777</v>
       </c>
       <c r="Q39" t="n">
-        <v>196.8977132352584</v>
+        <v>196.8977132352583</v>
       </c>
       <c r="R39" t="n">
-        <v>95.76979207525831</v>
+        <v>95.76979207525829</v>
       </c>
       <c r="S39" t="n">
         <v>28.65110691146641</v>
       </c>
       <c r="T39" t="n">
-        <v>6.217324026360718</v>
+        <v>6.217324026360717</v>
       </c>
       <c r="U39" t="n">
         <v>0.1014797175140488</v>
@@ -34052,22 +34052,22 @@
         <v>38.88924588728543</v>
       </c>
       <c r="J40" t="n">
-        <v>91.42734742001775</v>
+        <v>91.42734742001774</v>
       </c>
       <c r="K40" t="n">
         <v>150.2432171824388</v>
       </c>
       <c r="L40" t="n">
-        <v>192.2595910642884</v>
+        <v>192.2595910642883</v>
       </c>
       <c r="M40" t="n">
-        <v>202.7107819934893</v>
+        <v>202.7107819934892</v>
       </c>
       <c r="N40" t="n">
         <v>197.8907726785598</v>
       </c>
       <c r="O40" t="n">
-        <v>182.7841581183537</v>
+        <v>182.7841581183536</v>
       </c>
       <c r="P40" t="n">
         <v>156.4034242093244</v>
@@ -34076,16 +34076,16 @@
         <v>108.2856239019909</v>
       </c>
       <c r="R40" t="n">
-        <v>58.14577090644306</v>
+        <v>58.14577090644305</v>
       </c>
       <c r="S40" t="n">
         <v>22.53648257736582</v>
       </c>
       <c r="T40" t="n">
-        <v>5.525376531748532</v>
+        <v>5.525376531748531</v>
       </c>
       <c r="U40" t="n">
-        <v>0.07053672168189626</v>
+        <v>0.07053672168189624</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,40 +34122,40 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>2.882907887836291</v>
+        <v>2.88290788783629</v>
       </c>
       <c r="H41" t="n">
-        <v>29.52458040630342</v>
+        <v>29.52458040630341</v>
       </c>
       <c r="I41" t="n">
         <v>111.1433063458087</v>
       </c>
       <c r="J41" t="n">
-        <v>244.6832033452456</v>
+        <v>244.6832033452455</v>
       </c>
       <c r="K41" t="n">
-        <v>366.7166942373559</v>
+        <v>366.7166942373558</v>
       </c>
       <c r="L41" t="n">
-        <v>454.9444865097258</v>
+        <v>454.9444865097257</v>
       </c>
       <c r="M41" t="n">
-        <v>506.2133996600344</v>
+        <v>506.2133996600343</v>
       </c>
       <c r="N41" t="n">
-        <v>514.4044616963494</v>
+        <v>514.4044616963492</v>
       </c>
       <c r="O41" t="n">
-        <v>485.7375463866772</v>
+        <v>485.7375463866771</v>
       </c>
       <c r="P41" t="n">
-        <v>414.5657579057187</v>
+        <v>414.5657579057186</v>
       </c>
       <c r="Q41" t="n">
         <v>311.3216191725814</v>
       </c>
       <c r="R41" t="n">
-        <v>181.0934626092966</v>
+        <v>181.0934626092965</v>
       </c>
       <c r="S41" t="n">
         <v>65.69426349406953</v>
@@ -34210,19 +34210,19 @@
         <v>53.10771883235218</v>
       </c>
       <c r="J42" t="n">
-        <v>145.731639664675</v>
+        <v>145.7316396646749</v>
       </c>
       <c r="K42" t="n">
         <v>249.0785839809822</v>
       </c>
       <c r="L42" t="n">
-        <v>334.9168943688656</v>
+        <v>334.9168943688655</v>
       </c>
       <c r="M42" t="n">
-        <v>390.8322187191064</v>
+        <v>390.8322187191063</v>
       </c>
       <c r="N42" t="n">
-        <v>401.1763845910385</v>
+        <v>401.1763845910384</v>
       </c>
       <c r="O42" t="n">
         <v>366.9980157323068</v>
@@ -34231,16 +34231,16 @@
         <v>294.548262741777</v>
       </c>
       <c r="Q42" t="n">
-        <v>196.8977132352584</v>
+        <v>196.8977132352583</v>
       </c>
       <c r="R42" t="n">
-        <v>95.76979207525831</v>
+        <v>95.76979207525829</v>
       </c>
       <c r="S42" t="n">
         <v>28.65110691146641</v>
       </c>
       <c r="T42" t="n">
-        <v>6.217324026360718</v>
+        <v>6.217324026360717</v>
       </c>
       <c r="U42" t="n">
         <v>0.1014797175140488</v>
@@ -34289,22 +34289,22 @@
         <v>38.88924588728543</v>
       </c>
       <c r="J43" t="n">
-        <v>91.42734742001775</v>
+        <v>91.42734742001774</v>
       </c>
       <c r="K43" t="n">
         <v>150.2432171824388</v>
       </c>
       <c r="L43" t="n">
-        <v>192.2595910642884</v>
+        <v>192.2595910642883</v>
       </c>
       <c r="M43" t="n">
-        <v>202.7107819934893</v>
+        <v>202.7107819934892</v>
       </c>
       <c r="N43" t="n">
         <v>197.8907726785598</v>
       </c>
       <c r="O43" t="n">
-        <v>182.7841581183537</v>
+        <v>182.7841581183536</v>
       </c>
       <c r="P43" t="n">
         <v>156.4034242093244</v>
@@ -34313,16 +34313,16 @@
         <v>108.2856239019909</v>
       </c>
       <c r="R43" t="n">
-        <v>58.14577090644306</v>
+        <v>58.14577090644305</v>
       </c>
       <c r="S43" t="n">
         <v>22.53648257736582</v>
       </c>
       <c r="T43" t="n">
-        <v>5.525376531748532</v>
+        <v>5.525376531748531</v>
       </c>
       <c r="U43" t="n">
-        <v>0.07053672168189626</v>
+        <v>0.07053672168189624</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,40 +34359,40 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2.882907887836291</v>
+        <v>2.88290788783629</v>
       </c>
       <c r="H44" t="n">
-        <v>29.52458040630342</v>
+        <v>29.52458040630341</v>
       </c>
       <c r="I44" t="n">
         <v>111.1433063458087</v>
       </c>
       <c r="J44" t="n">
-        <v>244.6832033452456</v>
+        <v>244.6832033452455</v>
       </c>
       <c r="K44" t="n">
-        <v>366.7166942373559</v>
+        <v>366.7166942373558</v>
       </c>
       <c r="L44" t="n">
-        <v>454.9444865097258</v>
+        <v>454.9444865097257</v>
       </c>
       <c r="M44" t="n">
-        <v>506.2133996600344</v>
+        <v>506.2133996600343</v>
       </c>
       <c r="N44" t="n">
-        <v>514.4044616963494</v>
+        <v>514.4044616963492</v>
       </c>
       <c r="O44" t="n">
-        <v>485.7375463866772</v>
+        <v>485.7375463866771</v>
       </c>
       <c r="P44" t="n">
-        <v>414.5657579057187</v>
+        <v>414.5657579057186</v>
       </c>
       <c r="Q44" t="n">
         <v>311.3216191725814</v>
       </c>
       <c r="R44" t="n">
-        <v>181.0934626092966</v>
+        <v>181.0934626092965</v>
       </c>
       <c r="S44" t="n">
         <v>65.69426349406953</v>
@@ -34447,19 +34447,19 @@
         <v>53.10771883235218</v>
       </c>
       <c r="J45" t="n">
-        <v>145.731639664675</v>
+        <v>145.7316396646749</v>
       </c>
       <c r="K45" t="n">
         <v>249.0785839809822</v>
       </c>
       <c r="L45" t="n">
-        <v>334.9168943688656</v>
+        <v>334.9168943688655</v>
       </c>
       <c r="M45" t="n">
-        <v>390.8322187191064</v>
+        <v>390.8322187191063</v>
       </c>
       <c r="N45" t="n">
-        <v>401.1763845910385</v>
+        <v>401.1763845910384</v>
       </c>
       <c r="O45" t="n">
         <v>366.9980157323068</v>
@@ -34468,16 +34468,16 @@
         <v>294.548262741777</v>
       </c>
       <c r="Q45" t="n">
-        <v>196.8977132352584</v>
+        <v>196.8977132352583</v>
       </c>
       <c r="R45" t="n">
-        <v>95.76979207525831</v>
+        <v>95.76979207525829</v>
       </c>
       <c r="S45" t="n">
         <v>28.65110691146641</v>
       </c>
       <c r="T45" t="n">
-        <v>6.217324026360718</v>
+        <v>6.217324026360717</v>
       </c>
       <c r="U45" t="n">
         <v>0.1014797175140488</v>
@@ -34526,22 +34526,22 @@
         <v>38.88924588728543</v>
       </c>
       <c r="J46" t="n">
-        <v>91.42734742001775</v>
+        <v>91.42734742001774</v>
       </c>
       <c r="K46" t="n">
         <v>150.2432171824388</v>
       </c>
       <c r="L46" t="n">
-        <v>192.2595910642884</v>
+        <v>192.2595910642883</v>
       </c>
       <c r="M46" t="n">
-        <v>202.7107819934893</v>
+        <v>202.7107819934892</v>
       </c>
       <c r="N46" t="n">
         <v>197.8907726785598</v>
       </c>
       <c r="O46" t="n">
-        <v>182.7841581183537</v>
+        <v>182.7841581183536</v>
       </c>
       <c r="P46" t="n">
         <v>156.4034242093244</v>
@@ -34550,16 +34550,16 @@
         <v>108.2856239019909</v>
       </c>
       <c r="R46" t="n">
-        <v>58.14577090644306</v>
+        <v>58.14577090644305</v>
       </c>
       <c r="S46" t="n">
         <v>22.53648257736582</v>
       </c>
       <c r="T46" t="n">
-        <v>5.525376531748532</v>
+        <v>5.525376531748531</v>
       </c>
       <c r="U46" t="n">
-        <v>0.07053672168189626</v>
+        <v>0.07053672168189624</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34786,19 +34786,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35020,19 +35020,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35254,7 +35254,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
@@ -35263,7 +35263,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
@@ -35415,16 +35415,16 @@
         <v>407.5425384040855</v>
       </c>
       <c r="L11" t="n">
-        <v>558.3972305517153</v>
+        <v>558.3972305517154</v>
       </c>
       <c r="M11" t="n">
-        <v>638.0987989730411</v>
+        <v>638.0987989730412</v>
       </c>
       <c r="N11" t="n">
-        <v>633.6441091513591</v>
+        <v>633.6441091513592</v>
       </c>
       <c r="O11" t="n">
-        <v>552.6880856233095</v>
+        <v>552.6880856233096</v>
       </c>
       <c r="P11" t="n">
         <v>433.6515619588823</v>
@@ -35491,13 +35491,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>68.29072693268333</v>
+        <v>68.29072693268336</v>
       </c>
       <c r="L12" t="n">
-        <v>509.4561008748665</v>
+        <v>138.6157555714074</v>
       </c>
       <c r="M12" t="n">
-        <v>647.0155045122261</v>
+        <v>647.0155045122262</v>
       </c>
       <c r="N12" t="n">
         <v>680.0057497502846</v>
@@ -35506,10 +35506,10 @@
         <v>554.9858674269919</v>
       </c>
       <c r="P12" t="n">
-        <v>109.7875025528265</v>
+        <v>428.2502711927636</v>
       </c>
       <c r="Q12" t="n">
-        <v>38.88789890065618</v>
+        <v>91.26547556417809</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35576,19 +35576,19 @@
         <v>186.6999948493111</v>
       </c>
       <c r="M13" t="n">
-        <v>207.3430310295328</v>
+        <v>207.3430310295329</v>
       </c>
       <c r="N13" t="n">
         <v>207.9023887233373</v>
       </c>
       <c r="O13" t="n">
-        <v>175.853429685453</v>
+        <v>175.8534296854531</v>
       </c>
       <c r="P13" t="n">
         <v>126.7147238369852</v>
       </c>
       <c r="Q13" t="n">
-        <v>3.452847899353202</v>
+        <v>3.452847899353216</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35652,16 +35652,16 @@
         <v>407.5425384040855</v>
       </c>
       <c r="L14" t="n">
-        <v>558.3972305517153</v>
+        <v>558.3972305517154</v>
       </c>
       <c r="M14" t="n">
-        <v>638.0987989730411</v>
+        <v>638.0987989730412</v>
       </c>
       <c r="N14" t="n">
-        <v>633.6441091513591</v>
+        <v>633.6441091513592</v>
       </c>
       <c r="O14" t="n">
-        <v>552.6880856233095</v>
+        <v>552.6880856233096</v>
       </c>
       <c r="P14" t="n">
         <v>433.6515619588823</v>
@@ -35725,16 +35725,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>15.9212916259324</v>
+        <v>15.9212916259322</v>
       </c>
       <c r="K15" t="n">
-        <v>68.29072693268333</v>
+        <v>68.29072693268336</v>
       </c>
       <c r="L15" t="n">
         <v>509.4561008748665</v>
       </c>
       <c r="M15" t="n">
-        <v>647.0155045122261</v>
+        <v>647.0155045122262</v>
       </c>
       <c r="N15" t="n">
         <v>680.0057497502846</v>
@@ -35746,7 +35746,7 @@
         <v>109.7875025528265</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.96660727472377</v>
+        <v>22.9666072747238</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35813,19 +35813,19 @@
         <v>186.6999948493111</v>
       </c>
       <c r="M16" t="n">
-        <v>207.3430310295328</v>
+        <v>207.3430310295329</v>
       </c>
       <c r="N16" t="n">
         <v>207.9023887233373</v>
       </c>
       <c r="O16" t="n">
-        <v>175.853429685453</v>
+        <v>175.8534296854531</v>
       </c>
       <c r="P16" t="n">
         <v>126.7147238369852</v>
       </c>
       <c r="Q16" t="n">
-        <v>3.452847899353202</v>
+        <v>3.452847899353216</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35889,16 +35889,16 @@
         <v>407.5425384040855</v>
       </c>
       <c r="L17" t="n">
-        <v>558.3972305517153</v>
+        <v>558.3972305517154</v>
       </c>
       <c r="M17" t="n">
-        <v>638.0987989730411</v>
+        <v>638.0987989730412</v>
       </c>
       <c r="N17" t="n">
-        <v>633.6441091513591</v>
+        <v>633.6441091513592</v>
       </c>
       <c r="O17" t="n">
-        <v>552.6880856233095</v>
+        <v>552.6880856233096</v>
       </c>
       <c r="P17" t="n">
         <v>433.6515619588823</v>
@@ -35965,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>84.21201855861572</v>
+        <v>68.29072693268336</v>
       </c>
       <c r="L18" t="n">
         <v>509.4561008748665</v>
       </c>
       <c r="M18" t="n">
-        <v>647.0155045122261</v>
+        <v>647.0155045122262</v>
       </c>
       <c r="N18" t="n">
-        <v>680.0057497502846</v>
+        <v>200.6633754067311</v>
       </c>
       <c r="O18" t="n">
         <v>554.9858674269919</v>
       </c>
       <c r="P18" t="n">
-        <v>109.7875025528265</v>
+        <v>428.2502711927636</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.96660727472377</v>
+        <v>199.7675046042727</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36050,19 +36050,19 @@
         <v>186.6999948493111</v>
       </c>
       <c r="M19" t="n">
-        <v>207.3430310295328</v>
+        <v>207.3430310295329</v>
       </c>
       <c r="N19" t="n">
         <v>207.9023887233373</v>
       </c>
       <c r="O19" t="n">
-        <v>175.853429685453</v>
+        <v>175.8534296854531</v>
       </c>
       <c r="P19" t="n">
         <v>126.7147238369852</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.452847899353202</v>
+        <v>3.452847899353216</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36126,16 +36126,16 @@
         <v>407.5425384040855</v>
       </c>
       <c r="L20" t="n">
-        <v>558.3972305517153</v>
+        <v>558.3972305517154</v>
       </c>
       <c r="M20" t="n">
-        <v>638.0987989730411</v>
+        <v>638.0987989730412</v>
       </c>
       <c r="N20" t="n">
-        <v>633.6441091513591</v>
+        <v>633.6441091513592</v>
       </c>
       <c r="O20" t="n">
-        <v>552.6880856233095</v>
+        <v>552.6880856233096</v>
       </c>
       <c r="P20" t="n">
         <v>433.6515619588823</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>119.8578301584802</v>
       </c>
       <c r="K21" t="n">
-        <v>68.29072693268333</v>
+        <v>332.755963945262</v>
       </c>
       <c r="L21" t="n">
-        <v>509.4561008748665</v>
+        <v>138.6157555714074</v>
       </c>
       <c r="M21" t="n">
-        <v>647.0155045122261</v>
+        <v>647.0155045122262</v>
       </c>
       <c r="N21" t="n">
         <v>680.0057497502846</v>
       </c>
       <c r="O21" t="n">
-        <v>554.9858674269919</v>
+        <v>161.1235481502625</v>
       </c>
       <c r="P21" t="n">
-        <v>125.708794178759</v>
+        <v>428.2502711927636</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.96660727472377</v>
+        <v>100.8047276698489</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36287,19 +36287,19 @@
         <v>186.6999948493111</v>
       </c>
       <c r="M22" t="n">
-        <v>207.3430310295328</v>
+        <v>207.3430310295329</v>
       </c>
       <c r="N22" t="n">
         <v>207.9023887233373</v>
       </c>
       <c r="O22" t="n">
-        <v>175.853429685453</v>
+        <v>175.8534296854531</v>
       </c>
       <c r="P22" t="n">
         <v>126.7147238369852</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.452847899353202</v>
+        <v>3.452847899353216</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>232.7339139906331</v>
+        <v>232.733913990633</v>
       </c>
       <c r="K23" t="n">
         <v>470.77225576354</v>
       </c>
       <c r="L23" t="n">
-        <v>636.839286090189</v>
+        <v>636.8392860901889</v>
       </c>
       <c r="M23" t="n">
-        <v>725.3806999255942</v>
+        <v>725.3806999255941</v>
       </c>
       <c r="N23" t="n">
-        <v>722.3383225117426</v>
+        <v>722.3383225117425</v>
       </c>
       <c r="O23" t="n">
-        <v>636.4395162277358</v>
+        <v>636.4395162277357</v>
       </c>
       <c r="P23" t="n">
-        <v>505.1314703219318</v>
+        <v>505.1314703219317</v>
       </c>
       <c r="Q23" t="n">
         <v>301.3309199580366</v>
       </c>
       <c r="R23" t="n">
-        <v>31.22434466814687</v>
+        <v>31.22434466814684</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,13 +36436,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>18.89401299800826</v>
+        <v>144.9850483384171</v>
       </c>
       <c r="K24" t="n">
         <v>111.2371450066232</v>
       </c>
       <c r="L24" t="n">
-        <v>304.608703363745</v>
+        <v>567.2028598924505</v>
       </c>
       <c r="M24" t="n">
         <v>714.403248547088</v>
@@ -36451,13 +36451,13 @@
         <v>269.8346725077051</v>
       </c>
       <c r="O24" t="n">
-        <v>618.2640905645919</v>
+        <v>548.0416673354149</v>
       </c>
       <c r="P24" t="n">
-        <v>479.0366239673839</v>
+        <v>160.5738553274467</v>
       </c>
       <c r="Q24" t="n">
-        <v>56.91593914923683</v>
+        <v>56.91593914923681</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36518,13 +36518,13 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>127.973725356556</v>
+        <v>127.9737253565559</v>
       </c>
       <c r="L25" t="n">
         <v>219.8496163246045</v>
       </c>
       <c r="M25" t="n">
-        <v>242.2946589553299</v>
+        <v>242.2946589553298</v>
       </c>
       <c r="N25" t="n">
         <v>242.0229450577884</v>
@@ -36533,10 +36533,10 @@
         <v>207.3692860323933</v>
       </c>
       <c r="P25" t="n">
-        <v>153.6819834742179</v>
+        <v>153.6819834742178</v>
       </c>
       <c r="Q25" t="n">
-        <v>22.12358065029656</v>
+        <v>22.12358065029655</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>232.7339139906331</v>
+        <v>232.733913990633</v>
       </c>
       <c r="K26" t="n">
         <v>470.77225576354</v>
       </c>
       <c r="L26" t="n">
-        <v>636.839286090189</v>
+        <v>636.8392860901889</v>
       </c>
       <c r="M26" t="n">
-        <v>725.3806999255942</v>
+        <v>725.3806999255941</v>
       </c>
       <c r="N26" t="n">
-        <v>722.3383225117426</v>
+        <v>722.3383225117425</v>
       </c>
       <c r="O26" t="n">
-        <v>636.4395162277358</v>
+        <v>636.4395162277357</v>
       </c>
       <c r="P26" t="n">
-        <v>505.1314703219318</v>
+        <v>505.1314703219317</v>
       </c>
       <c r="Q26" t="n">
         <v>301.3309199580366</v>
       </c>
       <c r="R26" t="n">
-        <v>31.22434466814687</v>
+        <v>31.22434466814684</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,13 +36673,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>18.89401299800826</v>
+        <v>144.9850483384171</v>
       </c>
       <c r="K27" t="n">
         <v>111.2371450066232</v>
       </c>
       <c r="L27" t="n">
-        <v>304.608703363745</v>
+        <v>567.2028598924505</v>
       </c>
       <c r="M27" t="n">
         <v>714.403248547088</v>
@@ -36688,13 +36688,13 @@
         <v>269.8346725077051</v>
       </c>
       <c r="O27" t="n">
-        <v>618.2640905645919</v>
+        <v>548.0416673354149</v>
       </c>
       <c r="P27" t="n">
-        <v>479.0366239673839</v>
+        <v>160.5738553274467</v>
       </c>
       <c r="Q27" t="n">
-        <v>56.91593914923683</v>
+        <v>56.91593914923681</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36755,13 +36755,13 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>127.973725356556</v>
+        <v>127.9737253565559</v>
       </c>
       <c r="L28" t="n">
         <v>219.8496163246045</v>
       </c>
       <c r="M28" t="n">
-        <v>242.2946589553299</v>
+        <v>242.2946589553298</v>
       </c>
       <c r="N28" t="n">
         <v>242.0229450577884</v>
@@ -36770,10 +36770,10 @@
         <v>207.3692860323933</v>
       </c>
       <c r="P28" t="n">
-        <v>153.6819834742179</v>
+        <v>153.6819834742178</v>
       </c>
       <c r="Q28" t="n">
-        <v>22.12358065029656</v>
+        <v>22.12358065029655</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>232.7339139906331</v>
+        <v>232.733913990633</v>
       </c>
       <c r="K29" t="n">
         <v>470.77225576354</v>
       </c>
       <c r="L29" t="n">
-        <v>636.839286090189</v>
+        <v>636.8392860901889</v>
       </c>
       <c r="M29" t="n">
-        <v>725.3806999255942</v>
+        <v>725.3806999255941</v>
       </c>
       <c r="N29" t="n">
-        <v>722.3383225117426</v>
+        <v>722.3383225117425</v>
       </c>
       <c r="O29" t="n">
-        <v>636.4395162277358</v>
+        <v>636.4395162277357</v>
       </c>
       <c r="P29" t="n">
-        <v>505.1314703219318</v>
+        <v>505.1314703219317</v>
       </c>
       <c r="Q29" t="n">
         <v>301.3309199580366</v>
       </c>
       <c r="R29" t="n">
-        <v>31.22434466814687</v>
+        <v>31.22434466814684</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>18.89401299800826</v>
+        <v>144.9850483384171</v>
       </c>
       <c r="K30" t="n">
         <v>111.2371450066232</v>
@@ -36922,16 +36922,16 @@
         <v>714.403248547088</v>
       </c>
       <c r="N30" t="n">
-        <v>719.5656038956663</v>
+        <v>269.8346725077051</v>
       </c>
       <c r="O30" t="n">
-        <v>224.4017712878624</v>
+        <v>548.0416673354149</v>
       </c>
       <c r="P30" t="n">
         <v>160.5738553274467</v>
       </c>
       <c r="Q30" t="n">
-        <v>56.91593914923683</v>
+        <v>56.91593914923681</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36992,13 +36992,13 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>127.973725356556</v>
+        <v>127.9737253565559</v>
       </c>
       <c r="L31" t="n">
         <v>219.8496163246045</v>
       </c>
       <c r="M31" t="n">
-        <v>242.2946589553299</v>
+        <v>242.2946589553298</v>
       </c>
       <c r="N31" t="n">
         <v>242.0229450577884</v>
@@ -37007,10 +37007,10 @@
         <v>207.3692860323933</v>
       </c>
       <c r="P31" t="n">
-        <v>153.6819834742179</v>
+        <v>153.6819834742178</v>
       </c>
       <c r="Q31" t="n">
-        <v>22.12358065029656</v>
+        <v>22.12358065029655</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>232.7339139906331</v>
+        <v>232.733913990633</v>
       </c>
       <c r="K32" t="n">
         <v>470.77225576354</v>
       </c>
       <c r="L32" t="n">
-        <v>636.839286090189</v>
+        <v>636.8392860901889</v>
       </c>
       <c r="M32" t="n">
-        <v>725.3806999255942</v>
+        <v>725.3806999255941</v>
       </c>
       <c r="N32" t="n">
-        <v>722.3383225117426</v>
+        <v>722.3383225117425</v>
       </c>
       <c r="O32" t="n">
-        <v>636.4395162277358</v>
+        <v>636.4395162277357</v>
       </c>
       <c r="P32" t="n">
-        <v>505.1314703219318</v>
+        <v>505.1314703219317</v>
       </c>
       <c r="Q32" t="n">
         <v>301.3309199580366</v>
       </c>
       <c r="R32" t="n">
-        <v>31.22434466814687</v>
+        <v>31.22434466814684</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>18.89401299800826</v>
+        <v>144.9850483384171</v>
       </c>
       <c r="K33" t="n">
         <v>111.2371450066232</v>
@@ -37162,13 +37162,13 @@
         <v>269.8346725077051</v>
       </c>
       <c r="O33" t="n">
-        <v>618.2640905645919</v>
+        <v>548.0416673354149</v>
       </c>
       <c r="P33" t="n">
-        <v>216.4424674386801</v>
+        <v>160.5738553274467</v>
       </c>
       <c r="Q33" t="n">
-        <v>56.91593914923683</v>
+        <v>56.91593914923681</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37229,13 +37229,13 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>127.973725356556</v>
+        <v>127.9737253565559</v>
       </c>
       <c r="L34" t="n">
         <v>219.8496163246045</v>
       </c>
       <c r="M34" t="n">
-        <v>242.2946589553299</v>
+        <v>242.2946589553298</v>
       </c>
       <c r="N34" t="n">
         <v>242.0229450577884</v>
@@ -37244,10 +37244,10 @@
         <v>207.3692860323933</v>
       </c>
       <c r="P34" t="n">
-        <v>153.6819834742179</v>
+        <v>153.6819834742178</v>
       </c>
       <c r="Q34" t="n">
-        <v>22.12358065029656</v>
+        <v>22.12358065029655</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>232.7339139906331</v>
+        <v>232.733913990633</v>
       </c>
       <c r="K35" t="n">
         <v>470.77225576354</v>
       </c>
       <c r="L35" t="n">
-        <v>636.839286090189</v>
+        <v>636.8392860901889</v>
       </c>
       <c r="M35" t="n">
-        <v>725.3806999255942</v>
+        <v>725.3806999255941</v>
       </c>
       <c r="N35" t="n">
-        <v>722.3383225117426</v>
+        <v>722.3383225117425</v>
       </c>
       <c r="O35" t="n">
-        <v>636.4395162277358</v>
+        <v>636.4395162277357</v>
       </c>
       <c r="P35" t="n">
-        <v>505.1314703219318</v>
+        <v>505.1314703219317</v>
       </c>
       <c r="Q35" t="n">
         <v>301.3309199580366</v>
       </c>
       <c r="R35" t="n">
-        <v>31.22434466814687</v>
+        <v>31.22434466814684</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>18.89401299800826</v>
+        <v>144.9850483384171</v>
       </c>
       <c r="K36" t="n">
         <v>111.2371450066232</v>
       </c>
       <c r="L36" t="n">
-        <v>537.5914169368581</v>
+        <v>567.2028598924505</v>
       </c>
       <c r="M36" t="n">
         <v>714.403248547088</v>
       </c>
       <c r="N36" t="n">
-        <v>749.1770468512586</v>
+        <v>269.8346725077051</v>
       </c>
       <c r="O36" t="n">
-        <v>224.4017712878624</v>
+        <v>548.0416673354149</v>
       </c>
       <c r="P36" t="n">
         <v>160.5738553274467</v>
       </c>
       <c r="Q36" t="n">
-        <v>56.91593914923683</v>
+        <v>56.91593914923681</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37466,13 +37466,13 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>127.973725356556</v>
+        <v>127.9737253565559</v>
       </c>
       <c r="L37" t="n">
         <v>219.8496163246045</v>
       </c>
       <c r="M37" t="n">
-        <v>242.2946589553299</v>
+        <v>242.2946589553298</v>
       </c>
       <c r="N37" t="n">
         <v>242.0229450577884</v>
@@ -37481,10 +37481,10 @@
         <v>207.3692860323933</v>
       </c>
       <c r="P37" t="n">
-        <v>153.6819834742179</v>
+        <v>153.6819834742178</v>
       </c>
       <c r="Q37" t="n">
-        <v>22.12358065029656</v>
+        <v>22.12358065029655</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>232.7339139906331</v>
+        <v>232.733913990633</v>
       </c>
       <c r="K38" t="n">
         <v>470.77225576354</v>
       </c>
       <c r="L38" t="n">
-        <v>636.839286090189</v>
+        <v>636.8392860901889</v>
       </c>
       <c r="M38" t="n">
-        <v>725.3806999255942</v>
+        <v>725.3806999255941</v>
       </c>
       <c r="N38" t="n">
-        <v>722.3383225117426</v>
+        <v>722.3383225117425</v>
       </c>
       <c r="O38" t="n">
-        <v>636.4395162277358</v>
+        <v>636.4395162277357</v>
       </c>
       <c r="P38" t="n">
-        <v>505.1314703219318</v>
+        <v>505.1314703219317</v>
       </c>
       <c r="Q38" t="n">
         <v>301.3309199580366</v>
       </c>
       <c r="R38" t="n">
-        <v>31.22434466814687</v>
+        <v>31.22434466814684</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,13 +37621,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>18.89401299800826</v>
+        <v>144.9850483384171</v>
       </c>
       <c r="K39" t="n">
         <v>111.2371450066232</v>
       </c>
       <c r="L39" t="n">
-        <v>304.608703363745</v>
+        <v>567.2028598924505</v>
       </c>
       <c r="M39" t="n">
         <v>714.403248547088</v>
@@ -37636,13 +37636,13 @@
         <v>269.8346725077051</v>
       </c>
       <c r="O39" t="n">
-        <v>618.2640905645919</v>
+        <v>548.0416673354149</v>
       </c>
       <c r="P39" t="n">
-        <v>479.0366239673839</v>
+        <v>160.5738553274467</v>
       </c>
       <c r="Q39" t="n">
-        <v>56.91593914923683</v>
+        <v>56.91593914923681</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37703,13 +37703,13 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>127.973725356556</v>
+        <v>127.9737253565559</v>
       </c>
       <c r="L40" t="n">
         <v>219.8496163246045</v>
       </c>
       <c r="M40" t="n">
-        <v>242.2946589553299</v>
+        <v>242.2946589553298</v>
       </c>
       <c r="N40" t="n">
         <v>242.0229450577884</v>
@@ -37718,10 +37718,10 @@
         <v>207.3692860323933</v>
       </c>
       <c r="P40" t="n">
-        <v>153.6819834742179</v>
+        <v>153.6819834742178</v>
       </c>
       <c r="Q40" t="n">
-        <v>22.12358065029656</v>
+        <v>22.12358065029655</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>232.7339139906331</v>
+        <v>232.733913990633</v>
       </c>
       <c r="K41" t="n">
         <v>470.77225576354</v>
       </c>
       <c r="L41" t="n">
-        <v>636.839286090189</v>
+        <v>636.8392860901889</v>
       </c>
       <c r="M41" t="n">
-        <v>725.3806999255942</v>
+        <v>725.3806999255941</v>
       </c>
       <c r="N41" t="n">
-        <v>722.3383225117426</v>
+        <v>722.3383225117425</v>
       </c>
       <c r="O41" t="n">
-        <v>636.4395162277358</v>
+        <v>636.4395162277357</v>
       </c>
       <c r="P41" t="n">
-        <v>505.1314703219318</v>
+        <v>505.1314703219317</v>
       </c>
       <c r="Q41" t="n">
         <v>301.3309199580366</v>
       </c>
       <c r="R41" t="n">
-        <v>31.22434466814687</v>
+        <v>31.22434466814684</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>18.89401299800826</v>
+        <v>144.9850483384171</v>
       </c>
       <c r="K42" t="n">
         <v>111.2371450066232</v>
       </c>
       <c r="L42" t="n">
-        <v>196.3625145889914</v>
+        <v>567.2028598924505</v>
       </c>
       <c r="M42" t="n">
-        <v>661.7698316182252</v>
+        <v>714.403248547088</v>
       </c>
       <c r="N42" t="n">
-        <v>749.1770468512586</v>
+        <v>269.8346725077051</v>
       </c>
       <c r="O42" t="n">
-        <v>618.2640905645919</v>
+        <v>548.0416673354149</v>
       </c>
       <c r="P42" t="n">
         <v>160.5738553274467</v>
       </c>
       <c r="Q42" t="n">
-        <v>56.91593914923683</v>
+        <v>56.91593914923681</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37940,13 +37940,13 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>127.973725356556</v>
+        <v>127.9737253565559</v>
       </c>
       <c r="L43" t="n">
         <v>219.8496163246045</v>
       </c>
       <c r="M43" t="n">
-        <v>242.2946589553299</v>
+        <v>242.2946589553298</v>
       </c>
       <c r="N43" t="n">
         <v>242.0229450577884</v>
@@ -37955,10 +37955,10 @@
         <v>207.3692860323933</v>
       </c>
       <c r="P43" t="n">
-        <v>153.6819834742179</v>
+        <v>153.6819834742178</v>
       </c>
       <c r="Q43" t="n">
-        <v>22.12358065029656</v>
+        <v>22.12358065029655</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>232.7339139906323</v>
+        <v>232.733913990633</v>
       </c>
       <c r="K44" t="n">
         <v>470.77225576354</v>
       </c>
       <c r="L44" t="n">
-        <v>636.839286090189</v>
+        <v>636.8392860901889</v>
       </c>
       <c r="M44" t="n">
-        <v>725.3806999255942</v>
+        <v>725.3806999255941</v>
       </c>
       <c r="N44" t="n">
-        <v>722.3383225117426</v>
+        <v>722.3383225117425</v>
       </c>
       <c r="O44" t="n">
-        <v>636.4395162277358</v>
+        <v>636.4395162277357</v>
       </c>
       <c r="P44" t="n">
-        <v>505.1314703219318</v>
+        <v>505.1314703219317</v>
       </c>
       <c r="Q44" t="n">
         <v>301.3309199580366</v>
       </c>
       <c r="R44" t="n">
-        <v>31.22434466814687</v>
+        <v>31.22434466814604</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>18.89401299800826</v>
+        <v>144.9850483384171</v>
       </c>
       <c r="K45" t="n">
         <v>111.2371450066232</v>
       </c>
       <c r="L45" t="n">
-        <v>196.3625145889914</v>
+        <v>567.2028598924505</v>
       </c>
       <c r="M45" t="n">
-        <v>661.7698316182252</v>
+        <v>714.403248547088</v>
       </c>
       <c r="N45" t="n">
-        <v>749.1770468512586</v>
+        <v>269.8346725077051</v>
       </c>
       <c r="O45" t="n">
-        <v>618.2640905645919</v>
+        <v>548.0416673354149</v>
       </c>
       <c r="P45" t="n">
         <v>160.5738553274467</v>
       </c>
       <c r="Q45" t="n">
-        <v>56.91593914923683</v>
+        <v>56.91593914923681</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38177,13 +38177,13 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>127.973725356556</v>
+        <v>127.9737253565559</v>
       </c>
       <c r="L46" t="n">
         <v>219.8496163246045</v>
       </c>
       <c r="M46" t="n">
-        <v>242.2946589553299</v>
+        <v>242.2946589553298</v>
       </c>
       <c r="N46" t="n">
         <v>242.0229450577884</v>
@@ -38192,10 +38192,10 @@
         <v>207.3692860323933</v>
       </c>
       <c r="P46" t="n">
-        <v>153.6819834742179</v>
+        <v>153.6819834742178</v>
       </c>
       <c r="Q46" t="n">
-        <v>22.12358065029656</v>
+        <v>22.12358065029655</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_1_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_1_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2587110.964807898</v>
+        <v>2601785.312272148</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1703882.653759765</v>
+        <v>1703882.653759764</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3254445.780230137</v>
+        <v>3254445.780230135</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>230.6992324161051</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -673,7 +673,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>15.30273751513505</v>
+        <v>96.13285199009043</v>
       </c>
       <c r="H2" t="n">
         <v>241.0142888776591</v>
@@ -706,7 +706,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -737,28 +737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>84.56713651463426</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -797,16 +797,16 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>56.87466019349316</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>168.1666138174382</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>57.16776090941369</v>
       </c>
       <c r="G5" t="n">
         <v>15.30273751513505</v>
@@ -943,10 +943,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,13 +955,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -974,19 +974,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>97.14300457665131</v>
+        <v>9.245357950761489</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1037,10 +1037,10 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1077,10 +1077,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1095,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>241.0142888776591</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>72.47049842454874</v>
+        <v>214.0077506398264</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -1180,10 +1180,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="9">
@@ -1211,19 +1211,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>49.31110394229523</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1271,16 +1271,16 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>145.1806198985548</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1296,13 +1296,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1369,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>332.2343161230581</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>412.9169039459368</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>315.0408840752156</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>154.6528871281403</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U11" t="n">
         <v>251.1547862223006</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>213.9992369298191</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1533,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1542,16 +1542,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>149.9471232968851</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>17.69584188176917</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1581,10 +1581,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>147.3181964444639</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1612,22 +1612,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>356.3765202012901</v>
       </c>
       <c r="G14" t="n">
-        <v>412.9169039459368</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>118.4960408938905</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,13 +1660,13 @@
         <v>154.6528871281403</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U14" t="n">
         <v>251.1547862223006</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>160.1491440309564</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1706,7 +1706,7 @@
         <v>99.90681807664348</v>
       </c>
       <c r="I15" t="n">
-        <v>45.44580843958678</v>
+        <v>45.44580843958677</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>20.90078060183529</v>
+        <v>20.90078060183528</v>
       </c>
       <c r="S15" t="n">
         <v>147.9721212459916</v>
@@ -1764,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>3.569732218854638</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1782,7 +1782,7 @@
         <v>166.9207765545704</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>129.1731816677914</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1824,16 +1824,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>47.03411468514974</v>
       </c>
     </row>
     <row r="17">
@@ -1861,10 +1861,10 @@
         <v>412.9169039459368</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>118.4960408938905</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,22 +1897,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V17" t="n">
-        <v>179.7188787253444</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>59.83305400077228</v>
       </c>
     </row>
     <row r="18">
@@ -1943,7 +1943,7 @@
         <v>99.90681807664348</v>
       </c>
       <c r="I18" t="n">
-        <v>45.44580843958678</v>
+        <v>45.44580843958677</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>20.90078060183529</v>
+        <v>20.90078060183528</v>
       </c>
       <c r="S18" t="n">
         <v>147.9721212459916</v>
@@ -2007,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>165.014038326233</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>16.3985653080208</v>
       </c>
     </row>
     <row r="20">
@@ -2098,7 +2098,7 @@
         <v>412.9169039459368</v>
       </c>
       <c r="H20" t="n">
-        <v>61.22283783145367</v>
+        <v>82.71154807873224</v>
       </c>
       <c r="I20" t="n">
         <v>118.4960408938905</v>
@@ -2140,10 +2140,10 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2180,7 +2180,7 @@
         <v>99.90681807664348</v>
       </c>
       <c r="I21" t="n">
-        <v>45.44580843958678</v>
+        <v>45.44580843958677</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>20.90078060183529</v>
+        <v>20.90078060183528</v>
       </c>
       <c r="S21" t="n">
         <v>147.9721212459916</v>
@@ -2238,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>169.3894146473061</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>129.1731816677914</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2295,10 +2295,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>103.4708979048641</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2326,7 +2326,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>118.0341689166425</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2335,7 +2335,7 @@
         <v>412.4198296272988</v>
       </c>
       <c r="H23" t="n">
-        <v>309.9502217094637</v>
+        <v>163.3303587388507</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2371,13 +2371,13 @@
         <v>143.3258060921758</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>210.475920285128</v>
       </c>
       <c r="U23" t="n">
         <v>251.1150202768096</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2417,7 +2417,7 @@
         <v>97.33822170543411</v>
       </c>
       <c r="I24" t="n">
-        <v>36.2889140190629</v>
+        <v>36.28891401906291</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>4.388042077384839</v>
+        <v>4.388042077384853</v>
       </c>
       <c r="S24" t="n">
         <v>143.0320641923714</v>
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.697806127624</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>116.5612290399729</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>119.1476204707264</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>201.4801154596065</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>222.420212896533</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.248492634809</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>259.7883990674456</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>78.30102918269388</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2566,13 +2566,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>412.4198296272988</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>309.9502217094637</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2611,13 +2611,13 @@
         <v>210.475920285128</v>
       </c>
       <c r="U26" t="n">
-        <v>251.1150202768096</v>
+        <v>183.6189445777737</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>184.8190689861288</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2654,7 +2654,7 @@
         <v>97.33822170543411</v>
       </c>
       <c r="I27" t="n">
-        <v>36.2889140190629</v>
+        <v>36.28891401906291</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>4.388042077384839</v>
+        <v>4.388042077384853</v>
       </c>
       <c r="S27" t="n">
         <v>143.0320641923714</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.697806127624</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>201.4801154596065</v>
       </c>
       <c r="T28" t="n">
         <v>222.420212896533</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.248492634809</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.50852138582119</v>
+        <v>134.4524042132379</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>309.9502217094637</v>
       </c>
       <c r="I29" t="n">
-        <v>99.33258322459723</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.1150202768096</v>
+        <v>130.5446252133658</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>166.334960368012</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2891,7 +2891,7 @@
         <v>97.33822170543411</v>
       </c>
       <c r="I30" t="n">
-        <v>36.2889140190629</v>
+        <v>36.28891401906291</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>4.388042077384839</v>
+        <v>4.388042077384853</v>
       </c>
       <c r="S30" t="n">
         <v>143.0320641923714</v>
@@ -2955,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>143.8016643219866</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>143.8016643219866</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3046,10 +3046,10 @@
         <v>412.4198296272988</v>
       </c>
       <c r="H32" t="n">
-        <v>309.9502217094637</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>99.33258322459723</v>
+        <v>99.33258322459724</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,19 +3079,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>143.3258060921758</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>210.475920285128</v>
       </c>
       <c r="U32" t="n">
-        <v>31.21204198876898</v>
+        <v>251.1150202768096</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>85.48648576153154</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3128,7 +3128,7 @@
         <v>97.33822170543411</v>
       </c>
       <c r="I33" t="n">
-        <v>36.2889140190629</v>
+        <v>36.28891401906291</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>4.388042077384839</v>
+        <v>4.388042077384853</v>
       </c>
       <c r="S33" t="n">
         <v>143.0320641923714</v>
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>140.5122218294824</v>
+        <v>147.6372238664248</v>
       </c>
       <c r="U34" t="n">
         <v>286.248492634809</v>
@@ -3252,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3271,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>90.92855866480242</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3283,10 +3283,10 @@
         <v>412.4198296272988</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>309.9502217094637</v>
       </c>
       <c r="I35" t="n">
-        <v>99.33258322459723</v>
+        <v>99.33258322459724</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,19 +3316,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>143.3258060921758</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>210.475920285128</v>
       </c>
       <c r="U35" t="n">
-        <v>251.1150202768096</v>
+        <v>169.9770904210542</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3365,7 +3365,7 @@
         <v>97.33822170543411</v>
       </c>
       <c r="I36" t="n">
-        <v>36.2889140190629</v>
+        <v>36.28891401906291</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>4.388042077384839</v>
+        <v>4.388042077384853</v>
       </c>
       <c r="S36" t="n">
         <v>143.0320641923714</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>61.32322039856135</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>201.4801154596065</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>222.420212896533</v>
+        <v>140.5122218294824</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.248492634809</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3511,7 +3511,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3523,7 +3523,7 @@
         <v>309.9502217094637</v>
       </c>
       <c r="I38" t="n">
-        <v>99.33258322459723</v>
+        <v>99.33258322459724</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>143.3258060921758</v>
       </c>
       <c r="T38" t="n">
         <v>210.475920285128</v>
@@ -3562,13 +3562,13 @@
         <v>251.1150202768096</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>135.9779238770521</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>267.1044605754354</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3602,7 +3602,7 @@
         <v>97.33822170543411</v>
       </c>
       <c r="I39" t="n">
-        <v>36.2889140190629</v>
+        <v>36.28891401906291</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>4.388042077384839</v>
+        <v>4.388042077384853</v>
       </c>
       <c r="S39" t="n">
         <v>143.0320641923714</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>6.970451354372083</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>201.4801154596065</v>
       </c>
       <c r="T40" t="n">
-        <v>222.420212896533</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>123.6633735340423</v>
+        <v>286.248492634809</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3748,7 +3748,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3760,7 +3760,7 @@
         <v>309.9502217094637</v>
       </c>
       <c r="I41" t="n">
-        <v>99.33258322459723</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,19 +3793,19 @@
         <v>143.3258060921758</v>
       </c>
       <c r="T41" t="n">
-        <v>210.475920285128</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>251.1150202768096</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>63.8560573145157</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>177.9567660853852</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3839,7 +3839,7 @@
         <v>97.33822170543411</v>
       </c>
       <c r="I42" t="n">
-        <v>36.2889140190629</v>
+        <v>36.28891401906291</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>4.388042077384839</v>
+        <v>4.388042077384853</v>
       </c>
       <c r="S42" t="n">
         <v>143.0320641923714</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>116.5612290399729</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>119.1476204707264</v>
       </c>
       <c r="S43" t="n">
-        <v>201.4801154596065</v>
+        <v>85.46738679881405</v>
       </c>
       <c r="T43" t="n">
         <v>222.420212896533</v>
       </c>
       <c r="U43" t="n">
-        <v>279.3841903230809</v>
+        <v>286.248492634809</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,7 +3963,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3976,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>134.7800633326414</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>210.475920285128</v>
       </c>
       <c r="U44" t="n">
-        <v>251.1150202768096</v>
+        <v>203.4699633671208</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>201.4801154596065</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>222.420212896533</v>
       </c>
       <c r="U46" t="n">
         <v>286.248492634809</v>
@@ -4197,13 +4197,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>228.8445471989712</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>140.5122218294825</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>509.8046290289238</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="C2" t="n">
-        <v>509.8046290289238</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="D2" t="n">
-        <v>509.8046290289238</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="E2" t="n">
-        <v>509.8046290289238</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="F2" t="n">
-        <v>502.8591282797204</v>
+        <v>584.5057085574531</v>
       </c>
       <c r="G2" t="n">
         <v>487.4018176583718</v>
@@ -4354,28 +4354,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>742.8341567219593</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T2" t="n">
-        <v>742.8341567219593</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U2" t="n">
-        <v>742.8341567219593</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V2" t="n">
-        <v>742.8341567219593</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W2" t="n">
-        <v>742.8341567219593</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X2" t="n">
-        <v>742.8341567219593</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="Y2" t="n">
-        <v>742.8341567219593</v>
+        <v>591.4512093066566</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>588.0815197256143</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="C3" t="n">
-        <v>413.6284904444873</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="D3" t="n">
-        <v>264.694080783236</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="E3" t="n">
-        <v>105.4566257777805</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="F3" t="n">
-        <v>105.4566257777805</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G3" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H3" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I3" t="n">
         <v>20.03527576299844</v>
@@ -4418,13 +4418,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>613.2059550252818</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N3" t="n">
-        <v>656.0584510084244</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
         <v>894.6625969973069</v>
@@ -4433,28 +4433,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V3" t="n">
-        <v>964.0571555106362</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W3" t="n">
-        <v>964.0571555106362</v>
+        <v>570.28636612118</v>
       </c>
       <c r="X3" t="n">
-        <v>964.0571555106362</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="Y3" t="n">
-        <v>756.2968567456824</v>
+        <v>362.4348659156472</v>
       </c>
     </row>
     <row r="4">
@@ -4518,16 +4518,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
         <v>19.28114311021272</v>
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>53.75394372784808</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="C5" t="n">
-        <v>53.75394372784808</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="D5" t="n">
-        <v>53.75394372784808</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="E5" t="n">
-        <v>53.75394372784808</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="F5" t="n">
         <v>46.80844297864461</v>
@@ -4591,28 +4591,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T5" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U5" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V5" t="n">
-        <v>710.516763498309</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W5" t="n">
-        <v>467.067986854209</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="X5" t="n">
-        <v>223.6192102101089</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="Y5" t="n">
-        <v>223.6192102101089</v>
+        <v>348.0024326625565</v>
       </c>
     </row>
     <row r="6">
@@ -4622,16 +4622,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>588.0815197256143</v>
+        <v>203.827050448935</v>
       </c>
       <c r="C6" t="n">
-        <v>413.6284904444873</v>
+        <v>29.37402116780802</v>
       </c>
       <c r="D6" t="n">
-        <v>264.694080783236</v>
+        <v>29.37402116780802</v>
       </c>
       <c r="E6" t="n">
-        <v>166.5698337361135</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F6" t="n">
         <v>20.03527576299844</v>
@@ -4655,13 +4655,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
+        <v>374.6018090363993</v>
+      </c>
+      <c r="N6" t="n">
         <v>613.2059550252818</v>
       </c>
-      <c r="N6" t="n">
-        <v>725.4530095217538</v>
-      </c>
       <c r="O6" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
         <v>964.0571555106362</v>
@@ -4670,28 +4670,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W6" t="n">
-        <v>964.0571555106362</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="X6" t="n">
-        <v>964.0571555106362</v>
+        <v>411.587349213889</v>
       </c>
       <c r="Y6" t="n">
-        <v>756.2968567456824</v>
+        <v>203.827050448935</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="D7" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="E7" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4743,34 +4743,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>348.0024326625565</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C8" t="n">
-        <v>348.0024326625565</v>
+        <v>710.516763498309</v>
       </c>
       <c r="D8" t="n">
-        <v>348.0024326625565</v>
+        <v>467.067986854209</v>
       </c>
       <c r="E8" t="n">
-        <v>348.0024326625565</v>
+        <v>467.067986854209</v>
       </c>
       <c r="F8" t="n">
-        <v>104.5536560184564</v>
+        <v>460.1224861050055</v>
       </c>
       <c r="G8" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H8" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I8" t="n">
         <v>31.35113235729608</v>
@@ -4828,28 +4828,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U8" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V8" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W8" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X8" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y8" t="n">
-        <v>591.4512093066566</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="9">
@@ -4859,16 +4859,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>649.1947276839472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C9" t="n">
-        <v>474.7416984028202</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D9" t="n">
-        <v>325.807288741569</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E9" t="n">
-        <v>166.5698337361135</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F9" t="n">
         <v>20.03527576299844</v>
@@ -4886,22 +4886,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>74.24228005117135</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>304.2053859195205</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M9" t="n">
-        <v>542.809531908403</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4919,16 +4919,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>964.0571555106362</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W9" t="n">
-        <v>964.0571555106362</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X9" t="n">
-        <v>964.0571555106362</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y9" t="n">
-        <v>817.4100647040152</v>
+        <v>69.84447166430675</v>
       </c>
     </row>
     <row r="10">
@@ -4944,10 +4944,10 @@
         <v>151.0645035650224</v>
       </c>
       <c r="D10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
         <v>19.28114311021272</v>
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2452.998035652587</v>
+        <v>1291.85630268402</v>
       </c>
       <c r="C11" t="n">
-        <v>2084.035518712175</v>
+        <v>922.8937857436081</v>
       </c>
       <c r="D11" t="n">
-        <v>1725.769820105425</v>
+        <v>922.8937857436081</v>
       </c>
       <c r="E11" t="n">
-        <v>1339.98156750718</v>
+        <v>922.8937857436081</v>
       </c>
       <c r="F11" t="n">
-        <v>928.9956627175729</v>
+        <v>511.9078809540005</v>
       </c>
       <c r="G11" t="n">
         <v>511.9078809540005</v>
@@ -5041,10 +5041,10 @@
         <v>73.99179512662052</v>
       </c>
       <c r="J11" t="n">
-        <v>262.6316941403565</v>
+        <v>262.6316941403564</v>
       </c>
       <c r="K11" t="n">
-        <v>666.0988071604012</v>
+        <v>666.0988071604011</v>
       </c>
       <c r="L11" t="n">
         <v>1218.9120654066</v>
@@ -5059,34 +5059,34 @@
         <v>3025.098749216832</v>
       </c>
       <c r="P11" t="n">
-        <v>3454.413795556125</v>
+        <v>3454.413795556126</v>
       </c>
       <c r="Q11" t="n">
-        <v>3699.589756331025</v>
+        <v>3699.589756331026</v>
       </c>
       <c r="R11" t="n">
-        <v>3699.589756331025</v>
+        <v>3699.589756331026</v>
       </c>
       <c r="S11" t="n">
-        <v>3699.589756331025</v>
+        <v>3543.374718827854</v>
       </c>
       <c r="T11" t="n">
-        <v>3699.589756331025</v>
+        <v>3328.574857095565</v>
       </c>
       <c r="U11" t="n">
-        <v>3445.898053076176</v>
+        <v>3074.883153840716</v>
       </c>
       <c r="V11" t="n">
-        <v>3445.898053076176</v>
+        <v>2743.820266497145</v>
       </c>
       <c r="W11" t="n">
-        <v>3445.898053076176</v>
+        <v>2391.051611227031</v>
       </c>
       <c r="X11" t="n">
-        <v>3229.737207692521</v>
+        <v>2017.585852965951</v>
       </c>
       <c r="Y11" t="n">
-        <v>2839.597875716709</v>
+        <v>1627.446520990139</v>
       </c>
     </row>
     <row r="12">
@@ -5123,22 +5123,22 @@
         <v>73.99179512662052</v>
       </c>
       <c r="K12" t="n">
-        <v>141.599614789977</v>
+        <v>403.4201994324299</v>
       </c>
       <c r="L12" t="n">
-        <v>278.8292128056703</v>
+        <v>907.7817392985478</v>
       </c>
       <c r="M12" t="n">
-        <v>919.3745622727743</v>
+        <v>1548.327088765652</v>
       </c>
       <c r="N12" t="n">
-        <v>1592.580254525556</v>
+        <v>2221.532781018434</v>
       </c>
       <c r="O12" t="n">
-        <v>2142.016263278278</v>
+        <v>2524.910283838376</v>
       </c>
       <c r="P12" t="n">
-        <v>2565.984031759114</v>
+        <v>2633.599911365674</v>
       </c>
       <c r="Q12" t="n">
         <v>2656.336852567651</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>529.8248183431156</v>
+        <v>91.86638288598331</v>
       </c>
       <c r="C13" t="n">
-        <v>529.8248183431156</v>
+        <v>91.86638288598331</v>
       </c>
       <c r="D13" t="n">
-        <v>379.7081789307798</v>
+        <v>91.86638288598331</v>
       </c>
       <c r="E13" t="n">
-        <v>379.7081789307798</v>
+        <v>91.86638288598331</v>
       </c>
       <c r="F13" t="n">
-        <v>379.7081789307798</v>
+        <v>91.86638288598331</v>
       </c>
       <c r="G13" t="n">
-        <v>228.2464382268554</v>
+        <v>91.86638288598331</v>
       </c>
       <c r="H13" t="n">
-        <v>73.99179512662052</v>
+        <v>91.86638288598331</v>
       </c>
       <c r="I13" t="n">
-        <v>73.99179512662052</v>
+        <v>91.86638288598331</v>
       </c>
       <c r="J13" t="n">
         <v>73.99179512662052</v>
@@ -5229,22 +5229,22 @@
         <v>1073.926476585963</v>
       </c>
       <c r="T13" t="n">
-        <v>1073.926476585963</v>
+        <v>925.120217551151</v>
       </c>
       <c r="U13" t="n">
-        <v>1073.926476585963</v>
+        <v>635.9680411288308</v>
       </c>
       <c r="V13" t="n">
-        <v>819.2419883800761</v>
+        <v>381.283552922944</v>
       </c>
       <c r="W13" t="n">
-        <v>529.8248183431156</v>
+        <v>91.86638288598331</v>
       </c>
       <c r="X13" t="n">
-        <v>529.8248183431156</v>
+        <v>91.86638288598331</v>
       </c>
       <c r="Y13" t="n">
-        <v>529.8248183431156</v>
+        <v>91.86638288598331</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2015.081949825207</v>
+        <v>1240.846680926018</v>
       </c>
       <c r="C14" t="n">
-        <v>1646.119432884795</v>
+        <v>871.8841639856066</v>
       </c>
       <c r="D14" t="n">
-        <v>1287.853734278045</v>
+        <v>871.8841639856066</v>
       </c>
       <c r="E14" t="n">
-        <v>902.0654816798005</v>
+        <v>871.8841639856066</v>
       </c>
       <c r="F14" t="n">
-        <v>491.079576890193</v>
+        <v>511.9078809540005</v>
       </c>
       <c r="G14" t="n">
-        <v>73.9917951266205</v>
+        <v>511.9078809540005</v>
       </c>
       <c r="H14" t="n">
-        <v>73.9917951266205</v>
+        <v>193.6847657265099</v>
       </c>
       <c r="I14" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662053</v>
       </c>
       <c r="J14" t="n">
-        <v>262.6316941403561</v>
+        <v>262.6316941403564</v>
       </c>
       <c r="K14" t="n">
-        <v>666.098807160401</v>
+        <v>666.0988071604012</v>
       </c>
       <c r="L14" t="n">
-        <v>1218.912065406599</v>
+        <v>1218.9120654066</v>
       </c>
       <c r="M14" t="n">
-        <v>1850.62987638991</v>
+        <v>1850.629876389911</v>
       </c>
       <c r="N14" t="n">
-        <v>2477.937544449755</v>
+        <v>2477.937544449756</v>
       </c>
       <c r="O14" t="n">
-        <v>3025.098749216832</v>
+        <v>3025.098749216833</v>
       </c>
       <c r="P14" t="n">
-        <v>3454.413795556125</v>
+        <v>3454.413795556126</v>
       </c>
       <c r="Q14" t="n">
-        <v>3699.589756331025</v>
+        <v>3699.589756331026</v>
       </c>
       <c r="R14" t="n">
-        <v>3699.589756331025</v>
+        <v>3699.589756331026</v>
       </c>
       <c r="S14" t="n">
-        <v>3543.374718827853</v>
+        <v>3543.374718827854</v>
       </c>
       <c r="T14" t="n">
-        <v>3543.374718827853</v>
+        <v>3328.574857095566</v>
       </c>
       <c r="U14" t="n">
-        <v>3289.683015573004</v>
+        <v>3074.883153840717</v>
       </c>
       <c r="V14" t="n">
-        <v>3289.683015573004</v>
+        <v>2743.820266497146</v>
       </c>
       <c r="W14" t="n">
-        <v>2936.91436030289</v>
+        <v>2391.051611227032</v>
       </c>
       <c r="X14" t="n">
-        <v>2563.44860204181</v>
+        <v>2017.585852965952</v>
       </c>
       <c r="Y14" t="n">
-        <v>2401.681789889329</v>
+        <v>1627.44652099014</v>
       </c>
     </row>
     <row r="15">
@@ -5345,25 +5345,25 @@
         <v>504.7885856053927</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2540276322776</v>
+        <v>358.2540276322777</v>
       </c>
       <c r="G15" t="n">
-        <v>220.8126299914995</v>
+        <v>220.8126299914996</v>
       </c>
       <c r="H15" t="n">
         <v>119.8966521363041</v>
       </c>
       <c r="I15" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662053</v>
       </c>
       <c r="J15" t="n">
-        <v>89.75387383629338</v>
+        <v>73.99179512662053</v>
       </c>
       <c r="K15" t="n">
-        <v>157.3616934996499</v>
+        <v>157.3616934996496</v>
       </c>
       <c r="L15" t="n">
-        <v>661.7232333657678</v>
+        <v>661.7232333657676</v>
       </c>
       <c r="M15" t="n">
         <v>1302.268582832872</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>541.0074713315958</v>
+        <v>543.7432307293825</v>
       </c>
       <c r="C16" t="n">
-        <v>541.0074713315958</v>
+        <v>543.7432307293825</v>
       </c>
       <c r="D16" t="n">
-        <v>537.4016812115406</v>
+        <v>543.7432307293825</v>
       </c>
       <c r="E16" t="n">
-        <v>389.4885876291474</v>
+        <v>543.7432307293825</v>
       </c>
       <c r="F16" t="n">
-        <v>242.5986401312371</v>
+        <v>396.8532832314721</v>
       </c>
       <c r="G16" t="n">
-        <v>73.9917951266205</v>
+        <v>228.2464382268555</v>
       </c>
       <c r="H16" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662053</v>
       </c>
       <c r="I16" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662053</v>
       </c>
       <c r="J16" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662053</v>
       </c>
       <c r="K16" t="n">
-        <v>175.03972472223</v>
+        <v>175.0397247222301</v>
       </c>
       <c r="L16" t="n">
-        <v>359.872719623048</v>
+        <v>359.8727196230481</v>
       </c>
       <c r="M16" t="n">
-        <v>565.1423203422855</v>
+        <v>565.1423203422856</v>
       </c>
       <c r="N16" t="n">
-        <v>770.9656851783894</v>
+        <v>770.9656851783895</v>
       </c>
       <c r="O16" t="n">
-        <v>945.0605805669879</v>
+        <v>945.0605805669882</v>
       </c>
       <c r="P16" t="n">
-        <v>1070.508157165603</v>
+        <v>1070.508157165604</v>
       </c>
       <c r="Q16" t="n">
         <v>1073.926476585963</v>
       </c>
       <c r="R16" t="n">
-        <v>943.4485153053656</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="S16" t="n">
-        <v>943.4485153053656</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="T16" t="n">
-        <v>943.4485153053656</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="U16" t="n">
-        <v>943.4485153053656</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="V16" t="n">
-        <v>943.4485153053656</v>
+        <v>819.2419883800764</v>
       </c>
       <c r="W16" t="n">
-        <v>943.4485153053656</v>
+        <v>819.2419883800764</v>
       </c>
       <c r="X16" t="n">
-        <v>943.4485153053656</v>
+        <v>591.252437482059</v>
       </c>
       <c r="Y16" t="n">
-        <v>722.6559361618355</v>
+        <v>543.7432307293825</v>
       </c>
     </row>
     <row r="17">
@@ -5491,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2015.081949825207</v>
+        <v>2452.998035652587</v>
       </c>
       <c r="C17" t="n">
-        <v>1646.119432884795</v>
+        <v>2084.035518712175</v>
       </c>
       <c r="D17" t="n">
-        <v>1287.853734278045</v>
+        <v>1725.769820105425</v>
       </c>
       <c r="E17" t="n">
-        <v>902.0654816798005</v>
+        <v>1339.98156750718</v>
       </c>
       <c r="F17" t="n">
-        <v>491.079576890193</v>
+        <v>928.9956627175729</v>
       </c>
       <c r="G17" t="n">
-        <v>73.99179512662052</v>
+        <v>511.9078809540005</v>
       </c>
       <c r="H17" t="n">
-        <v>73.99179512662052</v>
+        <v>193.6847657265099</v>
       </c>
       <c r="I17" t="n">
-        <v>73.99179512662052</v>
+        <v>73.99179512662053</v>
       </c>
       <c r="J17" t="n">
-        <v>262.6316941403561</v>
+        <v>262.6316941403563</v>
       </c>
       <c r="K17" t="n">
-        <v>666.098807160401</v>
+        <v>666.0988071604013</v>
       </c>
       <c r="L17" t="n">
-        <v>1218.912065406599</v>
+        <v>1218.9120654066</v>
       </c>
       <c r="M17" t="n">
         <v>1850.62987638991</v>
@@ -5545,22 +5545,22 @@
         <v>3699.589756331026</v>
       </c>
       <c r="T17" t="n">
-        <v>3699.589756331026</v>
+        <v>3484.789894598737</v>
       </c>
       <c r="U17" t="n">
-        <v>3699.589756331026</v>
+        <v>3231.098191343888</v>
       </c>
       <c r="V17" t="n">
-        <v>3518.055535396335</v>
+        <v>2900.035304000317</v>
       </c>
       <c r="W17" t="n">
-        <v>3165.28688012622</v>
+        <v>2900.035304000317</v>
       </c>
       <c r="X17" t="n">
-        <v>2791.82112186514</v>
+        <v>2900.035304000317</v>
       </c>
       <c r="Y17" t="n">
-        <v>2401.681789889329</v>
+        <v>2839.597875716709</v>
       </c>
     </row>
     <row r="18">
@@ -5591,28 +5591,28 @@
         <v>119.8966521363041</v>
       </c>
       <c r="I18" t="n">
-        <v>73.99179512662052</v>
+        <v>73.99179512662053</v>
       </c>
       <c r="J18" t="n">
-        <v>73.99179512662052</v>
+        <v>73.99179512662053</v>
       </c>
       <c r="K18" t="n">
-        <v>141.599614789977</v>
+        <v>232.0072486300739</v>
       </c>
       <c r="L18" t="n">
-        <v>645.9611546560949</v>
+        <v>736.3687884961919</v>
       </c>
       <c r="M18" t="n">
-        <v>1286.506504123199</v>
+        <v>1376.914137963296</v>
       </c>
       <c r="N18" t="n">
-        <v>1485.163245775863</v>
+        <v>2050.119830216078</v>
       </c>
       <c r="O18" t="n">
-        <v>2034.599254528585</v>
+        <v>2209.632142884838</v>
       </c>
       <c r="P18" t="n">
-        <v>2458.567023009421</v>
+        <v>2633.599911365674</v>
       </c>
       <c r="Q18" t="n">
         <v>2656.336852567651</v>
@@ -5649,49 +5649,49 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>73.99179512662052</v>
+        <v>224.1084345389563</v>
       </c>
       <c r="C19" t="n">
-        <v>73.99179512662052</v>
+        <v>224.1084345389563</v>
       </c>
       <c r="D19" t="n">
-        <v>73.99179512662052</v>
+        <v>73.99179512662053</v>
       </c>
       <c r="E19" t="n">
-        <v>73.99179512662052</v>
+        <v>73.99179512662053</v>
       </c>
       <c r="F19" t="n">
-        <v>73.99179512662052</v>
+        <v>73.99179512662053</v>
       </c>
       <c r="G19" t="n">
-        <v>73.99179512662052</v>
+        <v>73.99179512662053</v>
       </c>
       <c r="H19" t="n">
-        <v>73.99179512662052</v>
+        <v>73.99179512662053</v>
       </c>
       <c r="I19" t="n">
-        <v>73.99179512662052</v>
+        <v>73.99179512662053</v>
       </c>
       <c r="J19" t="n">
-        <v>73.99179512662052</v>
+        <v>73.99179512662053</v>
       </c>
       <c r="K19" t="n">
-        <v>175.03972472223</v>
+        <v>175.0397247222301</v>
       </c>
       <c r="L19" t="n">
-        <v>359.872719623048</v>
+        <v>359.8727196230481</v>
       </c>
       <c r="M19" t="n">
-        <v>565.1423203422855</v>
+        <v>565.1423203422856</v>
       </c>
       <c r="N19" t="n">
-        <v>770.9656851783894</v>
+        <v>770.9656851783895</v>
       </c>
       <c r="O19" t="n">
-        <v>945.0605805669879</v>
+        <v>945.0605805669882</v>
       </c>
       <c r="P19" t="n">
-        <v>1070.508157165603</v>
+        <v>1070.508157165604</v>
       </c>
       <c r="Q19" t="n">
         <v>1073.926476585963</v>
@@ -5706,19 +5706,19 @@
         <v>1073.926476585963</v>
       </c>
       <c r="U19" t="n">
-        <v>784.7743001636427</v>
+        <v>784.7743001636429</v>
       </c>
       <c r="V19" t="n">
-        <v>530.0898119577558</v>
+        <v>530.0898119577561</v>
       </c>
       <c r="W19" t="n">
-        <v>240.6726419207952</v>
+        <v>240.6726419207955</v>
       </c>
       <c r="X19" t="n">
-        <v>73.99179512662052</v>
+        <v>240.6726419207955</v>
       </c>
       <c r="Y19" t="n">
-        <v>73.99179512662052</v>
+        <v>224.1084345389563</v>
       </c>
     </row>
     <row r="20">
@@ -5728,46 +5728,46 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2196.616170759898</v>
+        <v>2218.321938686442</v>
       </c>
       <c r="C20" t="n">
-        <v>1827.653653819486</v>
+        <v>1849.35942174603</v>
       </c>
       <c r="D20" t="n">
-        <v>1469.387955212736</v>
+        <v>1491.09372313928</v>
       </c>
       <c r="E20" t="n">
-        <v>1083.599702614492</v>
+        <v>1105.305470541036</v>
       </c>
       <c r="F20" t="n">
-        <v>672.6137978248842</v>
+        <v>694.3195657514282</v>
       </c>
       <c r="G20" t="n">
-        <v>255.5260160613116</v>
+        <v>277.2317839878556</v>
       </c>
       <c r="H20" t="n">
         <v>193.6847657265099</v>
       </c>
       <c r="I20" t="n">
-        <v>73.99179512662052</v>
+        <v>73.99179512662053</v>
       </c>
       <c r="J20" t="n">
-        <v>262.6316941403561</v>
+        <v>262.6316941403566</v>
       </c>
       <c r="K20" t="n">
-        <v>666.098807160401</v>
+        <v>666.0988071604013</v>
       </c>
       <c r="L20" t="n">
-        <v>1218.912065406599</v>
+        <v>1218.9120654066</v>
       </c>
       <c r="M20" t="n">
-        <v>1850.62987638991</v>
+        <v>1850.629876389911</v>
       </c>
       <c r="N20" t="n">
         <v>2477.937544449756</v>
       </c>
       <c r="O20" t="n">
-        <v>3025.098749216832</v>
+        <v>3025.098749216833</v>
       </c>
       <c r="P20" t="n">
         <v>3454.413795556126</v>
@@ -5788,16 +5788,16 @@
         <v>3699.589756331026</v>
       </c>
       <c r="V20" t="n">
-        <v>3699.589756331026</v>
+        <v>3368.526868987456</v>
       </c>
       <c r="W20" t="n">
-        <v>3346.821101060912</v>
+        <v>3368.526868987456</v>
       </c>
       <c r="X20" t="n">
-        <v>2973.355342799832</v>
+        <v>2995.061110726376</v>
       </c>
       <c r="Y20" t="n">
-        <v>2583.21601082402</v>
+        <v>2604.921778750564</v>
       </c>
     </row>
     <row r="21">
@@ -5828,28 +5828,28 @@
         <v>119.8966521363041</v>
       </c>
       <c r="I21" t="n">
-        <v>73.99179512662052</v>
+        <v>73.99179512662053</v>
       </c>
       <c r="J21" t="n">
-        <v>192.6510469835159</v>
+        <v>73.99179512662053</v>
       </c>
       <c r="K21" t="n">
-        <v>522.0794512893252</v>
+        <v>403.42019943243</v>
       </c>
       <c r="L21" t="n">
-        <v>659.3090493050186</v>
+        <v>540.6497974481233</v>
       </c>
       <c r="M21" t="n">
-        <v>1299.854398772123</v>
+        <v>1181.195146915227</v>
       </c>
       <c r="N21" t="n">
-        <v>1973.060091024904</v>
+        <v>1660.196134132116</v>
       </c>
       <c r="O21" t="n">
-        <v>2132.572403693664</v>
+        <v>2209.632142884838</v>
       </c>
       <c r="P21" t="n">
-        <v>2556.5401721745</v>
+        <v>2633.599911365674</v>
       </c>
       <c r="Q21" t="n">
         <v>2656.336852567651</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>228.2464382268554</v>
+        <v>390.8410716369206</v>
       </c>
       <c r="C22" t="n">
-        <v>228.2464382268554</v>
+        <v>221.9048887090136</v>
       </c>
       <c r="D22" t="n">
-        <v>228.2464382268554</v>
+        <v>221.9048887090136</v>
       </c>
       <c r="E22" t="n">
-        <v>228.2464382268554</v>
+        <v>73.99179512662053</v>
       </c>
       <c r="F22" t="n">
-        <v>228.2464382268554</v>
+        <v>73.99179512662053</v>
       </c>
       <c r="G22" t="n">
-        <v>228.2464382268554</v>
+        <v>73.99179512662053</v>
       </c>
       <c r="H22" t="n">
-        <v>73.99179512662052</v>
+        <v>73.99179512662053</v>
       </c>
       <c r="I22" t="n">
-        <v>73.99179512662052</v>
+        <v>73.99179512662053</v>
       </c>
       <c r="J22" t="n">
-        <v>73.99179512662052</v>
+        <v>73.99179512662053</v>
       </c>
       <c r="K22" t="n">
-        <v>175.03972472223</v>
+        <v>175.0397247222301</v>
       </c>
       <c r="L22" t="n">
-        <v>359.872719623048</v>
+        <v>359.8727196230481</v>
       </c>
       <c r="M22" t="n">
-        <v>565.1423203422855</v>
+        <v>565.1423203422856</v>
       </c>
       <c r="N22" t="n">
-        <v>770.9656851783894</v>
+        <v>770.9656851783895</v>
       </c>
       <c r="O22" t="n">
-        <v>945.0605805669879</v>
+        <v>945.0605805669882</v>
       </c>
       <c r="P22" t="n">
-        <v>1070.508157165603</v>
+        <v>1070.508157165604</v>
       </c>
       <c r="Q22" t="n">
         <v>1073.926476585963</v>
       </c>
       <c r="R22" t="n">
-        <v>943.4485153053656</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="S22" t="n">
-        <v>943.4485153053656</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="T22" t="n">
-        <v>943.4485153053656</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="U22" t="n">
-        <v>943.4485153053656</v>
+        <v>784.7743001636429</v>
       </c>
       <c r="V22" t="n">
-        <v>688.7640270994788</v>
+        <v>680.2582416738812</v>
       </c>
       <c r="W22" t="n">
-        <v>399.3468570625182</v>
+        <v>390.8410716369206</v>
       </c>
       <c r="X22" t="n">
-        <v>399.3468570625182</v>
+        <v>390.8410716369206</v>
       </c>
       <c r="Y22" t="n">
-        <v>399.3468570625182</v>
+        <v>390.8410716369206</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2073.220921539783</v>
+        <v>2191.681869201406</v>
       </c>
       <c r="C23" t="n">
-        <v>1704.258404599372</v>
+        <v>1822.719352260994</v>
       </c>
       <c r="D23" t="n">
-        <v>1345.992705992621</v>
+        <v>1464.453653654244</v>
       </c>
       <c r="E23" t="n">
-        <v>1226.766272743487</v>
+        <v>1078.665401055999</v>
       </c>
       <c r="F23" t="n">
-        <v>815.7803679538799</v>
+        <v>667.6794962663919</v>
       </c>
       <c r="G23" t="n">
-        <v>399.1946814616588</v>
+        <v>251.0938097741708</v>
       </c>
       <c r="H23" t="n">
-        <v>86.11364943189743</v>
+        <v>86.11364943189741</v>
       </c>
       <c r="I23" t="n">
-        <v>86.11364943189743</v>
+        <v>86.11364943189741</v>
       </c>
       <c r="J23" t="n">
-        <v>316.520224282624</v>
+        <v>316.5202242826244</v>
       </c>
       <c r="K23" t="n">
-        <v>782.5847574885283</v>
+        <v>782.5847574885292</v>
       </c>
       <c r="L23" t="n">
         <v>1413.055650717816</v>
       </c>
       <c r="M23" t="n">
-        <v>2131.182543644154</v>
+        <v>2131.182543644155</v>
       </c>
       <c r="N23" t="n">
-        <v>2846.297482930779</v>
+        <v>2846.29748293078</v>
       </c>
       <c r="O23" t="n">
-        <v>3476.372603996237</v>
+        <v>3476.372603996238</v>
       </c>
       <c r="P23" t="n">
         <v>3976.45275961495</v>
       </c>
       <c r="Q23" t="n">
-        <v>4274.770370373406</v>
+        <v>4274.770370373405</v>
       </c>
       <c r="R23" t="n">
         <v>4305.682471594871</v>
       </c>
       <c r="S23" t="n">
-        <v>4160.908930087623</v>
+        <v>4160.908930087622</v>
       </c>
       <c r="T23" t="n">
-        <v>4160.908930087623</v>
+        <v>3948.306990405675</v>
       </c>
       <c r="U23" t="n">
-        <v>3907.257394454482</v>
+        <v>3694.655454772534</v>
       </c>
       <c r="V23" t="n">
-        <v>3576.194507110911</v>
+        <v>3694.655454772534</v>
       </c>
       <c r="W23" t="n">
-        <v>3223.425851840797</v>
+        <v>3341.886799502419</v>
       </c>
       <c r="X23" t="n">
-        <v>2849.960093579717</v>
+        <v>2968.421041241339</v>
       </c>
       <c r="Y23" t="n">
-        <v>2459.820761603905</v>
+        <v>2578.281709265528</v>
       </c>
     </row>
     <row r="24">
@@ -6065,28 +6065,28 @@
         <v>122.7691181380216</v>
       </c>
       <c r="I24" t="n">
-        <v>86.11364943189743</v>
+        <v>86.11364943189741</v>
       </c>
       <c r="J24" t="n">
         <v>229.6488472869303</v>
       </c>
       <c r="K24" t="n">
-        <v>339.7736208434873</v>
+        <v>344.783594322381</v>
       </c>
       <c r="L24" t="n">
-        <v>901.3044521370133</v>
+        <v>539.1824837654824</v>
       </c>
       <c r="M24" t="n">
-        <v>1608.56366819863</v>
+        <v>1246.441699827099</v>
       </c>
       <c r="N24" t="n">
-        <v>1875.699993981258</v>
+        <v>1988.126976209845</v>
       </c>
       <c r="O24" t="n">
-        <v>2418.261244643319</v>
+        <v>2210.284729784829</v>
       </c>
       <c r="P24" t="n">
-        <v>2577.229361417491</v>
+        <v>2369.252846559001</v>
       </c>
       <c r="Q24" t="n">
         <v>2633.576141175236</v>
@@ -6123,43 +6123,43 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>372.2338869749246</v>
+        <v>255.0498323598043</v>
       </c>
       <c r="C25" t="n">
-        <v>372.2338869749246</v>
+        <v>86.11364943189741</v>
       </c>
       <c r="D25" t="n">
-        <v>372.2338869749246</v>
+        <v>86.11364943189741</v>
       </c>
       <c r="E25" t="n">
-        <v>372.2338869749246</v>
+        <v>86.11364943189741</v>
       </c>
       <c r="F25" t="n">
-        <v>372.2338869749246</v>
+        <v>86.11364943189741</v>
       </c>
       <c r="G25" t="n">
-        <v>203.8522646237892</v>
+        <v>86.11364943189741</v>
       </c>
       <c r="H25" t="n">
-        <v>203.8522646237892</v>
+        <v>86.11364943189741</v>
       </c>
       <c r="I25" t="n">
-        <v>86.11364943189743</v>
+        <v>86.11364943189741</v>
       </c>
       <c r="J25" t="n">
-        <v>86.11364943189743</v>
+        <v>86.11364943189741</v>
       </c>
       <c r="K25" t="n">
         <v>212.8076375348878</v>
       </c>
       <c r="L25" t="n">
-        <v>430.4587576962463</v>
+        <v>430.4587576962462</v>
       </c>
       <c r="M25" t="n">
-        <v>670.3304700620228</v>
+        <v>670.3304700620226</v>
       </c>
       <c r="N25" t="n">
-        <v>909.9331856692332</v>
+        <v>909.9331856692331</v>
       </c>
       <c r="O25" t="n">
         <v>1115.228778841303</v>
@@ -6171,28 +6171,28 @@
         <v>1289.276287324572</v>
       </c>
       <c r="R25" t="n">
-        <v>1168.925155535959</v>
+        <v>1289.276287324572</v>
       </c>
       <c r="S25" t="n">
-        <v>965.4098873949426</v>
+        <v>1289.276287324572</v>
       </c>
       <c r="T25" t="n">
-        <v>740.743005681273</v>
+        <v>1289.276287324572</v>
       </c>
       <c r="U25" t="n">
-        <v>740.743005681273</v>
+        <v>1000.13639577426</v>
       </c>
       <c r="V25" t="n">
-        <v>740.743005681273</v>
+        <v>745.4519075683728</v>
       </c>
       <c r="W25" t="n">
-        <v>451.3258356443123</v>
+        <v>483.0393832578217</v>
       </c>
       <c r="X25" t="n">
-        <v>451.3258356443123</v>
+        <v>255.0498323598043</v>
       </c>
       <c r="Y25" t="n">
-        <v>372.2338869749246</v>
+        <v>255.0498323598043</v>
       </c>
     </row>
     <row r="26">
@@ -6202,31 +6202,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2026.701708859132</v>
+        <v>1928.796836099286</v>
       </c>
       <c r="C26" t="n">
-        <v>1657.739191918721</v>
+        <v>1559.834319158875</v>
       </c>
       <c r="D26" t="n">
-        <v>1299.47349331197</v>
+        <v>1201.568620552124</v>
       </c>
       <c r="E26" t="n">
-        <v>913.685240713726</v>
+        <v>815.7803679538799</v>
       </c>
       <c r="F26" t="n">
-        <v>502.6993359241185</v>
+        <v>815.7803679538799</v>
       </c>
       <c r="G26" t="n">
-        <v>86.11364943189741</v>
+        <v>399.1946814616588</v>
       </c>
       <c r="H26" t="n">
-        <v>86.11364943189741</v>
+        <v>86.11364943189743</v>
       </c>
       <c r="I26" t="n">
-        <v>86.11364943189741</v>
+        <v>86.11364943189743</v>
       </c>
       <c r="J26" t="n">
-        <v>316.5202242826242</v>
+        <v>316.5202242826244</v>
       </c>
       <c r="K26" t="n">
         <v>782.5847574885288</v>
@@ -6244,34 +6244,34 @@
         <v>3476.372603996237</v>
       </c>
       <c r="P26" t="n">
-        <v>3976.452759614949</v>
+        <v>3976.45275961495</v>
       </c>
       <c r="Q26" t="n">
-        <v>4274.770370373405</v>
+        <v>4274.770370373406</v>
       </c>
       <c r="R26" t="n">
         <v>4305.682471594871</v>
       </c>
       <c r="S26" t="n">
-        <v>4160.908930087622</v>
+        <v>4160.908930087623</v>
       </c>
       <c r="T26" t="n">
-        <v>3948.306990405675</v>
+        <v>3948.306990405676</v>
       </c>
       <c r="U26" t="n">
-        <v>3694.655454772534</v>
+        <v>3762.833309013985</v>
       </c>
       <c r="V26" t="n">
-        <v>3363.592567428963</v>
+        <v>3431.770421670414</v>
       </c>
       <c r="W26" t="n">
-        <v>3176.906639160146</v>
+        <v>3079.0017664003</v>
       </c>
       <c r="X26" t="n">
-        <v>2803.440880899066</v>
+        <v>2705.53600813922</v>
       </c>
       <c r="Y26" t="n">
-        <v>2413.301548923254</v>
+        <v>2315.396676163408</v>
       </c>
     </row>
     <row r="27">
@@ -6293,7 +6293,7 @@
         <v>504.7978651640974</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2633071909823</v>
+        <v>358.2633071909824</v>
       </c>
       <c r="G27" t="n">
         <v>221.0905542041166</v>
@@ -6302,7 +6302,7 @@
         <v>122.7691181380216</v>
       </c>
       <c r="I27" t="n">
-        <v>86.11364943189741</v>
+        <v>86.11364943189743</v>
       </c>
       <c r="J27" t="n">
         <v>229.6488472869303</v>
@@ -6314,13 +6314,13 @@
         <v>901.3044521370133</v>
       </c>
       <c r="M27" t="n">
-        <v>1608.56366819863</v>
+        <v>1223.765328248207</v>
       </c>
       <c r="N27" t="n">
-        <v>1875.699993981258</v>
+        <v>1490.901654030835</v>
       </c>
       <c r="O27" t="n">
-        <v>2418.261244643319</v>
+        <v>2102.983103689781</v>
       </c>
       <c r="P27" t="n">
         <v>2577.229361417491</v>
@@ -6360,43 +6360,43 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>86.11364943189741</v>
+        <v>254.4952717830328</v>
       </c>
       <c r="C28" t="n">
-        <v>86.11364943189741</v>
+        <v>254.4952717830328</v>
       </c>
       <c r="D28" t="n">
-        <v>86.11364943189741</v>
+        <v>254.4952717830328</v>
       </c>
       <c r="E28" t="n">
-        <v>86.11364943189741</v>
+        <v>254.4952717830328</v>
       </c>
       <c r="F28" t="n">
-        <v>86.11364943189741</v>
+        <v>254.4952717830328</v>
       </c>
       <c r="G28" t="n">
-        <v>86.11364943189741</v>
+        <v>86.11364943189743</v>
       </c>
       <c r="H28" t="n">
-        <v>86.11364943189741</v>
+        <v>86.11364943189743</v>
       </c>
       <c r="I28" t="n">
-        <v>86.11364943189741</v>
+        <v>86.11364943189743</v>
       </c>
       <c r="J28" t="n">
-        <v>86.11364943189741</v>
+        <v>86.11364943189743</v>
       </c>
       <c r="K28" t="n">
         <v>212.8076375348878</v>
       </c>
       <c r="L28" t="n">
-        <v>430.4587576962463</v>
+        <v>430.4587576962462</v>
       </c>
       <c r="M28" t="n">
-        <v>670.3304700620228</v>
+        <v>670.3304700620226</v>
       </c>
       <c r="N28" t="n">
-        <v>909.9331856692332</v>
+        <v>909.9331856692331</v>
       </c>
       <c r="O28" t="n">
         <v>1115.228778841303</v>
@@ -6411,25 +6411,25 @@
         <v>1289.276287324572</v>
       </c>
       <c r="S28" t="n">
-        <v>1289.276287324572</v>
+        <v>1085.761019183555</v>
       </c>
       <c r="T28" t="n">
-        <v>1064.609405610902</v>
+        <v>861.0941374698855</v>
       </c>
       <c r="U28" t="n">
-        <v>1064.609405610902</v>
+        <v>571.9542459195734</v>
       </c>
       <c r="V28" t="n">
-        <v>809.9249174050152</v>
+        <v>571.9542459195734</v>
       </c>
       <c r="W28" t="n">
-        <v>520.5077473680547</v>
+        <v>571.9542459195734</v>
       </c>
       <c r="X28" t="n">
-        <v>292.5181964700373</v>
+        <v>571.9542459195734</v>
       </c>
       <c r="Y28" t="n">
-        <v>267.7621142621371</v>
+        <v>436.1437366132725</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2440.118683540002</v>
+        <v>2339.782740888894</v>
       </c>
       <c r="C29" t="n">
-        <v>2071.156166599591</v>
+        <v>1970.820223948482</v>
       </c>
       <c r="D29" t="n">
-        <v>1712.89046799284</v>
+        <v>1612.554525341732</v>
       </c>
       <c r="E29" t="n">
-        <v>1327.102215394596</v>
+        <v>1226.766272743487</v>
       </c>
       <c r="F29" t="n">
-        <v>916.1163106049881</v>
+        <v>815.7803679538798</v>
       </c>
       <c r="G29" t="n">
-        <v>499.5306241127671</v>
+        <v>399.1946814616588</v>
       </c>
       <c r="H29" t="n">
-        <v>186.4495920830057</v>
+        <v>86.11364943189741</v>
       </c>
       <c r="I29" t="n">
         <v>86.11364943189741</v>
@@ -6466,7 +6466,7 @@
         <v>316.5202242826242</v>
       </c>
       <c r="K29" t="n">
-        <v>782.5847574885288</v>
+        <v>782.5847574885287</v>
       </c>
       <c r="L29" t="n">
         <v>1413.055650717816</v>
@@ -6496,19 +6496,19 @@
         <v>4305.682471594871</v>
       </c>
       <c r="U29" t="n">
-        <v>4052.030935961729</v>
+        <v>4173.819213803592</v>
       </c>
       <c r="V29" t="n">
-        <v>3720.968048618159</v>
+        <v>3842.756326460022</v>
       </c>
       <c r="W29" t="n">
-        <v>3368.199393348044</v>
+        <v>3489.987671189907</v>
       </c>
       <c r="X29" t="n">
-        <v>2994.733635086965</v>
+        <v>3116.521912928828</v>
       </c>
       <c r="Y29" t="n">
-        <v>2826.718523604124</v>
+        <v>2726.382580953016</v>
       </c>
     </row>
     <row r="30">
@@ -6530,7 +6530,7 @@
         <v>504.7978651640974</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2633071909823</v>
+        <v>358.2633071909824</v>
       </c>
       <c r="G30" t="n">
         <v>221.0905542041166</v>
@@ -6545,19 +6545,19 @@
         <v>229.6488472869303</v>
       </c>
       <c r="K30" t="n">
-        <v>339.7736208434873</v>
+        <v>339.7736208434872</v>
       </c>
       <c r="L30" t="n">
-        <v>901.3044521370133</v>
+        <v>901.3044521370132</v>
       </c>
       <c r="M30" t="n">
-        <v>1608.56366819863</v>
+        <v>1147.51565508613</v>
       </c>
       <c r="N30" t="n">
-        <v>1875.699993981258</v>
+        <v>1490.901654030835</v>
       </c>
       <c r="O30" t="n">
-        <v>2418.261244643319</v>
+        <v>2102.983103689781</v>
       </c>
       <c r="P30" t="n">
         <v>2577.229361417491</v>
@@ -6597,10 +6597,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>86.11364943189741</v>
+        <v>231.3678558177425</v>
       </c>
       <c r="C31" t="n">
-        <v>86.11364943189741</v>
+        <v>231.3678558177425</v>
       </c>
       <c r="D31" t="n">
         <v>86.11364943189741</v>
@@ -6627,13 +6627,13 @@
         <v>212.8076375348878</v>
       </c>
       <c r="L31" t="n">
-        <v>430.4587576962463</v>
+        <v>430.4587576962462</v>
       </c>
       <c r="M31" t="n">
-        <v>670.3304700620228</v>
+        <v>670.3304700620226</v>
       </c>
       <c r="N31" t="n">
-        <v>909.9331856692332</v>
+        <v>909.9331856692331</v>
       </c>
       <c r="O31" t="n">
         <v>1115.228778841303</v>
@@ -6663,10 +6663,10 @@
         <v>231.3678558177425</v>
       </c>
       <c r="X31" t="n">
-        <v>86.11364943189741</v>
+        <v>231.3678558177425</v>
       </c>
       <c r="Y31" t="n">
-        <v>86.11364943189741</v>
+        <v>231.3678558177425</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2440.118683540002</v>
+        <v>2127.037651510241</v>
       </c>
       <c r="C32" t="n">
-        <v>2071.156166599591</v>
+        <v>1758.075134569829</v>
       </c>
       <c r="D32" t="n">
-        <v>1712.89046799284</v>
+        <v>1399.809435963079</v>
       </c>
       <c r="E32" t="n">
-        <v>1327.102215394596</v>
+        <v>1014.021183364834</v>
       </c>
       <c r="F32" t="n">
-        <v>916.1163106049883</v>
+        <v>603.0352785752268</v>
       </c>
       <c r="G32" t="n">
-        <v>499.5306241127672</v>
+        <v>186.4495920830058</v>
       </c>
       <c r="H32" t="n">
         <v>186.4495920830058</v>
       </c>
       <c r="I32" t="n">
-        <v>86.11364943189743</v>
+        <v>86.11364943189741</v>
       </c>
       <c r="J32" t="n">
-        <v>316.520224282624</v>
+        <v>316.5202242826242</v>
       </c>
       <c r="K32" t="n">
-        <v>782.5847574885288</v>
+        <v>782.5847574885287</v>
       </c>
       <c r="L32" t="n">
         <v>1413.055650717816</v>
       </c>
       <c r="M32" t="n">
-        <v>2131.182543644155</v>
+        <v>2131.182543644154</v>
       </c>
       <c r="N32" t="n">
-        <v>2846.29748293078</v>
+        <v>2846.297482930779</v>
       </c>
       <c r="O32" t="n">
-        <v>3476.372603996238</v>
+        <v>3476.372603996237</v>
       </c>
       <c r="P32" t="n">
-        <v>3976.45275961495</v>
+        <v>3976.452759614949</v>
       </c>
       <c r="Q32" t="n">
-        <v>4274.770370373406</v>
+        <v>4274.770370373405</v>
       </c>
       <c r="R32" t="n">
         <v>4305.682471594871</v>
       </c>
       <c r="S32" t="n">
-        <v>4305.682471594871</v>
+        <v>4160.908930087622</v>
       </c>
       <c r="T32" t="n">
-        <v>4305.682471594871</v>
+        <v>3948.306990405675</v>
       </c>
       <c r="U32" t="n">
-        <v>4274.155156454701</v>
+        <v>3694.655454772534</v>
       </c>
       <c r="V32" t="n">
-        <v>3943.09226911113</v>
+        <v>3363.592567428963</v>
       </c>
       <c r="W32" t="n">
-        <v>3590.323613841016</v>
+        <v>3277.242581811254</v>
       </c>
       <c r="X32" t="n">
-        <v>3216.857855579936</v>
+        <v>2903.776823550174</v>
       </c>
       <c r="Y32" t="n">
-        <v>2826.718523604124</v>
+        <v>2513.637491574363</v>
       </c>
     </row>
     <row r="33">
@@ -6776,25 +6776,25 @@
         <v>122.7691181380216</v>
       </c>
       <c r="I33" t="n">
-        <v>86.11364943189743</v>
+        <v>86.11364943189741</v>
       </c>
       <c r="J33" t="n">
         <v>229.6488472869303</v>
       </c>
       <c r="K33" t="n">
-        <v>339.7736208434873</v>
+        <v>339.7736208434872</v>
       </c>
       <c r="L33" t="n">
-        <v>901.3044521370133</v>
+        <v>901.3044521370132</v>
       </c>
       <c r="M33" t="n">
-        <v>1608.56366819863</v>
+        <v>1223.765328248207</v>
       </c>
       <c r="N33" t="n">
-        <v>1875.699993981258</v>
+        <v>1490.901654030835</v>
       </c>
       <c r="O33" t="n">
-        <v>2418.261244643319</v>
+        <v>2102.983103689781</v>
       </c>
       <c r="P33" t="n">
         <v>2577.229361417491</v>
@@ -6834,43 +6834,43 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>86.11364943189743</v>
+        <v>86.11364943189741</v>
       </c>
       <c r="C34" t="n">
-        <v>86.11364943189743</v>
+        <v>86.11364943189741</v>
       </c>
       <c r="D34" t="n">
-        <v>86.11364943189743</v>
+        <v>86.11364943189741</v>
       </c>
       <c r="E34" t="n">
-        <v>86.11364943189743</v>
+        <v>86.11364943189741</v>
       </c>
       <c r="F34" t="n">
-        <v>86.11364943189743</v>
+        <v>86.11364943189741</v>
       </c>
       <c r="G34" t="n">
-        <v>86.11364943189743</v>
+        <v>86.11364943189741</v>
       </c>
       <c r="H34" t="n">
-        <v>86.11364943189743</v>
+        <v>86.11364943189741</v>
       </c>
       <c r="I34" t="n">
-        <v>86.11364943189743</v>
+        <v>86.11364943189741</v>
       </c>
       <c r="J34" t="n">
-        <v>86.11364943189743</v>
+        <v>86.11364943189741</v>
       </c>
       <c r="K34" t="n">
         <v>212.8076375348878</v>
       </c>
       <c r="L34" t="n">
-        <v>430.4587576962463</v>
+        <v>430.4587576962462</v>
       </c>
       <c r="M34" t="n">
-        <v>670.3304700620228</v>
+        <v>670.3304700620226</v>
       </c>
       <c r="N34" t="n">
-        <v>909.9331856692332</v>
+        <v>909.9331856692331</v>
       </c>
       <c r="O34" t="n">
         <v>1115.228778841303</v>
@@ -6888,22 +6888,22 @@
         <v>1289.276287324572</v>
       </c>
       <c r="T34" t="n">
-        <v>1147.344750123074</v>
+        <v>1140.147778368587</v>
       </c>
       <c r="U34" t="n">
-        <v>858.2048585727622</v>
+        <v>851.007886818275</v>
       </c>
       <c r="V34" t="n">
-        <v>603.5203703668753</v>
+        <v>596.3233986123881</v>
       </c>
       <c r="W34" t="n">
-        <v>314.1032003299148</v>
+        <v>306.9062285754275</v>
       </c>
       <c r="X34" t="n">
-        <v>86.11364943189743</v>
+        <v>306.9062285754275</v>
       </c>
       <c r="Y34" t="n">
-        <v>86.11364943189743</v>
+        <v>86.11364943189741</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1860.618981857836</v>
+        <v>2440.118683540002</v>
       </c>
       <c r="C35" t="n">
-        <v>1491.656464917425</v>
+        <v>2071.156166599591</v>
       </c>
       <c r="D35" t="n">
-        <v>1399.809435963079</v>
+        <v>1712.89046799284</v>
       </c>
       <c r="E35" t="n">
-        <v>1014.021183364834</v>
+        <v>1327.102215394596</v>
       </c>
       <c r="F35" t="n">
-        <v>603.0352785752268</v>
+        <v>916.1163106049883</v>
       </c>
       <c r="G35" t="n">
-        <v>186.4495920830058</v>
+        <v>499.5306241127672</v>
       </c>
       <c r="H35" t="n">
         <v>186.4495920830058</v>
@@ -6937,10 +6937,10 @@
         <v>86.11364943189743</v>
       </c>
       <c r="J35" t="n">
-        <v>316.520224282624</v>
+        <v>316.5202242826244</v>
       </c>
       <c r="K35" t="n">
-        <v>782.5847574885283</v>
+        <v>782.5847574885288</v>
       </c>
       <c r="L35" t="n">
         <v>1413.055650717816</v>
@@ -6964,25 +6964,25 @@
         <v>4305.682471594871</v>
       </c>
       <c r="S35" t="n">
-        <v>4160.908930087623</v>
+        <v>4305.682471594871</v>
       </c>
       <c r="T35" t="n">
-        <v>3948.306990405676</v>
+        <v>4093.080531912924</v>
       </c>
       <c r="U35" t="n">
-        <v>3694.655454772535</v>
+        <v>3921.386501184586</v>
       </c>
       <c r="V35" t="n">
-        <v>3363.592567428964</v>
+        <v>3590.323613841016</v>
       </c>
       <c r="W35" t="n">
-        <v>3010.823912158849</v>
+        <v>3590.323613841016</v>
       </c>
       <c r="X35" t="n">
-        <v>2637.35815389777</v>
+        <v>3216.857855579936</v>
       </c>
       <c r="Y35" t="n">
-        <v>2247.218821921958</v>
+        <v>2826.718523604124</v>
       </c>
     </row>
     <row r="36">
@@ -7025,13 +7025,13 @@
         <v>901.3044521370133</v>
       </c>
       <c r="M36" t="n">
-        <v>1608.56366819863</v>
+        <v>1147.51565508613</v>
       </c>
       <c r="N36" t="n">
-        <v>1875.699993981258</v>
+        <v>1490.901654030835</v>
       </c>
       <c r="O36" t="n">
-        <v>2418.261244643319</v>
+        <v>2102.983103689781</v>
       </c>
       <c r="P36" t="n">
         <v>2577.229361417491</v>
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>255.0498323598043</v>
+        <v>86.11364943189743</v>
       </c>
       <c r="C37" t="n">
         <v>86.11364943189743</v>
@@ -7101,13 +7101,13 @@
         <v>212.8076375348878</v>
       </c>
       <c r="L37" t="n">
-        <v>430.4587576962463</v>
+        <v>430.4587576962462</v>
       </c>
       <c r="M37" t="n">
-        <v>670.3304700620228</v>
+        <v>670.3304700620226</v>
       </c>
       <c r="N37" t="n">
-        <v>909.9331856692332</v>
+        <v>909.9331856692331</v>
       </c>
       <c r="O37" t="n">
         <v>1115.228778841303</v>
@@ -7122,25 +7122,25 @@
         <v>1289.276287324572</v>
       </c>
       <c r="S37" t="n">
-        <v>1085.761019183555</v>
+        <v>1289.276287324572</v>
       </c>
       <c r="T37" t="n">
-        <v>861.0941374698855</v>
+        <v>1147.344750123074</v>
       </c>
       <c r="U37" t="n">
-        <v>861.0941374698855</v>
+        <v>858.2048585727622</v>
       </c>
       <c r="V37" t="n">
-        <v>606.4096492639986</v>
+        <v>603.5203703668753</v>
       </c>
       <c r="W37" t="n">
-        <v>316.992479227038</v>
+        <v>314.1032003299148</v>
       </c>
       <c r="X37" t="n">
-        <v>316.992479227038</v>
+        <v>86.11364943189743</v>
       </c>
       <c r="Y37" t="n">
-        <v>316.992479227038</v>
+        <v>86.11364943189743</v>
       </c>
     </row>
     <row r="38">
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2440.118683540002</v>
+        <v>2054.330430941758</v>
       </c>
       <c r="C38" t="n">
-        <v>2071.156166599591</v>
+        <v>1685.367914001346</v>
       </c>
       <c r="D38" t="n">
-        <v>1712.89046799284</v>
+        <v>1327.102215394596</v>
       </c>
       <c r="E38" t="n">
         <v>1327.102215394596</v>
@@ -7174,22 +7174,22 @@
         <v>86.11364943189743</v>
       </c>
       <c r="J38" t="n">
-        <v>316.520224282624</v>
+        <v>316.5202242826244</v>
       </c>
       <c r="K38" t="n">
-        <v>782.5847574885283</v>
+        <v>782.5847574885292</v>
       </c>
       <c r="L38" t="n">
         <v>1413.055650717816</v>
       </c>
       <c r="M38" t="n">
-        <v>2131.182543644154</v>
+        <v>2131.182543644155</v>
       </c>
       <c r="N38" t="n">
-        <v>2846.297482930779</v>
+        <v>2846.29748293078</v>
       </c>
       <c r="O38" t="n">
-        <v>3476.372603996237</v>
+        <v>3476.372603996238</v>
       </c>
       <c r="P38" t="n">
         <v>3976.45275961495</v>
@@ -7201,25 +7201,25 @@
         <v>4305.682471594871</v>
       </c>
       <c r="S38" t="n">
-        <v>4305.682471594871</v>
+        <v>4160.908930087623</v>
       </c>
       <c r="T38" t="n">
-        <v>4093.080531912924</v>
+        <v>3948.306990405676</v>
       </c>
       <c r="U38" t="n">
-        <v>3839.428996279783</v>
+        <v>3694.655454772535</v>
       </c>
       <c r="V38" t="n">
-        <v>3839.428996279783</v>
+        <v>3557.304016512886</v>
       </c>
       <c r="W38" t="n">
-        <v>3486.660341009669</v>
+        <v>3204.535361242772</v>
       </c>
       <c r="X38" t="n">
-        <v>3216.857855579936</v>
+        <v>2831.069602981692</v>
       </c>
       <c r="Y38" t="n">
-        <v>2826.718523604124</v>
+        <v>2440.93027100588</v>
       </c>
     </row>
     <row r="39">
@@ -7262,13 +7262,13 @@
         <v>901.3044521370133</v>
       </c>
       <c r="M39" t="n">
-        <v>1608.56366819863</v>
+        <v>1223.765328248207</v>
       </c>
       <c r="N39" t="n">
-        <v>1875.699993981258</v>
+        <v>1490.901654030835</v>
       </c>
       <c r="O39" t="n">
-        <v>2418.261244643319</v>
+        <v>2102.983103689781</v>
       </c>
       <c r="P39" t="n">
         <v>2577.229361417491</v>
@@ -7308,10 +7308,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>236.2302888442331</v>
+        <v>86.11364943189743</v>
       </c>
       <c r="C40" t="n">
-        <v>236.2302888442331</v>
+        <v>86.11364943189743</v>
       </c>
       <c r="D40" t="n">
         <v>86.11364943189743</v>
@@ -7338,13 +7338,13 @@
         <v>212.8076375348878</v>
       </c>
       <c r="L40" t="n">
-        <v>430.4587576962463</v>
+        <v>430.4587576962462</v>
       </c>
       <c r="M40" t="n">
-        <v>670.3304700620228</v>
+        <v>670.3304700620226</v>
       </c>
       <c r="N40" t="n">
-        <v>909.9331856692332</v>
+        <v>909.9331856692331</v>
       </c>
       <c r="O40" t="n">
         <v>1115.228778841303</v>
@@ -7356,28 +7356,28 @@
         <v>1289.276287324572</v>
       </c>
       <c r="R40" t="n">
-        <v>1289.276287324572</v>
+        <v>1282.235427370661</v>
       </c>
       <c r="S40" t="n">
-        <v>1289.276287324572</v>
+        <v>1078.720159229644</v>
       </c>
       <c r="T40" t="n">
-        <v>1064.609405610902</v>
+        <v>1078.720159229644</v>
       </c>
       <c r="U40" t="n">
-        <v>939.6969070916674</v>
+        <v>789.5802676793318</v>
       </c>
       <c r="V40" t="n">
-        <v>685.0124188857806</v>
+        <v>534.8957794734449</v>
       </c>
       <c r="W40" t="n">
-        <v>685.0124188857806</v>
+        <v>534.8957794734449</v>
       </c>
       <c r="X40" t="n">
-        <v>457.0228679877632</v>
+        <v>306.9062285754275</v>
       </c>
       <c r="Y40" t="n">
-        <v>236.2302888442331</v>
+        <v>86.11364943189743</v>
       </c>
     </row>
     <row r="41">
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2054.330430941758</v>
+        <v>2339.782740888894</v>
       </c>
       <c r="C41" t="n">
-        <v>1685.367914001346</v>
+        <v>1970.820223948482</v>
       </c>
       <c r="D41" t="n">
-        <v>1327.102215394596</v>
+        <v>1612.554525341732</v>
       </c>
       <c r="E41" t="n">
-        <v>1327.102215394596</v>
+        <v>1226.766272743487</v>
       </c>
       <c r="F41" t="n">
-        <v>916.1163106049881</v>
+        <v>815.7803679538799</v>
       </c>
       <c r="G41" t="n">
-        <v>499.5306241127671</v>
+        <v>399.1946814616588</v>
       </c>
       <c r="H41" t="n">
-        <v>186.4495920830057</v>
+        <v>86.11364943189743</v>
       </c>
       <c r="I41" t="n">
-        <v>86.11364943189741</v>
+        <v>86.11364943189743</v>
       </c>
       <c r="J41" t="n">
-        <v>316.5202242826242</v>
+        <v>316.5202242826244</v>
       </c>
       <c r="K41" t="n">
         <v>782.5847574885288</v>
       </c>
       <c r="L41" t="n">
-        <v>1413.055650717815</v>
+        <v>1413.055650717816</v>
       </c>
       <c r="M41" t="n">
         <v>2131.182543644154</v>
@@ -7429,34 +7429,34 @@
         <v>3476.372603996237</v>
       </c>
       <c r="P41" t="n">
-        <v>3976.452759614949</v>
+        <v>3976.45275961495</v>
       </c>
       <c r="Q41" t="n">
-        <v>4274.770370373405</v>
+        <v>4274.770370373406</v>
       </c>
       <c r="R41" t="n">
         <v>4305.682471594871</v>
       </c>
       <c r="S41" t="n">
-        <v>4160.908930087622</v>
+        <v>4160.908930087623</v>
       </c>
       <c r="T41" t="n">
-        <v>3948.306990405675</v>
+        <v>4160.908930087623</v>
       </c>
       <c r="U41" t="n">
-        <v>3694.655454772534</v>
+        <v>3907.257394454482</v>
       </c>
       <c r="V41" t="n">
-        <v>3363.592567428963</v>
+        <v>3842.756326460022</v>
       </c>
       <c r="W41" t="n">
-        <v>3010.823912158849</v>
+        <v>3489.987671189907</v>
       </c>
       <c r="X41" t="n">
-        <v>2831.069602981692</v>
+        <v>3116.521912928828</v>
       </c>
       <c r="Y41" t="n">
-        <v>2440.93027100588</v>
+        <v>2726.382580953016</v>
       </c>
     </row>
     <row r="42">
@@ -7478,7 +7478,7 @@
         <v>504.7978651640974</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2633071909823</v>
+        <v>358.2633071909824</v>
       </c>
       <c r="G42" t="n">
         <v>221.0905542041166</v>
@@ -7487,7 +7487,7 @@
         <v>122.7691181380216</v>
       </c>
       <c r="I42" t="n">
-        <v>86.11364943189741</v>
+        <v>86.11364943189743</v>
       </c>
       <c r="J42" t="n">
         <v>229.6488472869303</v>
@@ -7499,13 +7499,13 @@
         <v>901.3044521370133</v>
       </c>
       <c r="M42" t="n">
-        <v>1608.56366819863</v>
+        <v>1223.765328248207</v>
       </c>
       <c r="N42" t="n">
-        <v>1875.699993981258</v>
+        <v>1490.901654030835</v>
       </c>
       <c r="O42" t="n">
-        <v>2418.261244643319</v>
+        <v>2102.983103689781</v>
       </c>
       <c r="P42" t="n">
         <v>2577.229361417491</v>
@@ -7545,43 +7545,43 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>203.8522646237892</v>
+        <v>86.11364943189743</v>
       </c>
       <c r="C43" t="n">
-        <v>203.8522646237892</v>
+        <v>86.11364943189743</v>
       </c>
       <c r="D43" t="n">
-        <v>203.8522646237892</v>
+        <v>86.11364943189743</v>
       </c>
       <c r="E43" t="n">
-        <v>203.8522646237892</v>
+        <v>86.11364943189743</v>
       </c>
       <c r="F43" t="n">
-        <v>203.8522646237892</v>
+        <v>86.11364943189743</v>
       </c>
       <c r="G43" t="n">
-        <v>203.8522646237892</v>
+        <v>86.11364943189743</v>
       </c>
       <c r="H43" t="n">
-        <v>203.8522646237892</v>
+        <v>86.11364943189743</v>
       </c>
       <c r="I43" t="n">
-        <v>86.11364943189741</v>
+        <v>86.11364943189743</v>
       </c>
       <c r="J43" t="n">
-        <v>86.11364943189741</v>
+        <v>86.11364943189743</v>
       </c>
       <c r="K43" t="n">
         <v>212.8076375348878</v>
       </c>
       <c r="L43" t="n">
-        <v>430.4587576962463</v>
+        <v>430.4587576962462</v>
       </c>
       <c r="M43" t="n">
-        <v>670.3304700620228</v>
+        <v>670.3304700620226</v>
       </c>
       <c r="N43" t="n">
-        <v>909.9331856692332</v>
+        <v>909.9331856692331</v>
       </c>
       <c r="O43" t="n">
         <v>1115.228778841303</v>
@@ -7596,25 +7596,25 @@
         <v>1168.925155535959</v>
       </c>
       <c r="S43" t="n">
-        <v>965.4098873949426</v>
+        <v>1082.594461799783</v>
       </c>
       <c r="T43" t="n">
-        <v>740.743005681273</v>
+        <v>857.9275800861137</v>
       </c>
       <c r="U43" t="n">
-        <v>458.5367528296761</v>
+        <v>568.7876885358016</v>
       </c>
       <c r="V43" t="n">
-        <v>203.8522646237892</v>
+        <v>314.1032003299148</v>
       </c>
       <c r="W43" t="n">
-        <v>203.8522646237892</v>
+        <v>314.1032003299148</v>
       </c>
       <c r="X43" t="n">
-        <v>203.8522646237892</v>
+        <v>86.11364943189743</v>
       </c>
       <c r="Y43" t="n">
-        <v>203.8522646237892</v>
+        <v>86.11364943189743</v>
       </c>
     </row>
     <row r="44">
@@ -7624,10 +7624,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2081.852984933252</v>
+        <v>2440.118683540002</v>
       </c>
       <c r="C44" t="n">
-        <v>1712.89046799284</v>
+        <v>2071.156166599591</v>
       </c>
       <c r="D44" t="n">
         <v>1712.89046799284</v>
@@ -7648,13 +7648,13 @@
         <v>86.11364943189741</v>
       </c>
       <c r="J44" t="n">
-        <v>316.5202242826241</v>
+        <v>316.5202242826242</v>
       </c>
       <c r="K44" t="n">
-        <v>782.5847574885287</v>
+        <v>782.5847574885288</v>
       </c>
       <c r="L44" t="n">
-        <v>1413.055650717816</v>
+        <v>1413.055650717815</v>
       </c>
       <c r="M44" t="n">
         <v>2131.182543644154</v>
@@ -7663,37 +7663,37 @@
         <v>2846.297482930779</v>
       </c>
       <c r="O44" t="n">
-        <v>3476.372603996238</v>
+        <v>3476.372603996237</v>
       </c>
       <c r="P44" t="n">
-        <v>3976.45275961495</v>
+        <v>3976.452759614949</v>
       </c>
       <c r="Q44" t="n">
-        <v>4274.770370373406</v>
+        <v>4274.770370373405</v>
       </c>
       <c r="R44" t="n">
         <v>4305.682471594871</v>
       </c>
       <c r="S44" t="n">
-        <v>4169.540993481091</v>
+        <v>4305.682471594871</v>
       </c>
       <c r="T44" t="n">
-        <v>4169.540993481091</v>
+        <v>4093.080531912923</v>
       </c>
       <c r="U44" t="n">
-        <v>3915.88945784795</v>
+        <v>3887.555316390579</v>
       </c>
       <c r="V44" t="n">
-        <v>3584.82657050438</v>
+        <v>3556.492429047008</v>
       </c>
       <c r="W44" t="n">
-        <v>3232.057915234265</v>
+        <v>3203.723773776894</v>
       </c>
       <c r="X44" t="n">
-        <v>2858.592156973185</v>
+        <v>2830.258015515814</v>
       </c>
       <c r="Y44" t="n">
-        <v>2468.452824997374</v>
+        <v>2440.118683540002</v>
       </c>
     </row>
     <row r="45">
@@ -7736,13 +7736,13 @@
         <v>901.3044521370133</v>
       </c>
       <c r="M45" t="n">
-        <v>1608.56366819863</v>
+        <v>1223.765328248207</v>
       </c>
       <c r="N45" t="n">
-        <v>1875.699993981258</v>
+        <v>1490.901654030835</v>
       </c>
       <c r="O45" t="n">
-        <v>2418.261244643319</v>
+        <v>2102.983103689781</v>
       </c>
       <c r="P45" t="n">
         <v>2577.229361417491</v>
@@ -7833,22 +7833,22 @@
         <v>1289.276287324572</v>
       </c>
       <c r="S46" t="n">
-        <v>1289.276287324572</v>
+        <v>1085.761019183555</v>
       </c>
       <c r="T46" t="n">
-        <v>1289.276287324572</v>
+        <v>861.0941374698855</v>
       </c>
       <c r="U46" t="n">
-        <v>1000.13639577426</v>
+        <v>571.9542459195734</v>
       </c>
       <c r="V46" t="n">
-        <v>745.4519075683728</v>
+        <v>317.2697577136865</v>
       </c>
       <c r="W46" t="n">
-        <v>456.0347375314122</v>
+        <v>86.11364943189741</v>
       </c>
       <c r="X46" t="n">
-        <v>228.0451866333948</v>
+        <v>86.11364943189741</v>
       </c>
       <c r="Y46" t="n">
         <v>86.11364943189741</v>
@@ -8066,16 +8066,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>174.6270615612551</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8303,16 +8303,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>244.7225752110828</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>139.9817740860215</v>
@@ -8534,16 +8534,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>193.3577389147212</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>222.4246658592332</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8771,10 +8771,10 @@
         <v>6.233205181928668</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
@@ -8783,13 +8783,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>145.318373890083</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>68.29886828945429</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9005,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>22.15449680786087</v>
+        <v>6.233205181928653</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>15.92129162593186</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9242,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>6.233205181928668</v>
+        <v>6.233205181928653</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>91.32084226272411</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9254,16 +9254,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>176.8008973295489</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928653</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9491,16 +9491,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>283.1760056204288</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>77.83812039512507</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9719,25 +9719,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>5.06057927160991</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>323.6398960475526</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9962,16 +9962,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>77.019871880886</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>323.6398960475526</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -10199,16 +10199,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>77.01987188088594</v>
       </c>
       <c r="O30" t="n">
-        <v>323.6398960475526</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -10436,16 +10436,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>77.01987188088611</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>323.6398960475526</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -10673,16 +10673,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>77.01987188088594</v>
       </c>
       <c r="O36" t="n">
-        <v>323.6398960475526</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -10910,16 +10910,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>77.019871880886</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>323.6398960475526</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -11147,16 +11147,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>77.019871880886</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>323.6398960475526</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298165</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11384,16 +11384,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>77.01987188088566</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>323.6398960475526</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -23257,22 +23257,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>50.49952554042244</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23308,22 +23308,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>154.6528871281403</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>155.7318637486499</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23421,7 +23421,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23430,16 +23430,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>16.97365325768533</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I13" t="n">
         <v>123.2665578794171</v>
       </c>
       <c r="J13" t="n">
-        <v>17.69584188176917</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23469,10 +23469,10 @@
         <v>205.3658819001187</v>
       </c>
       <c r="T13" t="n">
-        <v>223.3729047207587</v>
+        <v>76.05470827629483</v>
       </c>
       <c r="U13" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23500,22 +23500,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>50.49952554042136</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H14" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4960408938905</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,13 +23548,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>226.0887946250972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23652,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>145.0457407993577</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23670,13 +23670,13 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>123.2665578794171</v>
       </c>
       <c r="J16" t="n">
-        <v>17.69584188176917</v>
+        <v>17.69584188176916</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>129.1731816677914</v>
       </c>
       <c r="S16" t="n">
         <v>205.3658819001187</v>
@@ -23712,16 +23712,16 @@
         <v>286.260654658097</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>171.550538666945</v>
       </c>
     </row>
     <row r="17">
@@ -23749,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4960408938905</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23785,22 +23785,22 @@
         <v>154.6528871281403</v>
       </c>
       <c r="T17" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>148.0333797447905</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>326.4048846552813</v>
       </c>
     </row>
     <row r="18">
@@ -23895,7 +23895,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23913,7 +23913,7 @@
         <v>123.2665578794171</v>
       </c>
       <c r="J19" t="n">
-        <v>17.69584188176917</v>
+        <v>17.69584188176916</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>60.69561706280419</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>202.186088044074</v>
       </c>
     </row>
     <row r="20">
@@ -23986,7 +23986,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>253.818046243762</v>
+        <v>232.3293359964834</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24028,10 +24028,10 @@
         <v>251.1547862223006</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24126,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>10.44256553463123</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24144,13 +24144,13 @@
         <v>166.9207765545704</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I22" t="n">
         <v>123.2665578794171</v>
       </c>
       <c r="J22" t="n">
-        <v>17.69584188176917</v>
+        <v>17.69584188176916</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>129.1731816677914</v>
       </c>
       <c r="S22" t="n">
         <v>205.3658819001187</v>
@@ -24183,10 +24183,10 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U22" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>148.666745418964</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24214,7 +24214,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>263.8962011556193</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24223,10 +24223,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>146.6198629706131</v>
       </c>
       <c r="I23" t="n">
-        <v>99.33258322459723</v>
+        <v>99.33258322459724</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24259,13 +24259,13 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>210.475920285128</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24378,16 +24378,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.697806127624</v>
       </c>
       <c r="H25" t="n">
         <v>150.7296868732905</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>116.5612290399729</v>
       </c>
       <c r="J25" t="n">
-        <v>1.931832696655036</v>
+        <v>1.93183269665505</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>119.1476204707264</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>201.4801154596065</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>222.420212896533</v>
       </c>
       <c r="U25" t="n">
-        <v>286.248492634809</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>26.73459926914541</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>140.2836241694009</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24454,16 +24454,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>309.9502217094637</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>99.33258322459723</v>
+        <v>99.33258322459724</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24499,13 +24499,13 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>67.49607569903586</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>164.4218997312842</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24615,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.697806127624</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>150.7296868732905</v>
@@ -24624,7 +24624,7 @@
         <v>116.5612290399729</v>
       </c>
       <c r="J28" t="n">
-        <v>1.931832696655036</v>
+        <v>1.93183269665505</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24651,25 +24651,25 @@
         <v>119.1476204707264</v>
       </c>
       <c r="S28" t="n">
-        <v>201.4801154596065</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.248492634809</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>194.0761319662736</v>
+        <v>84.13224913885691</v>
       </c>
     </row>
     <row r="29">
@@ -24700,7 +24700,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>99.33258322459724</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24736,7 +24736,7 @@
         <v>210.475920285128</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>120.5703950634438</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24748,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>219.9029782880416</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24843,7 +24843,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>4.81380869622572</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24861,7 +24861,7 @@
         <v>116.5612290399729</v>
       </c>
       <c r="J31" t="n">
-        <v>1.931832696655036</v>
+        <v>1.93183269665505</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>81.90799106705052</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24934,7 +24934,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>309.9502217094637</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,19 +24967,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>143.3258060921758</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>210.475920285128</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>219.9029782880406</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>263.7544829558815</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25098,7 +25098,7 @@
         <v>116.5612290399729</v>
       </c>
       <c r="J34" t="n">
-        <v>1.931832696655036</v>
+        <v>1.93183269665505</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25128,7 +25128,7 @@
         <v>201.4801154596065</v>
       </c>
       <c r="T34" t="n">
-        <v>81.9079910670506</v>
+        <v>74.78298903010815</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25159,7 +25159,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>263.7544829558805</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25171,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>309.9502217094637</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,19 +25204,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>143.3258060921758</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>81.1379298557554</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>118.508759783376</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25335,7 +25335,7 @@
         <v>116.5612290399729</v>
       </c>
       <c r="J37" t="n">
-        <v>1.931832696655036</v>
+        <v>1.93183269665505</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25362,13 +25362,13 @@
         <v>119.1476204707264</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>201.4801154596065</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>81.9079910670506</v>
       </c>
       <c r="U37" t="n">
-        <v>286.248492634809</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25399,7 +25399,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>143.3258060921758</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25450,13 +25450,13 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>191.7743345930828</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>102.6266401030336</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25572,7 +25572,7 @@
         <v>116.5612290399729</v>
       </c>
       <c r="J40" t="n">
-        <v>1.931832696655036</v>
+        <v>1.93183269665505</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>119.1476204707264</v>
+        <v>112.1771691163543</v>
       </c>
       <c r="S40" t="n">
-        <v>201.4801154596065</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>222.420212896533</v>
       </c>
       <c r="U40" t="n">
-        <v>162.5851191007667</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25636,7 +25636,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25648,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>99.33258322459724</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25681,19 +25681,19 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>210.475920285128</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>263.8962011556192</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>191.7743345930839</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25806,10 +25806,10 @@
         <v>150.7296868732905</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>116.5612290399729</v>
       </c>
       <c r="J43" t="n">
-        <v>1.931832696655036</v>
+        <v>1.93183269665505</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25836,13 +25836,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>116.0127286607924</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>6.864302311728068</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25864,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>8.545742759534448</v>
+        <v>143.3258060921758</v>
       </c>
       <c r="T44" t="n">
-        <v>210.475920285128</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>47.64505690968875</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26073,10 +26073,10 @@
         <v>119.1476204707264</v>
       </c>
       <c r="S46" t="n">
-        <v>201.4801154596065</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>222.420212896533</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26085,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>57.67845113761979</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>78.07243152261233</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>683505.0645494171</v>
+        <v>683505.0645494172</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>738666.0972997824</v>
+        <v>738666.0972997823</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>738666.0972997823</v>
+        <v>738666.0972997824</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>738666.0972997822</v>
+        <v>738666.0972997823</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>738666.0972997823</v>
+        <v>738666.0972997824</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>738666.0972997827</v>
+        <v>738666.0972997824</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>738666.0972997822</v>
+        <v>738666.0972997823</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982123</v>
+        <v>615781.3273982125</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982126</v>
+        <v>615781.3273982118</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982122</v>
+        <v>615781.3273982125</v>
       </c>
       <c r="E2" t="n">
-        <v>506603.4835399849</v>
+        <v>506603.4835399848</v>
       </c>
       <c r="F2" t="n">
         <v>506603.4835399848</v>
       </c>
       <c r="G2" t="n">
-        <v>506603.483539985</v>
+        <v>506603.4835399847</v>
       </c>
       <c r="H2" t="n">
-        <v>506603.483539985</v>
+        <v>506603.4835399847</v>
       </c>
       <c r="I2" t="n">
         <v>548328.532568696</v>
       </c>
       <c r="J2" t="n">
-        <v>548328.5325686957</v>
+        <v>548328.532568696</v>
       </c>
       <c r="K2" t="n">
+        <v>548328.5325686962</v>
+      </c>
+      <c r="L2" t="n">
         <v>548328.532568696</v>
       </c>
-      <c r="L2" t="n">
-        <v>548328.5325686958</v>
-      </c>
       <c r="M2" t="n">
-        <v>548328.5325686958</v>
+        <v>548328.532568696</v>
       </c>
       <c r="N2" t="n">
         <v>548328.5325686961</v>
       </c>
       <c r="O2" t="n">
-        <v>548328.532568696</v>
+        <v>548328.5325686961</v>
       </c>
       <c r="P2" t="n">
-        <v>548328.5325686957</v>
+        <v>548328.5325686958</v>
       </c>
     </row>
     <row r="3">
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>133368.5290586864</v>
+        <v>133368.5290586862</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910617</v>
+        <v>63059.94259910629</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>170426.416563711</v>
+        <v>170426.4165637111</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26441,25 +26441,25 @@
         <v>8277.699316071412</v>
       </c>
       <c r="J4" t="n">
-        <v>8277.69931607141</v>
+        <v>8277.699316071412</v>
       </c>
       <c r="K4" t="n">
         <v>8277.699316071412</v>
       </c>
       <c r="L4" t="n">
-        <v>8277.69931607141</v>
+        <v>8277.699316071412</v>
       </c>
       <c r="M4" t="n">
         <v>8277.699316071412</v>
       </c>
       <c r="N4" t="n">
-        <v>8277.69931607141</v>
+        <v>8277.699316071412</v>
       </c>
       <c r="O4" t="n">
         <v>8277.699316071412</v>
       </c>
       <c r="P4" t="n">
-        <v>8277.699316071408</v>
+        <v>8277.699316071412</v>
       </c>
     </row>
     <row r="5">
@@ -26481,7 +26481,7 @@
         <v>69171.54328360138</v>
       </c>
       <c r="F5" t="n">
-        <v>69171.54328360136</v>
+        <v>69171.54328360138</v>
       </c>
       <c r="G5" t="n">
         <v>69171.54328360138</v>
@@ -26490,16 +26490,16 @@
         <v>69171.54328360138</v>
       </c>
       <c r="I5" t="n">
+        <v>81079.66231700628</v>
+      </c>
+      <c r="J5" t="n">
         <v>81079.6623170063</v>
-      </c>
-      <c r="J5" t="n">
-        <v>81079.66231700628</v>
       </c>
       <c r="K5" t="n">
         <v>81079.66231700628</v>
       </c>
       <c r="L5" t="n">
-        <v>81079.6623170063</v>
+        <v>81079.66231700628</v>
       </c>
       <c r="M5" t="n">
         <v>81079.6623170063</v>
@@ -26508,7 +26508,7 @@
         <v>81079.6623170063</v>
       </c>
       <c r="O5" t="n">
-        <v>81079.66231700628</v>
+        <v>81079.6623170063</v>
       </c>
       <c r="P5" t="n">
         <v>81079.66231700628</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>199237.9883991011</v>
+        <v>199237.9883991013</v>
       </c>
       <c r="C6" t="n">
-        <v>280007.4199306492</v>
+        <v>280007.4199306483</v>
       </c>
       <c r="D6" t="n">
-        <v>280007.4199306487</v>
+        <v>280007.419930649</v>
       </c>
       <c r="E6" t="n">
-        <v>-255873.5434854728</v>
+        <v>-252598.2081697261</v>
       </c>
       <c r="F6" t="n">
-        <v>425119.3991763659</v>
+        <v>428394.7344921128</v>
       </c>
       <c r="G6" t="n">
-        <v>425119.3991763662</v>
+        <v>428394.7344921126</v>
       </c>
       <c r="H6" t="n">
-        <v>425119.399176366</v>
+        <v>428394.7344921126</v>
       </c>
       <c r="I6" t="n">
-        <v>323354.2153826146</v>
+        <v>325377.7992275004</v>
       </c>
       <c r="J6" t="n">
-        <v>393662.8018421947</v>
+        <v>395686.3856870803</v>
       </c>
       <c r="K6" t="n">
-        <v>456722.744441301</v>
+        <v>458746.3282861867</v>
       </c>
       <c r="L6" t="n">
-        <v>456722.7444413009</v>
+        <v>458746.3282861865</v>
       </c>
       <c r="M6" t="n">
-        <v>286296.3278775899</v>
+        <v>288319.9117224754</v>
       </c>
       <c r="N6" t="n">
-        <v>456722.7444413012</v>
+        <v>458746.3282861866</v>
       </c>
       <c r="O6" t="n">
-        <v>456722.744441301</v>
+        <v>458746.3282861866</v>
       </c>
       <c r="P6" t="n">
-        <v>456722.7444413008</v>
+        <v>458746.3282861864</v>
       </c>
     </row>
   </sheetData>
@@ -26749,34 +26749,34 @@
         <v>593.4761003380636</v>
       </c>
       <c r="F3" t="n">
-        <v>593.4761003380636</v>
+        <v>593.4761003380637</v>
       </c>
       <c r="G3" t="n">
-        <v>593.4761003380636</v>
+        <v>593.4761003380637</v>
       </c>
       <c r="H3" t="n">
-        <v>593.4761003380636</v>
+        <v>593.4761003380637</v>
       </c>
       <c r="I3" t="n">
-        <v>717.1233370992777</v>
+        <v>717.1233370992776</v>
       </c>
       <c r="J3" t="n">
-        <v>717.1233370992777</v>
+        <v>717.1233370992776</v>
       </c>
       <c r="K3" t="n">
-        <v>717.1233370992777</v>
+        <v>717.1233370992776</v>
       </c>
       <c r="L3" t="n">
-        <v>717.1233370992777</v>
+        <v>717.1233370992776</v>
       </c>
       <c r="M3" t="n">
-        <v>717.1233370992777</v>
+        <v>717.1233370992776</v>
       </c>
       <c r="N3" t="n">
-        <v>717.1233370992777</v>
+        <v>717.1233370992776</v>
       </c>
       <c r="O3" t="n">
-        <v>717.1233370992777</v>
+        <v>717.1233370992776</v>
       </c>
       <c r="P3" t="n">
         <v>717.1233370992777</v>
@@ -26798,16 +26798,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>924.8974390827564</v>
+        <v>924.8974390827565</v>
       </c>
       <c r="F4" t="n">
-        <v>924.8974390827563</v>
+        <v>924.8974390827566</v>
       </c>
       <c r="G4" t="n">
-        <v>924.8974390827565</v>
+        <v>924.8974390827566</v>
       </c>
       <c r="H4" t="n">
-        <v>924.8974390827565</v>
+        <v>924.8974390827566</v>
       </c>
       <c r="I4" t="n">
         <v>1076.420617898718</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>123.6472367612141</v>
+        <v>123.6472367612139</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>683.8831502050972</v>
+        <v>683.8831502050974</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>151.5231788159614</v>
+        <v>151.523178815961</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776588</v>
+        <v>241.0142888776593</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>683.8831502050972</v>
+        <v>683.8831502050974</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>683.8831502050972</v>
+        <v>683.8831502050974</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>152.0346092473755</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27393,7 +27393,7 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>319.1698855250446</v>
       </c>
       <c r="H2" t="n">
         <v>98.46051323810809</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27457,28 +27457,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>52.77638064857638</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -27517,16 +27517,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>194.8203229674264</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27590,7 +27590,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U4" t="n">
         <v>286.3190293564909</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>214.5672278460424</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27627,7 +27627,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>349.7082848322977</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -27675,13 +27675,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>108.226679839754</v>
       </c>
       <c r="X5" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27694,19 +27694,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>60.50207587874964</v>
+        <v>148.3997225046394</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
@@ -27742,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -27757,10 +27757,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27785,7 +27785,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>12.23408043756322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.9909793584588</v>
@@ -27797,10 +27797,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27815,7 +27815,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -27833,7 +27833,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>237.3007884161221</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>342.8322390905863</v>
+        <v>201.2949868753087</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -27931,19 +27931,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>117.2220797075721</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
@@ -27991,16 +27991,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>60.50207587874957</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -28016,13 +28016,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>18.14994616795082</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>14.95552117266971</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.9909793584588</v>
@@ -31992,31 +31992,31 @@
         <v>2.385833569198244</v>
       </c>
       <c r="H14" t="n">
-        <v>24.43391804055152</v>
+        <v>24.43391804055153</v>
       </c>
       <c r="I14" t="n">
-        <v>91.97984867651539</v>
+        <v>91.9798486765154</v>
       </c>
       <c r="J14" t="n">
-        <v>202.4946418937396</v>
+        <v>202.4946418937397</v>
       </c>
       <c r="K14" t="n">
-        <v>303.4869768779013</v>
+        <v>303.4869768779014</v>
       </c>
       <c r="L14" t="n">
         <v>376.5024309712522</v>
       </c>
       <c r="M14" t="n">
-        <v>418.9314987074814</v>
+        <v>418.9314987074815</v>
       </c>
       <c r="N14" t="n">
-        <v>425.710248335966</v>
+        <v>425.7102483359661</v>
       </c>
       <c r="O14" t="n">
-        <v>401.9861157822509</v>
+        <v>401.986115782251</v>
       </c>
       <c r="P14" t="n">
-        <v>343.0858495426692</v>
+        <v>343.0858495426693</v>
       </c>
       <c r="Q14" t="n">
         <v>257.643184845757</v>
@@ -32025,7 +32025,7 @@
         <v>149.8691179411493</v>
       </c>
       <c r="S14" t="n">
-        <v>54.36718245810503</v>
+        <v>54.36718245810504</v>
       </c>
       <c r="T14" t="n">
         <v>10.44398644916532</v>
@@ -32071,46 +32071,46 @@
         <v>1.276533498840363</v>
       </c>
       <c r="H15" t="n">
-        <v>12.32862615985298</v>
+        <v>12.32862615985299</v>
       </c>
       <c r="I15" t="n">
-        <v>43.9508244118283</v>
+        <v>43.95082441182831</v>
       </c>
       <c r="J15" t="n">
         <v>120.604421484738</v>
       </c>
       <c r="K15" t="n">
-        <v>206.1321659070423</v>
+        <v>206.1321659070424</v>
       </c>
       <c r="L15" t="n">
-        <v>277.1701353512815</v>
+        <v>277.1701353512816</v>
       </c>
       <c r="M15" t="n">
-        <v>323.4444746842446</v>
+        <v>323.4444746842447</v>
       </c>
       <c r="N15" t="n">
-        <v>332.0050874900645</v>
+        <v>332.0050874900646</v>
       </c>
       <c r="O15" t="n">
-        <v>303.7197925947069</v>
+        <v>303.719792594707</v>
       </c>
       <c r="P15" t="n">
         <v>243.7619099671568</v>
       </c>
       <c r="Q15" t="n">
-        <v>162.9483813607453</v>
+        <v>162.9483813607454</v>
       </c>
       <c r="R15" t="n">
-        <v>79.25705355080784</v>
+        <v>79.25705355080785</v>
       </c>
       <c r="S15" t="n">
         <v>23.71104985784621</v>
       </c>
       <c r="T15" t="n">
-        <v>5.145325813308304</v>
+        <v>5.145325813308305</v>
       </c>
       <c r="U15" t="n">
-        <v>0.0839824670289713</v>
+        <v>0.08398246702897132</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,16 +32147,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.070202803888311</v>
+        <v>1.070202803888312</v>
       </c>
       <c r="H16" t="n">
-        <v>9.515075838206993</v>
+        <v>9.515075838206995</v>
       </c>
       <c r="I16" t="n">
         <v>32.18391704784123</v>
       </c>
       <c r="J16" t="n">
-        <v>75.66333823490361</v>
+        <v>75.66333823490362</v>
       </c>
       <c r="K16" t="n">
         <v>124.3381075790238</v>
@@ -32177,16 +32177,16 @@
         <v>129.4361645720917</v>
       </c>
       <c r="Q16" t="n">
-        <v>89.6148911510476</v>
+        <v>89.61489115104762</v>
       </c>
       <c r="R16" t="n">
-        <v>48.12020970937806</v>
+        <v>48.12020970937807</v>
       </c>
       <c r="S16" t="n">
-        <v>18.65071613685356</v>
+        <v>18.65071613685357</v>
       </c>
       <c r="T16" t="n">
-        <v>4.572684707522783</v>
+        <v>4.572684707522784</v>
       </c>
       <c r="U16" t="n">
         <v>0.05837469839390796</v>
@@ -32229,31 +32229,31 @@
         <v>2.385833569198244</v>
       </c>
       <c r="H17" t="n">
-        <v>24.43391804055152</v>
+        <v>24.43391804055153</v>
       </c>
       <c r="I17" t="n">
-        <v>91.97984867651539</v>
+        <v>91.9798486765154</v>
       </c>
       <c r="J17" t="n">
-        <v>202.4946418937396</v>
+        <v>202.4946418937397</v>
       </c>
       <c r="K17" t="n">
-        <v>303.4869768779013</v>
+        <v>303.4869768779014</v>
       </c>
       <c r="L17" t="n">
         <v>376.5024309712522</v>
       </c>
       <c r="M17" t="n">
-        <v>418.9314987074814</v>
+        <v>418.9314987074815</v>
       </c>
       <c r="N17" t="n">
-        <v>425.710248335966</v>
+        <v>425.7102483359661</v>
       </c>
       <c r="O17" t="n">
-        <v>401.9861157822509</v>
+        <v>401.986115782251</v>
       </c>
       <c r="P17" t="n">
-        <v>343.0858495426692</v>
+        <v>343.0858495426693</v>
       </c>
       <c r="Q17" t="n">
         <v>257.643184845757</v>
@@ -32262,7 +32262,7 @@
         <v>149.8691179411493</v>
       </c>
       <c r="S17" t="n">
-        <v>54.36718245810503</v>
+        <v>54.36718245810504</v>
       </c>
       <c r="T17" t="n">
         <v>10.44398644916532</v>
@@ -32308,46 +32308,46 @@
         <v>1.276533498840363</v>
       </c>
       <c r="H18" t="n">
-        <v>12.32862615985298</v>
+        <v>12.32862615985299</v>
       </c>
       <c r="I18" t="n">
-        <v>43.9508244118283</v>
+        <v>43.95082441182831</v>
       </c>
       <c r="J18" t="n">
         <v>120.604421484738</v>
       </c>
       <c r="K18" t="n">
-        <v>206.1321659070423</v>
+        <v>206.1321659070424</v>
       </c>
       <c r="L18" t="n">
-        <v>277.1701353512815</v>
+        <v>277.1701353512816</v>
       </c>
       <c r="M18" t="n">
-        <v>323.4444746842446</v>
+        <v>323.4444746842447</v>
       </c>
       <c r="N18" t="n">
-        <v>332.0050874900645</v>
+        <v>332.0050874900646</v>
       </c>
       <c r="O18" t="n">
-        <v>303.7197925947069</v>
+        <v>303.719792594707</v>
       </c>
       <c r="P18" t="n">
         <v>243.7619099671568</v>
       </c>
       <c r="Q18" t="n">
-        <v>162.9483813607453</v>
+        <v>162.9483813607454</v>
       </c>
       <c r="R18" t="n">
-        <v>79.25705355080784</v>
+        <v>79.25705355080785</v>
       </c>
       <c r="S18" t="n">
         <v>23.71104985784621</v>
       </c>
       <c r="T18" t="n">
-        <v>5.145325813308304</v>
+        <v>5.145325813308305</v>
       </c>
       <c r="U18" t="n">
-        <v>0.0839824670289713</v>
+        <v>0.08398246702897132</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,16 +32384,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.070202803888311</v>
+        <v>1.070202803888312</v>
       </c>
       <c r="H19" t="n">
-        <v>9.515075838206993</v>
+        <v>9.515075838206995</v>
       </c>
       <c r="I19" t="n">
         <v>32.18391704784123</v>
       </c>
       <c r="J19" t="n">
-        <v>75.66333823490361</v>
+        <v>75.66333823490362</v>
       </c>
       <c r="K19" t="n">
         <v>124.3381075790238</v>
@@ -32414,16 +32414,16 @@
         <v>129.4361645720917</v>
       </c>
       <c r="Q19" t="n">
-        <v>89.6148911510476</v>
+        <v>89.61489115104762</v>
       </c>
       <c r="R19" t="n">
-        <v>48.12020970937806</v>
+        <v>48.12020970937807</v>
       </c>
       <c r="S19" t="n">
-        <v>18.65071613685356</v>
+        <v>18.65071613685357</v>
       </c>
       <c r="T19" t="n">
-        <v>4.572684707522783</v>
+        <v>4.572684707522784</v>
       </c>
       <c r="U19" t="n">
         <v>0.05837469839390796</v>
@@ -32466,31 +32466,31 @@
         <v>2.385833569198244</v>
       </c>
       <c r="H20" t="n">
-        <v>24.43391804055152</v>
+        <v>24.43391804055153</v>
       </c>
       <c r="I20" t="n">
-        <v>91.97984867651539</v>
+        <v>91.9798486765154</v>
       </c>
       <c r="J20" t="n">
-        <v>202.4946418937396</v>
+        <v>202.4946418937397</v>
       </c>
       <c r="K20" t="n">
-        <v>303.4869768779013</v>
+        <v>303.4869768779014</v>
       </c>
       <c r="L20" t="n">
         <v>376.5024309712522</v>
       </c>
       <c r="M20" t="n">
-        <v>418.9314987074814</v>
+        <v>418.9314987074815</v>
       </c>
       <c r="N20" t="n">
-        <v>425.710248335966</v>
+        <v>425.7102483359661</v>
       </c>
       <c r="O20" t="n">
-        <v>401.9861157822509</v>
+        <v>401.986115782251</v>
       </c>
       <c r="P20" t="n">
-        <v>343.0858495426692</v>
+        <v>343.0858495426693</v>
       </c>
       <c r="Q20" t="n">
         <v>257.643184845757</v>
@@ -32499,7 +32499,7 @@
         <v>149.8691179411493</v>
       </c>
       <c r="S20" t="n">
-        <v>54.36718245810503</v>
+        <v>54.36718245810504</v>
       </c>
       <c r="T20" t="n">
         <v>10.44398644916532</v>
@@ -32545,46 +32545,46 @@
         <v>1.276533498840363</v>
       </c>
       <c r="H21" t="n">
-        <v>12.32862615985298</v>
+        <v>12.32862615985299</v>
       </c>
       <c r="I21" t="n">
-        <v>43.9508244118283</v>
+        <v>43.95082441182831</v>
       </c>
       <c r="J21" t="n">
         <v>120.604421484738</v>
       </c>
       <c r="K21" t="n">
-        <v>206.1321659070423</v>
+        <v>206.1321659070424</v>
       </c>
       <c r="L21" t="n">
-        <v>277.1701353512815</v>
+        <v>277.1701353512816</v>
       </c>
       <c r="M21" t="n">
-        <v>323.4444746842446</v>
+        <v>323.4444746842447</v>
       </c>
       <c r="N21" t="n">
-        <v>332.0050874900645</v>
+        <v>332.0050874900646</v>
       </c>
       <c r="O21" t="n">
-        <v>303.7197925947069</v>
+        <v>303.719792594707</v>
       </c>
       <c r="P21" t="n">
         <v>243.7619099671568</v>
       </c>
       <c r="Q21" t="n">
-        <v>162.9483813607453</v>
+        <v>162.9483813607454</v>
       </c>
       <c r="R21" t="n">
-        <v>79.25705355080784</v>
+        <v>79.25705355080785</v>
       </c>
       <c r="S21" t="n">
         <v>23.71104985784621</v>
       </c>
       <c r="T21" t="n">
-        <v>5.145325813308304</v>
+        <v>5.145325813308305</v>
       </c>
       <c r="U21" t="n">
-        <v>0.0839824670289713</v>
+        <v>0.08398246702897132</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,16 +32621,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.070202803888311</v>
+        <v>1.070202803888312</v>
       </c>
       <c r="H22" t="n">
-        <v>9.515075838206993</v>
+        <v>9.515075838206995</v>
       </c>
       <c r="I22" t="n">
         <v>32.18391704784123</v>
       </c>
       <c r="J22" t="n">
-        <v>75.66333823490361</v>
+        <v>75.66333823490362</v>
       </c>
       <c r="K22" t="n">
         <v>124.3381075790238</v>
@@ -32651,16 +32651,16 @@
         <v>129.4361645720917</v>
       </c>
       <c r="Q22" t="n">
-        <v>89.6148911510476</v>
+        <v>89.61489115104762</v>
       </c>
       <c r="R22" t="n">
-        <v>48.12020970937806</v>
+        <v>48.12020970937807</v>
       </c>
       <c r="S22" t="n">
-        <v>18.65071613685356</v>
+        <v>18.65071613685357</v>
       </c>
       <c r="T22" t="n">
-        <v>4.572684707522783</v>
+        <v>4.572684707522784</v>
       </c>
       <c r="U22" t="n">
         <v>0.05837469839390796</v>
@@ -32712,7 +32712,7 @@
         <v>244.6832033452455</v>
       </c>
       <c r="K23" t="n">
-        <v>366.7166942373558</v>
+        <v>366.7166942373557</v>
       </c>
       <c r="L23" t="n">
         <v>454.9444865097257</v>
@@ -32721,28 +32721,28 @@
         <v>506.2133996600343</v>
       </c>
       <c r="N23" t="n">
-        <v>514.4044616963492</v>
+        <v>514.4044616963491</v>
       </c>
       <c r="O23" t="n">
-        <v>485.7375463866771</v>
+        <v>485.737546386677</v>
       </c>
       <c r="P23" t="n">
         <v>414.5657579057186</v>
       </c>
       <c r="Q23" t="n">
-        <v>311.3216191725814</v>
+        <v>311.3216191725813</v>
       </c>
       <c r="R23" t="n">
         <v>181.0934626092965</v>
       </c>
       <c r="S23" t="n">
-        <v>65.69426349406953</v>
+        <v>65.69426349406952</v>
       </c>
       <c r="T23" t="n">
-        <v>12.61992927900337</v>
+        <v>12.61992927900336</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2306326310269032</v>
+        <v>0.2306326310269031</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32782,43 +32782,43 @@
         <v>1.542491706213541</v>
       </c>
       <c r="H24" t="n">
-        <v>14.89722253106236</v>
+        <v>14.89722253106235</v>
       </c>
       <c r="I24" t="n">
-        <v>53.10771883235218</v>
+        <v>53.10771883235217</v>
       </c>
       <c r="J24" t="n">
         <v>145.7316396646749</v>
       </c>
       <c r="K24" t="n">
-        <v>249.0785839809822</v>
+        <v>249.0785839809821</v>
       </c>
       <c r="L24" t="n">
         <v>334.9168943688655</v>
       </c>
       <c r="M24" t="n">
-        <v>390.8322187191063</v>
+        <v>390.8322187191062</v>
       </c>
       <c r="N24" t="n">
         <v>401.1763845910384</v>
       </c>
       <c r="O24" t="n">
-        <v>366.9980157323068</v>
+        <v>366.9980157323067</v>
       </c>
       <c r="P24" t="n">
-        <v>294.548262741777</v>
+        <v>294.5482627417769</v>
       </c>
       <c r="Q24" t="n">
         <v>196.8977132352583</v>
       </c>
       <c r="R24" t="n">
-        <v>95.76979207525829</v>
+        <v>95.76979207525828</v>
       </c>
       <c r="S24" t="n">
-        <v>28.65110691146641</v>
+        <v>28.6511069114664</v>
       </c>
       <c r="T24" t="n">
-        <v>6.217324026360717</v>
+        <v>6.217324026360716</v>
       </c>
       <c r="U24" t="n">
         <v>0.1014797175140488</v>
@@ -32864,10 +32864,10 @@
         <v>11.49748563414908</v>
       </c>
       <c r="I25" t="n">
-        <v>38.88924588728543</v>
+        <v>38.88924588728542</v>
       </c>
       <c r="J25" t="n">
-        <v>91.42734742001774</v>
+        <v>91.42734742001772</v>
       </c>
       <c r="K25" t="n">
         <v>150.2432171824388</v>
@@ -32885,7 +32885,7 @@
         <v>182.7841581183536</v>
       </c>
       <c r="P25" t="n">
-        <v>156.4034242093244</v>
+        <v>156.4034242093243</v>
       </c>
       <c r="Q25" t="n">
         <v>108.2856239019909</v>
@@ -32894,13 +32894,13 @@
         <v>58.14577090644305</v>
       </c>
       <c r="S25" t="n">
-        <v>22.53648257736582</v>
+        <v>22.53648257736581</v>
       </c>
       <c r="T25" t="n">
-        <v>5.525376531748531</v>
+        <v>5.52537653174853</v>
       </c>
       <c r="U25" t="n">
-        <v>0.07053672168189624</v>
+        <v>0.07053672168189623</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32949,7 +32949,7 @@
         <v>244.6832033452455</v>
       </c>
       <c r="K26" t="n">
-        <v>366.7166942373558</v>
+        <v>366.7166942373557</v>
       </c>
       <c r="L26" t="n">
         <v>454.9444865097257</v>
@@ -32958,28 +32958,28 @@
         <v>506.2133996600343</v>
       </c>
       <c r="N26" t="n">
-        <v>514.4044616963492</v>
+        <v>514.4044616963491</v>
       </c>
       <c r="O26" t="n">
-        <v>485.7375463866771</v>
+        <v>485.737546386677</v>
       </c>
       <c r="P26" t="n">
         <v>414.5657579057186</v>
       </c>
       <c r="Q26" t="n">
-        <v>311.3216191725814</v>
+        <v>311.3216191725813</v>
       </c>
       <c r="R26" t="n">
         <v>181.0934626092965</v>
       </c>
       <c r="S26" t="n">
-        <v>65.69426349406953</v>
+        <v>65.69426349406952</v>
       </c>
       <c r="T26" t="n">
-        <v>12.61992927900337</v>
+        <v>12.61992927900336</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2306326310269032</v>
+        <v>0.2306326310269031</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33019,43 +33019,43 @@
         <v>1.542491706213541</v>
       </c>
       <c r="H27" t="n">
-        <v>14.89722253106236</v>
+        <v>14.89722253106235</v>
       </c>
       <c r="I27" t="n">
-        <v>53.10771883235218</v>
+        <v>53.10771883235217</v>
       </c>
       <c r="J27" t="n">
         <v>145.7316396646749</v>
       </c>
       <c r="K27" t="n">
-        <v>249.0785839809822</v>
+        <v>249.0785839809821</v>
       </c>
       <c r="L27" t="n">
         <v>334.9168943688655</v>
       </c>
       <c r="M27" t="n">
-        <v>390.8322187191063</v>
+        <v>390.8322187191062</v>
       </c>
       <c r="N27" t="n">
         <v>401.1763845910384</v>
       </c>
       <c r="O27" t="n">
-        <v>366.9980157323068</v>
+        <v>366.9980157323067</v>
       </c>
       <c r="P27" t="n">
-        <v>294.548262741777</v>
+        <v>294.5482627417769</v>
       </c>
       <c r="Q27" t="n">
         <v>196.8977132352583</v>
       </c>
       <c r="R27" t="n">
-        <v>95.76979207525829</v>
+        <v>95.76979207525828</v>
       </c>
       <c r="S27" t="n">
-        <v>28.65110691146641</v>
+        <v>28.6511069114664</v>
       </c>
       <c r="T27" t="n">
-        <v>6.217324026360717</v>
+        <v>6.217324026360716</v>
       </c>
       <c r="U27" t="n">
         <v>0.1014797175140488</v>
@@ -33101,10 +33101,10 @@
         <v>11.49748563414908</v>
       </c>
       <c r="I28" t="n">
-        <v>38.88924588728543</v>
+        <v>38.88924588728542</v>
       </c>
       <c r="J28" t="n">
-        <v>91.42734742001774</v>
+        <v>91.42734742001772</v>
       </c>
       <c r="K28" t="n">
         <v>150.2432171824388</v>
@@ -33122,7 +33122,7 @@
         <v>182.7841581183536</v>
       </c>
       <c r="P28" t="n">
-        <v>156.4034242093244</v>
+        <v>156.4034242093243</v>
       </c>
       <c r="Q28" t="n">
         <v>108.2856239019909</v>
@@ -33131,13 +33131,13 @@
         <v>58.14577090644305</v>
       </c>
       <c r="S28" t="n">
-        <v>22.53648257736582</v>
+        <v>22.53648257736581</v>
       </c>
       <c r="T28" t="n">
-        <v>5.525376531748531</v>
+        <v>5.52537653174853</v>
       </c>
       <c r="U28" t="n">
-        <v>0.07053672168189624</v>
+        <v>0.07053672168189623</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33186,7 +33186,7 @@
         <v>244.6832033452455</v>
       </c>
       <c r="K29" t="n">
-        <v>366.7166942373558</v>
+        <v>366.7166942373557</v>
       </c>
       <c r="L29" t="n">
         <v>454.9444865097257</v>
@@ -33195,28 +33195,28 @@
         <v>506.2133996600343</v>
       </c>
       <c r="N29" t="n">
-        <v>514.4044616963492</v>
+        <v>514.4044616963491</v>
       </c>
       <c r="O29" t="n">
-        <v>485.7375463866771</v>
+        <v>485.737546386677</v>
       </c>
       <c r="P29" t="n">
         <v>414.5657579057186</v>
       </c>
       <c r="Q29" t="n">
-        <v>311.3216191725814</v>
+        <v>311.3216191725813</v>
       </c>
       <c r="R29" t="n">
         <v>181.0934626092965</v>
       </c>
       <c r="S29" t="n">
-        <v>65.69426349406953</v>
+        <v>65.69426349406952</v>
       </c>
       <c r="T29" t="n">
-        <v>12.61992927900337</v>
+        <v>12.61992927900336</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2306326310269032</v>
+        <v>0.2306326310269031</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33256,43 +33256,43 @@
         <v>1.542491706213541</v>
       </c>
       <c r="H30" t="n">
-        <v>14.89722253106236</v>
+        <v>14.89722253106235</v>
       </c>
       <c r="I30" t="n">
-        <v>53.10771883235218</v>
+        <v>53.10771883235217</v>
       </c>
       <c r="J30" t="n">
         <v>145.7316396646749</v>
       </c>
       <c r="K30" t="n">
-        <v>249.0785839809822</v>
+        <v>249.0785839809821</v>
       </c>
       <c r="L30" t="n">
         <v>334.9168943688655</v>
       </c>
       <c r="M30" t="n">
-        <v>390.8322187191063</v>
+        <v>390.8322187191062</v>
       </c>
       <c r="N30" t="n">
         <v>401.1763845910384</v>
       </c>
       <c r="O30" t="n">
-        <v>366.9980157323068</v>
+        <v>366.9980157323067</v>
       </c>
       <c r="P30" t="n">
-        <v>294.548262741777</v>
+        <v>294.5482627417769</v>
       </c>
       <c r="Q30" t="n">
         <v>196.8977132352583</v>
       </c>
       <c r="R30" t="n">
-        <v>95.76979207525829</v>
+        <v>95.76979207525828</v>
       </c>
       <c r="S30" t="n">
-        <v>28.65110691146641</v>
+        <v>28.6511069114664</v>
       </c>
       <c r="T30" t="n">
-        <v>6.217324026360717</v>
+        <v>6.217324026360716</v>
       </c>
       <c r="U30" t="n">
         <v>0.1014797175140488</v>
@@ -33338,10 +33338,10 @@
         <v>11.49748563414908</v>
       </c>
       <c r="I31" t="n">
-        <v>38.88924588728543</v>
+        <v>38.88924588728542</v>
       </c>
       <c r="J31" t="n">
-        <v>91.42734742001774</v>
+        <v>91.42734742001772</v>
       </c>
       <c r="K31" t="n">
         <v>150.2432171824388</v>
@@ -33359,7 +33359,7 @@
         <v>182.7841581183536</v>
       </c>
       <c r="P31" t="n">
-        <v>156.4034242093244</v>
+        <v>156.4034242093243</v>
       </c>
       <c r="Q31" t="n">
         <v>108.2856239019909</v>
@@ -33368,13 +33368,13 @@
         <v>58.14577090644305</v>
       </c>
       <c r="S31" t="n">
-        <v>22.53648257736582</v>
+        <v>22.53648257736581</v>
       </c>
       <c r="T31" t="n">
-        <v>5.525376531748531</v>
+        <v>5.52537653174853</v>
       </c>
       <c r="U31" t="n">
-        <v>0.07053672168189624</v>
+        <v>0.07053672168189623</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33423,7 +33423,7 @@
         <v>244.6832033452455</v>
       </c>
       <c r="K32" t="n">
-        <v>366.7166942373558</v>
+        <v>366.7166942373557</v>
       </c>
       <c r="L32" t="n">
         <v>454.9444865097257</v>
@@ -33432,28 +33432,28 @@
         <v>506.2133996600343</v>
       </c>
       <c r="N32" t="n">
-        <v>514.4044616963492</v>
+        <v>514.4044616963491</v>
       </c>
       <c r="O32" t="n">
-        <v>485.7375463866771</v>
+        <v>485.737546386677</v>
       </c>
       <c r="P32" t="n">
         <v>414.5657579057186</v>
       </c>
       <c r="Q32" t="n">
-        <v>311.3216191725814</v>
+        <v>311.3216191725813</v>
       </c>
       <c r="R32" t="n">
         <v>181.0934626092965</v>
       </c>
       <c r="S32" t="n">
-        <v>65.69426349406953</v>
+        <v>65.69426349406952</v>
       </c>
       <c r="T32" t="n">
-        <v>12.61992927900337</v>
+        <v>12.61992927900336</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2306326310269032</v>
+        <v>0.2306326310269031</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33493,43 +33493,43 @@
         <v>1.542491706213541</v>
       </c>
       <c r="H33" t="n">
-        <v>14.89722253106236</v>
+        <v>14.89722253106235</v>
       </c>
       <c r="I33" t="n">
-        <v>53.10771883235218</v>
+        <v>53.10771883235217</v>
       </c>
       <c r="J33" t="n">
         <v>145.7316396646749</v>
       </c>
       <c r="K33" t="n">
-        <v>249.0785839809822</v>
+        <v>249.0785839809821</v>
       </c>
       <c r="L33" t="n">
         <v>334.9168943688655</v>
       </c>
       <c r="M33" t="n">
-        <v>390.8322187191063</v>
+        <v>390.8322187191062</v>
       </c>
       <c r="N33" t="n">
         <v>401.1763845910384</v>
       </c>
       <c r="O33" t="n">
-        <v>366.9980157323068</v>
+        <v>366.9980157323067</v>
       </c>
       <c r="P33" t="n">
-        <v>294.548262741777</v>
+        <v>294.5482627417769</v>
       </c>
       <c r="Q33" t="n">
         <v>196.8977132352583</v>
       </c>
       <c r="R33" t="n">
-        <v>95.76979207525829</v>
+        <v>95.76979207525828</v>
       </c>
       <c r="S33" t="n">
-        <v>28.65110691146641</v>
+        <v>28.6511069114664</v>
       </c>
       <c r="T33" t="n">
-        <v>6.217324026360717</v>
+        <v>6.217324026360716</v>
       </c>
       <c r="U33" t="n">
         <v>0.1014797175140488</v>
@@ -33575,10 +33575,10 @@
         <v>11.49748563414908</v>
       </c>
       <c r="I34" t="n">
-        <v>38.88924588728543</v>
+        <v>38.88924588728542</v>
       </c>
       <c r="J34" t="n">
-        <v>91.42734742001774</v>
+        <v>91.42734742001772</v>
       </c>
       <c r="K34" t="n">
         <v>150.2432171824388</v>
@@ -33596,7 +33596,7 @@
         <v>182.7841581183536</v>
       </c>
       <c r="P34" t="n">
-        <v>156.4034242093244</v>
+        <v>156.4034242093243</v>
       </c>
       <c r="Q34" t="n">
         <v>108.2856239019909</v>
@@ -33605,13 +33605,13 @@
         <v>58.14577090644305</v>
       </c>
       <c r="S34" t="n">
-        <v>22.53648257736582</v>
+        <v>22.53648257736581</v>
       </c>
       <c r="T34" t="n">
-        <v>5.525376531748531</v>
+        <v>5.52537653174853</v>
       </c>
       <c r="U34" t="n">
-        <v>0.07053672168189624</v>
+        <v>0.07053672168189623</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33660,7 +33660,7 @@
         <v>244.6832033452455</v>
       </c>
       <c r="K35" t="n">
-        <v>366.7166942373558</v>
+        <v>366.7166942373557</v>
       </c>
       <c r="L35" t="n">
         <v>454.9444865097257</v>
@@ -33669,28 +33669,28 @@
         <v>506.2133996600343</v>
       </c>
       <c r="N35" t="n">
-        <v>514.4044616963492</v>
+        <v>514.4044616963491</v>
       </c>
       <c r="O35" t="n">
-        <v>485.7375463866771</v>
+        <v>485.737546386677</v>
       </c>
       <c r="P35" t="n">
         <v>414.5657579057186</v>
       </c>
       <c r="Q35" t="n">
-        <v>311.3216191725814</v>
+        <v>311.3216191725813</v>
       </c>
       <c r="R35" t="n">
         <v>181.0934626092965</v>
       </c>
       <c r="S35" t="n">
-        <v>65.69426349406953</v>
+        <v>65.69426349406952</v>
       </c>
       <c r="T35" t="n">
-        <v>12.61992927900337</v>
+        <v>12.61992927900336</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2306326310269032</v>
+        <v>0.2306326310269031</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33730,43 +33730,43 @@
         <v>1.542491706213541</v>
       </c>
       <c r="H36" t="n">
-        <v>14.89722253106236</v>
+        <v>14.89722253106235</v>
       </c>
       <c r="I36" t="n">
-        <v>53.10771883235218</v>
+        <v>53.10771883235217</v>
       </c>
       <c r="J36" t="n">
         <v>145.7316396646749</v>
       </c>
       <c r="K36" t="n">
-        <v>249.0785839809822</v>
+        <v>249.0785839809821</v>
       </c>
       <c r="L36" t="n">
         <v>334.9168943688655</v>
       </c>
       <c r="M36" t="n">
-        <v>390.8322187191063</v>
+        <v>390.8322187191062</v>
       </c>
       <c r="N36" t="n">
         <v>401.1763845910384</v>
       </c>
       <c r="O36" t="n">
-        <v>366.9980157323068</v>
+        <v>366.9980157323067</v>
       </c>
       <c r="P36" t="n">
-        <v>294.548262741777</v>
+        <v>294.5482627417769</v>
       </c>
       <c r="Q36" t="n">
         <v>196.8977132352583</v>
       </c>
       <c r="R36" t="n">
-        <v>95.76979207525829</v>
+        <v>95.76979207525828</v>
       </c>
       <c r="S36" t="n">
-        <v>28.65110691146641</v>
+        <v>28.6511069114664</v>
       </c>
       <c r="T36" t="n">
-        <v>6.217324026360717</v>
+        <v>6.217324026360716</v>
       </c>
       <c r="U36" t="n">
         <v>0.1014797175140488</v>
@@ -33812,10 +33812,10 @@
         <v>11.49748563414908</v>
       </c>
       <c r="I37" t="n">
-        <v>38.88924588728543</v>
+        <v>38.88924588728542</v>
       </c>
       <c r="J37" t="n">
-        <v>91.42734742001774</v>
+        <v>91.42734742001772</v>
       </c>
       <c r="K37" t="n">
         <v>150.2432171824388</v>
@@ -33833,7 +33833,7 @@
         <v>182.7841581183536</v>
       </c>
       <c r="P37" t="n">
-        <v>156.4034242093244</v>
+        <v>156.4034242093243</v>
       </c>
       <c r="Q37" t="n">
         <v>108.2856239019909</v>
@@ -33842,13 +33842,13 @@
         <v>58.14577090644305</v>
       </c>
       <c r="S37" t="n">
-        <v>22.53648257736582</v>
+        <v>22.53648257736581</v>
       </c>
       <c r="T37" t="n">
-        <v>5.525376531748531</v>
+        <v>5.52537653174853</v>
       </c>
       <c r="U37" t="n">
-        <v>0.07053672168189624</v>
+        <v>0.07053672168189623</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33897,7 +33897,7 @@
         <v>244.6832033452455</v>
       </c>
       <c r="K38" t="n">
-        <v>366.7166942373558</v>
+        <v>366.7166942373557</v>
       </c>
       <c r="L38" t="n">
         <v>454.9444865097257</v>
@@ -33906,28 +33906,28 @@
         <v>506.2133996600343</v>
       </c>
       <c r="N38" t="n">
-        <v>514.4044616963492</v>
+        <v>514.4044616963491</v>
       </c>
       <c r="O38" t="n">
-        <v>485.7375463866771</v>
+        <v>485.737546386677</v>
       </c>
       <c r="P38" t="n">
         <v>414.5657579057186</v>
       </c>
       <c r="Q38" t="n">
-        <v>311.3216191725814</v>
+        <v>311.3216191725813</v>
       </c>
       <c r="R38" t="n">
         <v>181.0934626092965</v>
       </c>
       <c r="S38" t="n">
-        <v>65.69426349406953</v>
+        <v>65.69426349406952</v>
       </c>
       <c r="T38" t="n">
-        <v>12.61992927900337</v>
+        <v>12.61992927900336</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2306326310269032</v>
+        <v>0.2306326310269031</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33967,43 +33967,43 @@
         <v>1.542491706213541</v>
       </c>
       <c r="H39" t="n">
-        <v>14.89722253106236</v>
+        <v>14.89722253106235</v>
       </c>
       <c r="I39" t="n">
-        <v>53.10771883235218</v>
+        <v>53.10771883235217</v>
       </c>
       <c r="J39" t="n">
         <v>145.7316396646749</v>
       </c>
       <c r="K39" t="n">
-        <v>249.0785839809822</v>
+        <v>249.0785839809821</v>
       </c>
       <c r="L39" t="n">
         <v>334.9168943688655</v>
       </c>
       <c r="M39" t="n">
-        <v>390.8322187191063</v>
+        <v>390.8322187191062</v>
       </c>
       <c r="N39" t="n">
         <v>401.1763845910384</v>
       </c>
       <c r="O39" t="n">
-        <v>366.9980157323068</v>
+        <v>366.9980157323067</v>
       </c>
       <c r="P39" t="n">
-        <v>294.548262741777</v>
+        <v>294.5482627417769</v>
       </c>
       <c r="Q39" t="n">
         <v>196.8977132352583</v>
       </c>
       <c r="R39" t="n">
-        <v>95.76979207525829</v>
+        <v>95.76979207525828</v>
       </c>
       <c r="S39" t="n">
-        <v>28.65110691146641</v>
+        <v>28.6511069114664</v>
       </c>
       <c r="T39" t="n">
-        <v>6.217324026360717</v>
+        <v>6.217324026360716</v>
       </c>
       <c r="U39" t="n">
         <v>0.1014797175140488</v>
@@ -34049,10 +34049,10 @@
         <v>11.49748563414908</v>
       </c>
       <c r="I40" t="n">
-        <v>38.88924588728543</v>
+        <v>38.88924588728542</v>
       </c>
       <c r="J40" t="n">
-        <v>91.42734742001774</v>
+        <v>91.42734742001772</v>
       </c>
       <c r="K40" t="n">
         <v>150.2432171824388</v>
@@ -34070,7 +34070,7 @@
         <v>182.7841581183536</v>
       </c>
       <c r="P40" t="n">
-        <v>156.4034242093244</v>
+        <v>156.4034242093243</v>
       </c>
       <c r="Q40" t="n">
         <v>108.2856239019909</v>
@@ -34079,13 +34079,13 @@
         <v>58.14577090644305</v>
       </c>
       <c r="S40" t="n">
-        <v>22.53648257736582</v>
+        <v>22.53648257736581</v>
       </c>
       <c r="T40" t="n">
-        <v>5.525376531748531</v>
+        <v>5.52537653174853</v>
       </c>
       <c r="U40" t="n">
-        <v>0.07053672168189624</v>
+        <v>0.07053672168189623</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34134,7 +34134,7 @@
         <v>244.6832033452455</v>
       </c>
       <c r="K41" t="n">
-        <v>366.7166942373558</v>
+        <v>366.7166942373557</v>
       </c>
       <c r="L41" t="n">
         <v>454.9444865097257</v>
@@ -34143,28 +34143,28 @@
         <v>506.2133996600343</v>
       </c>
       <c r="N41" t="n">
-        <v>514.4044616963492</v>
+        <v>514.4044616963491</v>
       </c>
       <c r="O41" t="n">
-        <v>485.7375463866771</v>
+        <v>485.737546386677</v>
       </c>
       <c r="P41" t="n">
         <v>414.5657579057186</v>
       </c>
       <c r="Q41" t="n">
-        <v>311.3216191725814</v>
+        <v>311.3216191725813</v>
       </c>
       <c r="R41" t="n">
         <v>181.0934626092965</v>
       </c>
       <c r="S41" t="n">
-        <v>65.69426349406953</v>
+        <v>65.69426349406952</v>
       </c>
       <c r="T41" t="n">
-        <v>12.61992927900337</v>
+        <v>12.61992927900336</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2306326310269032</v>
+        <v>0.2306326310269031</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34204,43 +34204,43 @@
         <v>1.542491706213541</v>
       </c>
       <c r="H42" t="n">
-        <v>14.89722253106236</v>
+        <v>14.89722253106235</v>
       </c>
       <c r="I42" t="n">
-        <v>53.10771883235218</v>
+        <v>53.10771883235217</v>
       </c>
       <c r="J42" t="n">
         <v>145.7316396646749</v>
       </c>
       <c r="K42" t="n">
-        <v>249.0785839809822</v>
+        <v>249.0785839809821</v>
       </c>
       <c r="L42" t="n">
         <v>334.9168943688655</v>
       </c>
       <c r="M42" t="n">
-        <v>390.8322187191063</v>
+        <v>390.8322187191062</v>
       </c>
       <c r="N42" t="n">
         <v>401.1763845910384</v>
       </c>
       <c r="O42" t="n">
-        <v>366.9980157323068</v>
+        <v>366.9980157323067</v>
       </c>
       <c r="P42" t="n">
-        <v>294.548262741777</v>
+        <v>294.5482627417769</v>
       </c>
       <c r="Q42" t="n">
         <v>196.8977132352583</v>
       </c>
       <c r="R42" t="n">
-        <v>95.76979207525829</v>
+        <v>95.76979207525828</v>
       </c>
       <c r="S42" t="n">
-        <v>28.65110691146641</v>
+        <v>28.6511069114664</v>
       </c>
       <c r="T42" t="n">
-        <v>6.217324026360717</v>
+        <v>6.217324026360716</v>
       </c>
       <c r="U42" t="n">
         <v>0.1014797175140488</v>
@@ -34286,10 +34286,10 @@
         <v>11.49748563414908</v>
       </c>
       <c r="I43" t="n">
-        <v>38.88924588728543</v>
+        <v>38.88924588728542</v>
       </c>
       <c r="J43" t="n">
-        <v>91.42734742001774</v>
+        <v>91.42734742001772</v>
       </c>
       <c r="K43" t="n">
         <v>150.2432171824388</v>
@@ -34307,7 +34307,7 @@
         <v>182.7841581183536</v>
       </c>
       <c r="P43" t="n">
-        <v>156.4034242093244</v>
+        <v>156.4034242093243</v>
       </c>
       <c r="Q43" t="n">
         <v>108.2856239019909</v>
@@ -34316,13 +34316,13 @@
         <v>58.14577090644305</v>
       </c>
       <c r="S43" t="n">
-        <v>22.53648257736582</v>
+        <v>22.53648257736581</v>
       </c>
       <c r="T43" t="n">
-        <v>5.525376531748531</v>
+        <v>5.52537653174853</v>
       </c>
       <c r="U43" t="n">
-        <v>0.07053672168189624</v>
+        <v>0.07053672168189623</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34786,16 +34786,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>43.28534947792182</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
         <v>70.09551364982758</v>
@@ -35023,16 +35023,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N6" t="n">
-        <v>113.3808631277494</v>
-      </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35254,16 +35254,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>55.51629994036225</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
@@ -35272,7 +35272,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35491,10 +35491,10 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>68.29072693268336</v>
+        <v>332.755963945262</v>
       </c>
       <c r="L12" t="n">
-        <v>138.6157555714074</v>
+        <v>509.4561008748665</v>
       </c>
       <c r="M12" t="n">
         <v>647.0155045122262</v>
@@ -35503,13 +35503,13 @@
         <v>680.0057497502846</v>
       </c>
       <c r="O12" t="n">
-        <v>554.9858674269919</v>
+        <v>306.4419220403455</v>
       </c>
       <c r="P12" t="n">
-        <v>428.2502711927636</v>
+        <v>109.7875025528265</v>
       </c>
       <c r="Q12" t="n">
-        <v>91.26547556417809</v>
+        <v>22.9666072747238</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35646,25 +35646,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.5453525391271</v>
+        <v>190.5453525391272</v>
       </c>
       <c r="K14" t="n">
-        <v>407.5425384040855</v>
+        <v>407.5425384040856</v>
       </c>
       <c r="L14" t="n">
         <v>558.3972305517154</v>
       </c>
       <c r="M14" t="n">
-        <v>638.0987989730412</v>
+        <v>638.0987989730413</v>
       </c>
       <c r="N14" t="n">
-        <v>633.6441091513592</v>
+        <v>633.6441091513593</v>
       </c>
       <c r="O14" t="n">
         <v>552.6880856233096</v>
       </c>
       <c r="P14" t="n">
-        <v>433.6515619588823</v>
+        <v>433.6515619588824</v>
       </c>
       <c r="Q14" t="n">
         <v>247.6524856312122</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>15.9212916259322</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>68.29072693268336</v>
+        <v>84.21201855861524</v>
       </c>
       <c r="L15" t="n">
-        <v>509.4561008748665</v>
+        <v>509.4561008748666</v>
       </c>
       <c r="M15" t="n">
         <v>647.0155045122262</v>
       </c>
       <c r="N15" t="n">
-        <v>680.0057497502846</v>
+        <v>680.0057497502848</v>
       </c>
       <c r="O15" t="n">
-        <v>554.9858674269919</v>
+        <v>554.9858674269921</v>
       </c>
       <c r="P15" t="n">
         <v>109.7875025528265</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.9666072747238</v>
+        <v>22.96660727472386</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35825,7 +35825,7 @@
         <v>126.7147238369852</v>
       </c>
       <c r="Q16" t="n">
-        <v>3.452847899353216</v>
+        <v>3.45284789935323</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,25 +35883,25 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.5453525391271</v>
+        <v>190.5453525391272</v>
       </c>
       <c r="K17" t="n">
-        <v>407.5425384040855</v>
+        <v>407.5425384040856</v>
       </c>
       <c r="L17" t="n">
         <v>558.3972305517154</v>
       </c>
       <c r="M17" t="n">
-        <v>638.0987989730412</v>
+        <v>638.0987989730413</v>
       </c>
       <c r="N17" t="n">
-        <v>633.6441091513592</v>
+        <v>633.6441091513593</v>
       </c>
       <c r="O17" t="n">
         <v>552.6880856233096</v>
       </c>
       <c r="P17" t="n">
-        <v>433.6515619588823</v>
+        <v>433.6515619588824</v>
       </c>
       <c r="Q17" t="n">
         <v>247.6524856312122</v>
@@ -35965,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>68.29072693268336</v>
+        <v>159.6115691954075</v>
       </c>
       <c r="L18" t="n">
-        <v>509.4561008748665</v>
+        <v>509.4561008748666</v>
       </c>
       <c r="M18" t="n">
         <v>647.0155045122262</v>
       </c>
       <c r="N18" t="n">
-        <v>200.6633754067311</v>
+        <v>680.0057497502848</v>
       </c>
       <c r="O18" t="n">
-        <v>554.9858674269919</v>
+        <v>161.1235481502625</v>
       </c>
       <c r="P18" t="n">
-        <v>428.2502711927636</v>
+        <v>428.2502711927637</v>
       </c>
       <c r="Q18" t="n">
-        <v>199.7675046042727</v>
+        <v>22.96660727472386</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36062,7 +36062,7 @@
         <v>126.7147238369852</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.452847899353216</v>
+        <v>3.45284789935323</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,25 +36120,25 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.5453525391271</v>
+        <v>190.5453525391272</v>
       </c>
       <c r="K20" t="n">
-        <v>407.5425384040855</v>
+        <v>407.5425384040856</v>
       </c>
       <c r="L20" t="n">
         <v>558.3972305517154</v>
       </c>
       <c r="M20" t="n">
-        <v>638.0987989730412</v>
+        <v>638.0987989730413</v>
       </c>
       <c r="N20" t="n">
-        <v>633.6441091513592</v>
+        <v>633.6441091513593</v>
       </c>
       <c r="O20" t="n">
         <v>552.6880856233096</v>
       </c>
       <c r="P20" t="n">
-        <v>433.6515619588823</v>
+        <v>433.6515619588824</v>
       </c>
       <c r="Q20" t="n">
         <v>247.6524856312122</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>119.8578301584802</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>332.755963945262</v>
@@ -36211,16 +36211,16 @@
         <v>647.0155045122262</v>
       </c>
       <c r="N21" t="n">
-        <v>680.0057497502846</v>
+        <v>483.8393810271601</v>
       </c>
       <c r="O21" t="n">
-        <v>161.1235481502625</v>
+        <v>554.9858674269921</v>
       </c>
       <c r="P21" t="n">
-        <v>428.2502711927636</v>
+        <v>428.2502711927637</v>
       </c>
       <c r="Q21" t="n">
-        <v>100.8047276698489</v>
+        <v>22.96660727472386</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36299,7 +36299,7 @@
         <v>126.7147238369852</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.452847899353216</v>
+        <v>3.45284789935323</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,16 +36360,16 @@
         <v>232.733913990633</v>
       </c>
       <c r="K23" t="n">
-        <v>470.77225576354</v>
+        <v>470.7722557635399</v>
       </c>
       <c r="L23" t="n">
-        <v>636.8392860901889</v>
+        <v>636.8392860901888</v>
       </c>
       <c r="M23" t="n">
         <v>725.3806999255941</v>
       </c>
       <c r="N23" t="n">
-        <v>722.3383225117425</v>
+        <v>722.3383225117424</v>
       </c>
       <c r="O23" t="n">
         <v>636.4395162277357</v>
@@ -36378,10 +36378,10 @@
         <v>505.1314703219317</v>
       </c>
       <c r="Q23" t="n">
-        <v>301.3309199580366</v>
+        <v>301.3309199580365</v>
       </c>
       <c r="R23" t="n">
-        <v>31.22434466814684</v>
+        <v>31.22434466814681</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,25 +36439,25 @@
         <v>144.9850483384171</v>
       </c>
       <c r="K24" t="n">
-        <v>111.2371450066232</v>
+        <v>116.297724278233</v>
       </c>
       <c r="L24" t="n">
-        <v>567.2028598924505</v>
+        <v>196.3625145889913</v>
       </c>
       <c r="M24" t="n">
-        <v>714.403248547088</v>
+        <v>714.4032485470877</v>
       </c>
       <c r="N24" t="n">
-        <v>269.8346725077051</v>
+        <v>749.1770468512586</v>
       </c>
       <c r="O24" t="n">
-        <v>548.0416673354149</v>
+        <v>224.4017712878623</v>
       </c>
       <c r="P24" t="n">
         <v>160.5738553274467</v>
       </c>
       <c r="Q24" t="n">
-        <v>56.91593914923681</v>
+        <v>266.9932268850858</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36536,7 +36536,7 @@
         <v>153.6819834742178</v>
       </c>
       <c r="Q25" t="n">
-        <v>22.12358065029655</v>
+        <v>22.12358065029653</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,16 +36597,16 @@
         <v>232.733913990633</v>
       </c>
       <c r="K26" t="n">
-        <v>470.77225576354</v>
+        <v>470.7722557635399</v>
       </c>
       <c r="L26" t="n">
-        <v>636.8392860901889</v>
+        <v>636.8392860901888</v>
       </c>
       <c r="M26" t="n">
         <v>725.3806999255941</v>
       </c>
       <c r="N26" t="n">
-        <v>722.3383225117425</v>
+        <v>722.3383225117424</v>
       </c>
       <c r="O26" t="n">
         <v>636.4395162277357</v>
@@ -36615,10 +36615,10 @@
         <v>505.1314703219317</v>
       </c>
       <c r="Q26" t="n">
-        <v>301.3309199580366</v>
+        <v>301.3309199580365</v>
       </c>
       <c r="R26" t="n">
-        <v>31.22434466814684</v>
+        <v>31.22434466814681</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,25 +36676,25 @@
         <v>144.9850483384171</v>
       </c>
       <c r="K27" t="n">
-        <v>111.2371450066232</v>
+        <v>111.2371450066231</v>
       </c>
       <c r="L27" t="n">
         <v>567.2028598924505</v>
       </c>
       <c r="M27" t="n">
-        <v>714.403248547088</v>
+        <v>325.7180566779739</v>
       </c>
       <c r="N27" t="n">
-        <v>269.8346725077051</v>
+        <v>269.834672507705</v>
       </c>
       <c r="O27" t="n">
-        <v>548.0416673354149</v>
+        <v>618.2640905645918</v>
       </c>
       <c r="P27" t="n">
-        <v>160.5738553274467</v>
+        <v>479.0366239673838</v>
       </c>
       <c r="Q27" t="n">
-        <v>56.91593914923681</v>
+        <v>56.91593914923675</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36773,7 +36773,7 @@
         <v>153.6819834742178</v>
       </c>
       <c r="Q28" t="n">
-        <v>22.12358065029655</v>
+        <v>22.12358065029653</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,16 +36834,16 @@
         <v>232.733913990633</v>
       </c>
       <c r="K29" t="n">
-        <v>470.77225576354</v>
+        <v>470.7722557635399</v>
       </c>
       <c r="L29" t="n">
-        <v>636.8392860901889</v>
+        <v>636.8392860901888</v>
       </c>
       <c r="M29" t="n">
         <v>725.3806999255941</v>
       </c>
       <c r="N29" t="n">
-        <v>722.3383225117425</v>
+        <v>722.3383225117424</v>
       </c>
       <c r="O29" t="n">
         <v>636.4395162277357</v>
@@ -36852,10 +36852,10 @@
         <v>505.1314703219317</v>
       </c>
       <c r="Q29" t="n">
-        <v>301.3309199580366</v>
+        <v>301.3309199580365</v>
       </c>
       <c r="R29" t="n">
-        <v>31.22434466814684</v>
+        <v>31.22434466814681</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,25 +36913,25 @@
         <v>144.9850483384171</v>
       </c>
       <c r="K30" t="n">
-        <v>111.2371450066232</v>
+        <v>111.2371450066231</v>
       </c>
       <c r="L30" t="n">
         <v>567.2028598924505</v>
       </c>
       <c r="M30" t="n">
-        <v>714.403248547088</v>
+        <v>248.6981847970879</v>
       </c>
       <c r="N30" t="n">
-        <v>269.8346725077051</v>
+        <v>346.854544388591</v>
       </c>
       <c r="O30" t="n">
-        <v>548.0416673354149</v>
+        <v>618.2640905645918</v>
       </c>
       <c r="P30" t="n">
-        <v>160.5738553274467</v>
+        <v>479.0366239673838</v>
       </c>
       <c r="Q30" t="n">
-        <v>56.91593914923681</v>
+        <v>56.91593914923675</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37010,7 +37010,7 @@
         <v>153.6819834742178</v>
       </c>
       <c r="Q31" t="n">
-        <v>22.12358065029655</v>
+        <v>22.12358065029653</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,16 +37071,16 @@
         <v>232.733913990633</v>
       </c>
       <c r="K32" t="n">
-        <v>470.77225576354</v>
+        <v>470.7722557635399</v>
       </c>
       <c r="L32" t="n">
-        <v>636.8392860901889</v>
+        <v>636.8392860901888</v>
       </c>
       <c r="M32" t="n">
         <v>725.3806999255941</v>
       </c>
       <c r="N32" t="n">
-        <v>722.3383225117425</v>
+        <v>722.3383225117424</v>
       </c>
       <c r="O32" t="n">
         <v>636.4395162277357</v>
@@ -37089,10 +37089,10 @@
         <v>505.1314703219317</v>
       </c>
       <c r="Q32" t="n">
-        <v>301.3309199580366</v>
+        <v>301.3309199580365</v>
       </c>
       <c r="R32" t="n">
-        <v>31.22434466814684</v>
+        <v>31.22434466814681</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,25 +37150,25 @@
         <v>144.9850483384171</v>
       </c>
       <c r="K33" t="n">
-        <v>111.2371450066232</v>
+        <v>111.2371450066231</v>
       </c>
       <c r="L33" t="n">
         <v>567.2028598924505</v>
       </c>
       <c r="M33" t="n">
-        <v>714.403248547088</v>
+        <v>325.718056677974</v>
       </c>
       <c r="N33" t="n">
-        <v>269.8346725077051</v>
+        <v>269.834672507705</v>
       </c>
       <c r="O33" t="n">
-        <v>548.0416673354149</v>
+        <v>618.2640905645918</v>
       </c>
       <c r="P33" t="n">
-        <v>160.5738553274467</v>
+        <v>479.0366239673838</v>
       </c>
       <c r="Q33" t="n">
-        <v>56.91593914923681</v>
+        <v>56.91593914923675</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37247,7 +37247,7 @@
         <v>153.6819834742178</v>
       </c>
       <c r="Q34" t="n">
-        <v>22.12358065029655</v>
+        <v>22.12358065029653</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,16 +37308,16 @@
         <v>232.733913990633</v>
       </c>
       <c r="K35" t="n">
-        <v>470.77225576354</v>
+        <v>470.7722557635399</v>
       </c>
       <c r="L35" t="n">
-        <v>636.8392860901889</v>
+        <v>636.8392860901888</v>
       </c>
       <c r="M35" t="n">
         <v>725.3806999255941</v>
       </c>
       <c r="N35" t="n">
-        <v>722.3383225117425</v>
+        <v>722.3383225117424</v>
       </c>
       <c r="O35" t="n">
         <v>636.4395162277357</v>
@@ -37326,10 +37326,10 @@
         <v>505.1314703219317</v>
       </c>
       <c r="Q35" t="n">
-        <v>301.3309199580366</v>
+        <v>301.3309199580365</v>
       </c>
       <c r="R35" t="n">
-        <v>31.22434466814684</v>
+        <v>31.22434466814681</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,25 +37387,25 @@
         <v>144.9850483384171</v>
       </c>
       <c r="K36" t="n">
-        <v>111.2371450066232</v>
+        <v>111.2371450066231</v>
       </c>
       <c r="L36" t="n">
         <v>567.2028598924505</v>
       </c>
       <c r="M36" t="n">
-        <v>714.403248547088</v>
+        <v>248.6981847970879</v>
       </c>
       <c r="N36" t="n">
-        <v>269.8346725077051</v>
+        <v>346.854544388591</v>
       </c>
       <c r="O36" t="n">
-        <v>548.0416673354149</v>
+        <v>618.2640905645918</v>
       </c>
       <c r="P36" t="n">
-        <v>160.5738553274467</v>
+        <v>479.0366239673838</v>
       </c>
       <c r="Q36" t="n">
-        <v>56.91593914923681</v>
+        <v>56.91593914923675</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37484,7 +37484,7 @@
         <v>153.6819834742178</v>
       </c>
       <c r="Q37" t="n">
-        <v>22.12358065029655</v>
+        <v>22.12358065029653</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,16 +37545,16 @@
         <v>232.733913990633</v>
       </c>
       <c r="K38" t="n">
-        <v>470.77225576354</v>
+        <v>470.7722557635399</v>
       </c>
       <c r="L38" t="n">
-        <v>636.8392860901889</v>
+        <v>636.8392860901888</v>
       </c>
       <c r="M38" t="n">
         <v>725.3806999255941</v>
       </c>
       <c r="N38" t="n">
-        <v>722.3383225117425</v>
+        <v>722.3383225117424</v>
       </c>
       <c r="O38" t="n">
         <v>636.4395162277357</v>
@@ -37563,10 +37563,10 @@
         <v>505.1314703219317</v>
       </c>
       <c r="Q38" t="n">
-        <v>301.3309199580366</v>
+        <v>301.3309199580365</v>
       </c>
       <c r="R38" t="n">
-        <v>31.22434466814684</v>
+        <v>31.22434466814681</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,25 +37624,25 @@
         <v>144.9850483384171</v>
       </c>
       <c r="K39" t="n">
-        <v>111.2371450066232</v>
+        <v>111.2371450066231</v>
       </c>
       <c r="L39" t="n">
         <v>567.2028598924505</v>
       </c>
       <c r="M39" t="n">
-        <v>714.403248547088</v>
+        <v>325.7180566779739</v>
       </c>
       <c r="N39" t="n">
-        <v>269.8346725077051</v>
+        <v>269.834672507705</v>
       </c>
       <c r="O39" t="n">
-        <v>548.0416673354149</v>
+        <v>618.2640905645918</v>
       </c>
       <c r="P39" t="n">
-        <v>160.5738553274467</v>
+        <v>479.0366239673838</v>
       </c>
       <c r="Q39" t="n">
-        <v>56.91593914923681</v>
+        <v>56.91593914923675</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37721,7 +37721,7 @@
         <v>153.6819834742178</v>
       </c>
       <c r="Q40" t="n">
-        <v>22.12358065029655</v>
+        <v>22.12358065029653</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,16 +37782,16 @@
         <v>232.733913990633</v>
       </c>
       <c r="K41" t="n">
-        <v>470.77225576354</v>
+        <v>470.7722557635399</v>
       </c>
       <c r="L41" t="n">
-        <v>636.8392860901889</v>
+        <v>636.8392860901888</v>
       </c>
       <c r="M41" t="n">
         <v>725.3806999255941</v>
       </c>
       <c r="N41" t="n">
-        <v>722.3383225117425</v>
+        <v>722.3383225117424</v>
       </c>
       <c r="O41" t="n">
         <v>636.4395162277357</v>
@@ -37800,10 +37800,10 @@
         <v>505.1314703219317</v>
       </c>
       <c r="Q41" t="n">
-        <v>301.3309199580366</v>
+        <v>301.3309199580365</v>
       </c>
       <c r="R41" t="n">
-        <v>31.22434466814684</v>
+        <v>31.22434466814681</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,25 +37861,25 @@
         <v>144.9850483384171</v>
       </c>
       <c r="K42" t="n">
-        <v>111.2371450066232</v>
+        <v>111.2371450066231</v>
       </c>
       <c r="L42" t="n">
         <v>567.2028598924505</v>
       </c>
       <c r="M42" t="n">
-        <v>714.403248547088</v>
+        <v>325.7180566779739</v>
       </c>
       <c r="N42" t="n">
-        <v>269.8346725077051</v>
+        <v>269.834672507705</v>
       </c>
       <c r="O42" t="n">
-        <v>548.0416673354149</v>
+        <v>618.2640905645918</v>
       </c>
       <c r="P42" t="n">
-        <v>160.5738553274467</v>
+        <v>479.0366239673838</v>
       </c>
       <c r="Q42" t="n">
-        <v>56.91593914923681</v>
+        <v>56.91593914923675</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37958,7 +37958,7 @@
         <v>153.6819834742178</v>
       </c>
       <c r="Q43" t="n">
-        <v>22.12358065029655</v>
+        <v>22.12358065029653</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>301.3309199580366</v>
       </c>
       <c r="R44" t="n">
-        <v>31.22434466814604</v>
+        <v>31.22434466814684</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,16 +38104,16 @@
         <v>567.2028598924505</v>
       </c>
       <c r="M45" t="n">
-        <v>714.403248547088</v>
+        <v>325.7180566779737</v>
       </c>
       <c r="N45" t="n">
         <v>269.8346725077051</v>
       </c>
       <c r="O45" t="n">
-        <v>548.0416673354149</v>
+        <v>618.2640905645919</v>
       </c>
       <c r="P45" t="n">
-        <v>160.5738553274467</v>
+        <v>479.0366239673839</v>
       </c>
       <c r="Q45" t="n">
         <v>56.91593914923681</v>
